--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>26716</v>
+        <v>26758</v>
       </c>
       <c r="D2">
-        <v>7504</v>
+        <v>7506</v>
       </c>
       <c r="E2">
-        <v>56005841</v>
+        <v>56151430</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>44743</v>
+        <v>44782</v>
       </c>
       <c r="D4">
-        <v>11469</v>
+        <v>11470</v>
       </c>
       <c r="E4">
-        <v>108160996</v>
+        <v>108275017</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>1100725</v>
+        <v>1103725</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>92896</v>
+        <v>92968</v>
       </c>
       <c r="D7">
-        <v>32170</v>
+        <v>32171</v>
       </c>
       <c r="E7">
-        <v>153555468</v>
+        <v>153772059</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>174703</v>
+        <v>174848</v>
       </c>
       <c r="D8">
-        <v>39973</v>
+        <v>39975</v>
       </c>
       <c r="E8">
-        <v>595862441</v>
+        <v>597174943</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>64464</v>
+        <v>64521</v>
       </c>
       <c r="D9">
         <v>9980</v>
       </c>
       <c r="E9">
-        <v>171815374</v>
+        <v>172217737</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>252452</v>
+        <v>252747</v>
       </c>
       <c r="D10">
-        <v>29242</v>
+        <v>29250</v>
       </c>
       <c r="E10">
-        <v>1609501777</v>
+        <v>1612596525</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>23308</v>
+        <v>23340</v>
       </c>
       <c r="D11">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="E11">
-        <v>56565146</v>
+        <v>56695092</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -959,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8709</v>
+        <v>8717</v>
       </c>
       <c r="D12">
         <v>2096</v>
       </c>
       <c r="E12">
-        <v>18407585</v>
+        <v>18421324</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>36261</v>
+        <v>36321</v>
       </c>
       <c r="D13">
         <v>8417</v>
       </c>
       <c r="E13">
-        <v>89544284</v>
+        <v>89810246</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>112386</v>
+        <v>112537</v>
       </c>
       <c r="D14">
-        <v>25153</v>
+        <v>25154</v>
       </c>
       <c r="E14">
-        <v>347041586</v>
+        <v>348093366</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>53132</v>
+        <v>53188</v>
       </c>
       <c r="D15">
         <v>11247</v>
       </c>
       <c r="E15">
-        <v>190961933</v>
+        <v>191327471</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>126979</v>
+        <v>127281</v>
       </c>
       <c r="D17">
         <v>19526</v>
       </c>
       <c r="E17">
-        <v>277101380</v>
+        <v>278376219</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>60119</v>
+        <v>60131</v>
       </c>
       <c r="D18">
         <v>23685</v>
       </c>
       <c r="E18">
-        <v>82428663</v>
+        <v>82460489</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>99528</v>
+        <v>99671</v>
       </c>
       <c r="D19">
         <v>13416</v>
       </c>
       <c r="E19">
-        <v>307741737</v>
+        <v>308911034</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1191,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>105220</v>
+        <v>105283</v>
       </c>
       <c r="D20">
-        <v>24232</v>
+        <v>24233</v>
       </c>
       <c r="E20">
-        <v>214808866</v>
+        <v>215344096</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>9436</v>
+        <v>9452</v>
       </c>
       <c r="D21">
         <v>2888</v>
       </c>
       <c r="E21">
-        <v>32028014</v>
+        <v>32082642</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>11935</v>
+        <v>11942</v>
       </c>
       <c r="D23">
         <v>3237</v>
       </c>
       <c r="E23">
-        <v>24197914</v>
+        <v>24213631</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1336,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D25">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E25">
-        <v>1485448</v>
+        <v>1486948</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>21130</v>
+        <v>21140</v>
       </c>
       <c r="D26">
         <v>8045</v>
       </c>
       <c r="E26">
-        <v>33179804</v>
+        <v>33194523</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1394,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>50738</v>
+        <v>50772</v>
       </c>
       <c r="D27">
-        <v>12280</v>
+        <v>12282</v>
       </c>
       <c r="E27">
-        <v>141349251</v>
+        <v>141448030</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6828</v>
+        <v>6830</v>
       </c>
       <c r="D28">
         <v>1533</v>
       </c>
       <c r="E28">
-        <v>18431272</v>
+        <v>18444351</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1452,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>70563</v>
+        <v>70615</v>
       </c>
       <c r="D29">
         <v>8133</v>
       </c>
       <c r="E29">
-        <v>399579849</v>
+        <v>399957847</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>4125</v>
+        <v>4132</v>
       </c>
       <c r="D30">
         <v>856</v>
       </c>
       <c r="E30">
-        <v>9988086</v>
+        <v>10038955</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1510,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D31">
         <v>454</v>
       </c>
       <c r="E31">
-        <v>3192838</v>
+        <v>3202838</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>6794</v>
+        <v>6797</v>
       </c>
       <c r="D32">
         <v>1711</v>
       </c>
       <c r="E32">
-        <v>12723861</v>
+        <v>12729602</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>21248</v>
+        <v>21260</v>
       </c>
       <c r="D33">
-        <v>4888</v>
+        <v>4890</v>
       </c>
       <c r="E33">
-        <v>67384695</v>
+        <v>67428016</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10333</v>
+        <v>10342</v>
       </c>
       <c r="D34">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="E34">
-        <v>32962853</v>
+        <v>33059794</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>15791</v>
+        <v>15806</v>
       </c>
       <c r="D36">
         <v>2772</v>
       </c>
       <c r="E36">
-        <v>26489973</v>
+        <v>26530083</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>13084</v>
+        <v>13086</v>
       </c>
       <c r="D37">
         <v>5281</v>
       </c>
       <c r="E37">
-        <v>17355524</v>
+        <v>17357489</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1713,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>24770</v>
+        <v>24793</v>
       </c>
       <c r="D38">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="E38">
-        <v>75515471</v>
+        <v>75591160</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>31029</v>
+        <v>31040</v>
       </c>
       <c r="D39">
         <v>7341</v>
       </c>
       <c r="E39">
-        <v>61153454</v>
+        <v>61184673</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>6038</v>
+        <v>6045</v>
       </c>
       <c r="D40">
         <v>1865</v>
       </c>
       <c r="E40">
-        <v>14729975</v>
+        <v>14767083</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>16159</v>
+        <v>16172</v>
       </c>
       <c r="D42">
-        <v>4190</v>
+        <v>4192</v>
       </c>
       <c r="E42">
-        <v>30854086</v>
+        <v>30911250</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1916,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>21173</v>
+        <v>21179</v>
       </c>
       <c r="D45">
         <v>9066</v>
       </c>
       <c r="E45">
-        <v>32673031</v>
+        <v>32696727</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>54264</v>
+        <v>54303</v>
       </c>
       <c r="D46">
         <v>13265</v>
       </c>
       <c r="E46">
-        <v>166474679</v>
+        <v>166713416</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>9699</v>
+        <v>9711</v>
       </c>
       <c r="D47">
         <v>1862</v>
       </c>
       <c r="E47">
-        <v>26187430</v>
+        <v>26223886</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>95905</v>
+        <v>95983</v>
       </c>
       <c r="D48">
         <v>11267</v>
       </c>
       <c r="E48">
-        <v>588827324</v>
+        <v>589443497</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2032,13 +2032,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>7149</v>
+        <v>7150</v>
       </c>
       <c r="D49">
         <v>1434</v>
       </c>
       <c r="E49">
-        <v>19218038</v>
+        <v>19218853</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>9034</v>
+        <v>9039</v>
       </c>
       <c r="D51">
         <v>2425</v>
       </c>
       <c r="E51">
-        <v>18486840</v>
+        <v>18496909</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2119,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>32103</v>
+        <v>32134</v>
       </c>
       <c r="D52">
-        <v>7452</v>
+        <v>7453</v>
       </c>
       <c r="E52">
-        <v>106954068</v>
+        <v>107166929</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>12438</v>
+        <v>12454</v>
       </c>
       <c r="D53">
         <v>2940</v>
       </c>
       <c r="E53">
-        <v>43349271</v>
+        <v>43461520</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>16909</v>
+        <v>16926</v>
       </c>
       <c r="D54">
         <v>3138</v>
       </c>
       <c r="E54">
-        <v>31060954</v>
+        <v>31092698</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2206,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>21219</v>
+        <v>21221</v>
       </c>
       <c r="D55">
         <v>8867</v>
       </c>
       <c r="E55">
-        <v>28784188</v>
+        <v>28786423</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2235,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>30384</v>
+        <v>30435</v>
       </c>
       <c r="D56">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E56">
-        <v>97664192</v>
+        <v>97962605</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>34659</v>
+        <v>34679</v>
       </c>
       <c r="D57">
         <v>8562</v>
       </c>
       <c r="E57">
-        <v>69965968</v>
+        <v>70080467</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -2293,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>6475</v>
+        <v>6484</v>
       </c>
       <c r="D58">
         <v>1813</v>
       </c>
       <c r="E58">
-        <v>23633928</v>
+        <v>23669472</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2322,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10185</v>
+        <v>10191</v>
       </c>
       <c r="D59">
         <v>2666</v>
       </c>
       <c r="E59">
-        <v>20594791</v>
+        <v>20601250</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>20054</v>
+        <v>20058</v>
       </c>
       <c r="D62">
-        <v>7727</v>
+        <v>7728</v>
       </c>
       <c r="E62">
-        <v>31962521</v>
+        <v>31968521</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>39646</v>
+        <v>39669</v>
       </c>
       <c r="D63">
         <v>9887</v>
       </c>
       <c r="E63">
-        <v>110124109</v>
+        <v>110189068</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2467,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>9915</v>
+        <v>9919</v>
       </c>
       <c r="D64">
         <v>1945</v>
       </c>
       <c r="E64">
-        <v>23345043</v>
+        <v>23353331</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>55642</v>
+        <v>55673</v>
       </c>
       <c r="D65">
         <v>6564</v>
       </c>
       <c r="E65">
-        <v>311412929</v>
+        <v>311650466</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>4556</v>
+        <v>4558</v>
       </c>
       <c r="D66">
         <v>963</v>
       </c>
       <c r="E66">
-        <v>12445540</v>
+        <v>12456540</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6795</v>
+        <v>6801</v>
       </c>
       <c r="D68">
         <v>1672</v>
       </c>
       <c r="E68">
-        <v>13266539</v>
+        <v>13275291</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>19616</v>
+        <v>19640</v>
       </c>
       <c r="D69">
         <v>4479</v>
       </c>
       <c r="E69">
-        <v>57686909</v>
+        <v>57776228</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2641,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>10137</v>
+        <v>10145</v>
       </c>
       <c r="D70">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="E70">
-        <v>31534260</v>
+        <v>31549133</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>12005</v>
+        <v>12017</v>
       </c>
       <c r="D71">
         <v>2297</v>
       </c>
       <c r="E71">
-        <v>22468353</v>
+        <v>22514098</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2699,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>11112</v>
+        <v>11114</v>
       </c>
       <c r="D72">
         <v>4526</v>
       </c>
       <c r="E72">
-        <v>14601214</v>
+        <v>14604214</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>22205</v>
+        <v>22217</v>
       </c>
       <c r="D73">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="E73">
-        <v>71059790</v>
+        <v>71121098</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>27399</v>
+        <v>27406</v>
       </c>
       <c r="D74">
         <v>6634</v>
       </c>
       <c r="E74">
-        <v>53344658</v>
+        <v>53352172</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="D75">
         <v>1139</v>
       </c>
       <c r="E75">
-        <v>10473684</v>
+        <v>10486520</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>4287</v>
+        <v>4289</v>
       </c>
       <c r="D76">
         <v>911</v>
       </c>
       <c r="E76">
-        <v>9034125</v>
+        <v>9054125</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -2873,13 +2873,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>7878</v>
+        <v>7882</v>
       </c>
       <c r="D78">
         <v>2464</v>
       </c>
       <c r="E78">
-        <v>13103170</v>
+        <v>13109377</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -2902,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>13677</v>
+        <v>13689</v>
       </c>
       <c r="D79">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="E79">
-        <v>53575291</v>
+        <v>53672654</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="D80">
         <v>404</v>
       </c>
       <c r="E80">
-        <v>9990915</v>
+        <v>10067710</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -2960,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>24540</v>
+        <v>24560</v>
       </c>
       <c r="D81">
         <v>2809</v>
       </c>
       <c r="E81">
-        <v>155755453</v>
+        <v>156166123</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D82">
         <v>192</v>
       </c>
       <c r="E82">
-        <v>3374673</v>
+        <v>3382435</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>3981</v>
+        <v>3988</v>
       </c>
       <c r="D84">
         <v>706</v>
       </c>
       <c r="E84">
-        <v>12008010</v>
+        <v>12035541</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -3076,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>10197</v>
+        <v>10205</v>
       </c>
       <c r="D85">
         <v>1845</v>
       </c>
       <c r="E85">
-        <v>44425813</v>
+        <v>44497458</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="D86">
         <v>941</v>
       </c>
       <c r="E86">
-        <v>16934963</v>
+        <v>16952764</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -3134,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="D87">
         <v>412</v>
       </c>
       <c r="E87">
-        <v>5204959</v>
+        <v>5206099</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -3192,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="D89">
         <v>553</v>
       </c>
       <c r="E89">
-        <v>15899737</v>
+        <v>15902153</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3221,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>6075</v>
+        <v>6082</v>
       </c>
       <c r="D90">
         <v>1284</v>
       </c>
       <c r="E90">
-        <v>12161031</v>
+        <v>12185099</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -3250,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>48081</v>
+        <v>48189</v>
       </c>
       <c r="D91">
         <v>12944</v>
       </c>
       <c r="E91">
-        <v>250151830</v>
+        <v>250889227</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>22141</v>
+        <v>22162</v>
       </c>
       <c r="D93">
         <v>5752</v>
       </c>
       <c r="E93">
-        <v>68844316</v>
+        <v>68947666</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3366,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D95">
         <v>530</v>
       </c>
       <c r="E95">
-        <v>3152389</v>
+        <v>3153889</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>44441</v>
+        <v>44459</v>
       </c>
       <c r="D96">
-        <v>15872</v>
+        <v>15874</v>
       </c>
       <c r="E96">
-        <v>70431336</v>
+        <v>70465184</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3424,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>95216</v>
+        <v>95270</v>
       </c>
       <c r="D97">
         <v>22631</v>
       </c>
       <c r="E97">
-        <v>285911016</v>
+        <v>286169860</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>20991</v>
+        <v>21005</v>
       </c>
       <c r="D98">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="E98">
-        <v>53911173</v>
+        <v>53944948</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -3482,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>122651</v>
+        <v>122769</v>
       </c>
       <c r="D99">
-        <v>13974</v>
+        <v>13975</v>
       </c>
       <c r="E99">
-        <v>790251263</v>
+        <v>791265973</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>9167</v>
+        <v>9175</v>
       </c>
       <c r="D100">
         <v>1924</v>
       </c>
       <c r="E100">
-        <v>22617131</v>
+        <v>22642895</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -3540,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>4118</v>
+        <v>4124</v>
       </c>
       <c r="D101">
         <v>1059</v>
       </c>
       <c r="E101">
-        <v>7371101</v>
+        <v>7388601</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -3569,13 +3569,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>13191</v>
+        <v>13205</v>
       </c>
       <c r="D102">
         <v>3089</v>
       </c>
       <c r="E102">
-        <v>27275482</v>
+        <v>27318562</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -3598,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>46124</v>
+        <v>46160</v>
       </c>
       <c r="D103">
         <v>10578</v>
       </c>
       <c r="E103">
-        <v>127771516</v>
+        <v>127956562</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>20493</v>
+        <v>20509</v>
       </c>
       <c r="D104">
         <v>4545</v>
       </c>
       <c r="E104">
-        <v>68695281</v>
+        <v>68873302</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>25769</v>
+        <v>25795</v>
       </c>
       <c r="D106">
         <v>4735</v>
       </c>
       <c r="E106">
-        <v>47156698</v>
+        <v>47214790</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>26711</v>
+        <v>26716</v>
       </c>
       <c r="D107">
         <v>11148</v>
       </c>
       <c r="E107">
-        <v>36527869</v>
+        <v>36535369</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>41870</v>
+        <v>41933</v>
       </c>
       <c r="D108">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="E108">
-        <v>130656256</v>
+        <v>131023352</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>64150</v>
+        <v>64183</v>
       </c>
       <c r="D109">
-        <v>14827</v>
+        <v>14828</v>
       </c>
       <c r="E109">
-        <v>125680180</v>
+        <v>125813695</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>14784</v>
+        <v>14805</v>
       </c>
       <c r="D110">
         <v>2589</v>
       </c>
       <c r="E110">
-        <v>23183856</v>
+        <v>23215636</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>5089</v>
+        <v>5094</v>
       </c>
       <c r="D111">
         <v>1203</v>
       </c>
       <c r="E111">
-        <v>9724227</v>
+        <v>9730493</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>6970</v>
+        <v>6979</v>
       </c>
       <c r="D114">
         <v>2170</v>
       </c>
       <c r="E114">
-        <v>10741177</v>
+        <v>10754446</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -3946,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>14156</v>
+        <v>14167</v>
       </c>
       <c r="D115">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E115">
-        <v>27843490</v>
+        <v>27878390</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="D116">
         <v>736</v>
       </c>
       <c r="E116">
-        <v>10067098</v>
+        <v>10067802</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>15620</v>
+        <v>15640</v>
       </c>
       <c r="D117">
         <v>2085</v>
       </c>
       <c r="E117">
-        <v>40977291</v>
+        <v>41099212</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D118">
         <v>306</v>
       </c>
       <c r="E118">
-        <v>3757483</v>
+        <v>3759106</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -4120,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="D121">
         <v>1265</v>
       </c>
       <c r="E121">
-        <v>9581262</v>
+        <v>9601262</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -4149,13 +4149,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>8128</v>
+        <v>8133</v>
       </c>
       <c r="D122">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E122">
-        <v>22452570</v>
+        <v>22476177</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="D123">
         <v>658</v>
       </c>
       <c r="E123">
-        <v>4155196</v>
+        <v>4158336</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>3635</v>
+        <v>3639</v>
       </c>
       <c r="D125">
         <v>489</v>
       </c>
       <c r="E125">
-        <v>9633638</v>
+        <v>9655410</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>6267</v>
+        <v>6268</v>
       </c>
       <c r="D127">
         <v>820</v>
       </c>
       <c r="E127">
-        <v>10405671</v>
+        <v>10407171</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="D129">
         <v>401</v>
       </c>
       <c r="E129">
-        <v>5149577</v>
+        <v>5150257</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>6785</v>
+        <v>6789</v>
       </c>
       <c r="D131">
         <v>1088</v>
       </c>
       <c r="E131">
-        <v>15207375</v>
+        <v>15213375</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>4469</v>
+        <v>4475</v>
       </c>
       <c r="D134">
         <v>580</v>
       </c>
       <c r="E134">
-        <v>12730448</v>
+        <v>12764693</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4729,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D142">
         <v>135</v>
       </c>
       <c r="E142">
-        <v>2559877</v>
+        <v>2567268</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>7341</v>
+        <v>7357</v>
       </c>
       <c r="D144">
         <v>2209</v>
       </c>
       <c r="E144">
-        <v>22902921</v>
+        <v>22973852</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -4845,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>16409</v>
+        <v>16425</v>
       </c>
       <c r="D146">
-        <v>4227</v>
+        <v>4229</v>
       </c>
       <c r="E146">
-        <v>39224744</v>
+        <v>39403842</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>36207</v>
+        <v>36226</v>
       </c>
       <c r="D149">
         <v>13023</v>
       </c>
       <c r="E149">
-        <v>57729117</v>
+        <v>57759446</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>91907</v>
+        <v>91952</v>
       </c>
       <c r="D150">
-        <v>21096</v>
+        <v>21097</v>
       </c>
       <c r="E150">
-        <v>258647899</v>
+        <v>258934528</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>34433</v>
+        <v>34455</v>
       </c>
       <c r="D151">
         <v>5275</v>
       </c>
       <c r="E151">
-        <v>74092388</v>
+        <v>74162767</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>113502</v>
+        <v>113594</v>
       </c>
       <c r="D152">
         <v>13400</v>
       </c>
       <c r="E152">
-        <v>662537597</v>
+        <v>663340135</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>8855</v>
+        <v>8868</v>
       </c>
       <c r="D153">
         <v>1956</v>
       </c>
       <c r="E153">
-        <v>21699248</v>
+        <v>21747677</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="D154">
         <v>963</v>
       </c>
       <c r="E154">
-        <v>7899456</v>
+        <v>7920956</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>11304</v>
+        <v>11316</v>
       </c>
       <c r="D155">
         <v>2738</v>
       </c>
       <c r="E155">
-        <v>24188842</v>
+        <v>24215005</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>44931</v>
+        <v>44969</v>
       </c>
       <c r="D156">
         <v>9960</v>
       </c>
       <c r="E156">
-        <v>131486242</v>
+        <v>131628424</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>19718</v>
+        <v>19741</v>
       </c>
       <c r="D157">
         <v>4242</v>
       </c>
       <c r="E157">
-        <v>67109800</v>
+        <v>67301534</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>21013</v>
+        <v>21029</v>
       </c>
       <c r="D159">
         <v>4102</v>
       </c>
       <c r="E159">
-        <v>36121355</v>
+        <v>36153304</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>26754</v>
+        <v>26760</v>
       </c>
       <c r="D160">
-        <v>11385</v>
+        <v>11386</v>
       </c>
       <c r="E160">
-        <v>36953897</v>
+        <v>36959361</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>40890</v>
+        <v>40938</v>
       </c>
       <c r="D161">
         <v>5269</v>
       </c>
       <c r="E161">
-        <v>130055166</v>
+        <v>130410283</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>60782</v>
+        <v>60807</v>
       </c>
       <c r="D162">
         <v>14044</v>
       </c>
       <c r="E162">
-        <v>110752267</v>
+        <v>110799233</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="D163">
         <v>703</v>
       </c>
       <c r="E163">
-        <v>4581703</v>
+        <v>4583203</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>47190</v>
+        <v>47243</v>
       </c>
       <c r="D164">
         <v>10985</v>
       </c>
       <c r="E164">
-        <v>134599580</v>
+        <v>134969499</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>99558</v>
+        <v>99620</v>
       </c>
       <c r="D167">
-        <v>32119</v>
+        <v>32120</v>
       </c>
       <c r="E167">
-        <v>183432802</v>
+        <v>183652136</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>267248</v>
+        <v>267485</v>
       </c>
       <c r="D168">
-        <v>57709</v>
+        <v>57715</v>
       </c>
       <c r="E168">
-        <v>1002690016</v>
+        <v>1004296865</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>514415</v>
+        <v>514665</v>
       </c>
       <c r="D169">
-        <v>60723</v>
+        <v>60728</v>
       </c>
       <c r="E169">
-        <v>1185546192</v>
+        <v>1186614247</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>318662</v>
+        <v>318995</v>
       </c>
       <c r="D170">
-        <v>37489</v>
+        <v>37491</v>
       </c>
       <c r="E170">
-        <v>2421807383</v>
+        <v>2426366065</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>104959</v>
+        <v>105083</v>
       </c>
       <c r="D171">
-        <v>20116</v>
+        <v>20119</v>
       </c>
       <c r="E171">
-        <v>360321176</v>
+        <v>361236284</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>20689</v>
+        <v>20701</v>
       </c>
       <c r="D172">
         <v>4317</v>
       </c>
       <c r="E172">
-        <v>58646496</v>
+        <v>58723863</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>51927</v>
+        <v>51995</v>
       </c>
       <c r="D173">
-        <v>11537</v>
+        <v>11539</v>
       </c>
       <c r="E173">
-        <v>137538617</v>
+        <v>137964860</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>333628</v>
+        <v>333987</v>
       </c>
       <c r="D174">
-        <v>69332</v>
+        <v>69337</v>
       </c>
       <c r="E174">
-        <v>881327674</v>
+        <v>883153634</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>111073</v>
+        <v>111178</v>
       </c>
       <c r="D175">
-        <v>17641</v>
+        <v>17642</v>
       </c>
       <c r="E175">
-        <v>583910973</v>
+        <v>585116888</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>90773</v>
+        <v>90845</v>
       </c>
       <c r="D177">
-        <v>16401</v>
+        <v>16403</v>
       </c>
       <c r="E177">
-        <v>160588202</v>
+        <v>160723959</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>74710</v>
+        <v>74733</v>
       </c>
       <c r="D178">
         <v>28746</v>
       </c>
       <c r="E178">
-        <v>101766067</v>
+        <v>101802579</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>210635</v>
+        <v>210880</v>
       </c>
       <c r="D179">
-        <v>28895</v>
+        <v>28899</v>
       </c>
       <c r="E179">
-        <v>678859853</v>
+        <v>680303779</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>134715</v>
+        <v>134826</v>
       </c>
       <c r="D180">
         <v>28772</v>
       </c>
       <c r="E180">
-        <v>312717694</v>
+        <v>313174199</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>7588</v>
+        <v>7592</v>
       </c>
       <c r="D181">
         <v>1790</v>
       </c>
       <c r="E181">
-        <v>10873826</v>
+        <v>10879826</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>6009</v>
+        <v>6012</v>
       </c>
       <c r="D182">
         <v>1653</v>
       </c>
       <c r="E182">
-        <v>10814752</v>
+        <v>10830063</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>8956</v>
+        <v>8961</v>
       </c>
       <c r="D185">
         <v>3235</v>
       </c>
       <c r="E185">
-        <v>13655099</v>
+        <v>13662599</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>20064</v>
+        <v>20068</v>
       </c>
       <c r="D186">
         <v>5196</v>
       </c>
       <c r="E186">
-        <v>35569946</v>
+        <v>35575796</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>16095</v>
+        <v>16110</v>
       </c>
       <c r="D188">
         <v>2557</v>
       </c>
       <c r="E188">
-        <v>46053356</v>
+        <v>46146926</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6121,13 +6121,13 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D190">
         <v>162</v>
       </c>
       <c r="E190">
-        <v>1040678</v>
+        <v>1043678</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="D191">
         <v>633</v>
       </c>
       <c r="E191">
-        <v>3674432</v>
+        <v>3677432</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>6769</v>
+        <v>6772</v>
       </c>
       <c r="D192">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E192">
-        <v>13899943</v>
+        <v>13918372</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>4769</v>
+        <v>4771</v>
       </c>
       <c r="D193">
         <v>1029</v>
       </c>
       <c r="E193">
-        <v>18539204</v>
+        <v>18550704</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>5383</v>
+        <v>5385</v>
       </c>
       <c r="D194">
         <v>1244</v>
       </c>
       <c r="E194">
-        <v>7567028</v>
+        <v>7569228</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>6236</v>
+        <v>6239</v>
       </c>
       <c r="D196">
         <v>908</v>
       </c>
       <c r="E196">
-        <v>15318946</v>
+        <v>15359339</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>6689</v>
+        <v>6692</v>
       </c>
       <c r="D197">
         <v>1980</v>
       </c>
       <c r="E197">
-        <v>8983346</v>
+        <v>8986293</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="D198">
         <v>777</v>
       </c>
       <c r="E198">
-        <v>5220976</v>
+        <v>5227258</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>4299</v>
+        <v>4301</v>
       </c>
       <c r="D202">
         <v>1381</v>
       </c>
       <c r="E202">
-        <v>6997701</v>
+        <v>7000701</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>10275</v>
+        <v>10281</v>
       </c>
       <c r="D203">
         <v>2224</v>
       </c>
       <c r="E203">
-        <v>23341808</v>
+        <v>23351808</v>
       </c>
       <c r="F203" t="s">
         <v>22</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>8230</v>
+        <v>8237</v>
       </c>
       <c r="D205">
         <v>1266</v>
       </c>
       <c r="E205">
-        <v>29052464</v>
+        <v>29090817</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
@@ -6643,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D208">
         <v>303</v>
       </c>
       <c r="E208">
-        <v>2679031</v>
+        <v>2690871</v>
       </c>
       <c r="F208" t="s">
         <v>22</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="D209">
         <v>1110</v>
       </c>
       <c r="E209">
-        <v>9556673</v>
+        <v>9557133</v>
       </c>
       <c r="F209" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>5183</v>
+        <v>5185</v>
       </c>
       <c r="D210">
         <v>940</v>
       </c>
       <c r="E210">
-        <v>13060637</v>
+        <v>13062949</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -6730,13 +6730,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="D211">
         <v>479</v>
       </c>
       <c r="E211">
-        <v>3817717</v>
+        <v>3827717</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
@@ -6817,13 +6817,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="D214">
         <v>1062</v>
       </c>
       <c r="E214">
-        <v>8574546</v>
+        <v>8574696</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -6875,13 +6875,13 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D216">
         <v>202</v>
       </c>
       <c r="E216">
-        <v>3631080</v>
+        <v>3631730</v>
       </c>
       <c r="F216" t="s">
         <v>23</v>
@@ -6933,13 +6933,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>4851</v>
+        <v>4853</v>
       </c>
       <c r="D218">
         <v>681</v>
       </c>
       <c r="E218">
-        <v>11807434</v>
+        <v>11810434</v>
       </c>
       <c r="F218" t="s">
         <v>23</v>
@@ -6962,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>21981</v>
+        <v>21987</v>
       </c>
       <c r="D219">
         <v>2788</v>
       </c>
       <c r="E219">
-        <v>51478310</v>
+        <v>51487310</v>
       </c>
       <c r="F219" t="s">
         <v>23</v>
@@ -6991,13 +6991,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="D220">
         <v>521</v>
       </c>
       <c r="E220">
-        <v>11320367</v>
+        <v>11321867</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
@@ -7020,13 +7020,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="D221">
         <v>319</v>
       </c>
       <c r="E221">
-        <v>6685238</v>
+        <v>6703571</v>
       </c>
       <c r="F221" t="s">
         <v>23</v>
@@ -7049,13 +7049,13 @@
         <v>10</v>
       </c>
       <c r="C222">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D222">
         <v>42</v>
       </c>
       <c r="E222">
-        <v>529936</v>
+        <v>539936</v>
       </c>
       <c r="F222" t="s">
         <v>23</v>
@@ -7165,13 +7165,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D226">
         <v>122</v>
       </c>
       <c r="E226">
-        <v>2517949</v>
+        <v>2527949</v>
       </c>
       <c r="F226" t="s">
         <v>23</v>
@@ -7223,13 +7223,13 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D228">
         <v>90</v>
       </c>
       <c r="E228">
-        <v>735880</v>
+        <v>737380</v>
       </c>
       <c r="F228" t="s">
         <v>23</v>
@@ -7310,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>5807</v>
+        <v>5810</v>
       </c>
       <c r="D231">
         <v>1740</v>
       </c>
       <c r="E231">
-        <v>12405310</v>
+        <v>12422239</v>
       </c>
       <c r="F231" t="s">
         <v>24</v>
@@ -7368,13 +7368,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>11306</v>
+        <v>11313</v>
       </c>
       <c r="D233">
         <v>3011</v>
       </c>
       <c r="E233">
-        <v>23195608</v>
+        <v>23345318</v>
       </c>
       <c r="F233" t="s">
         <v>24</v>
@@ -7426,13 +7426,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D235">
         <v>156</v>
       </c>
       <c r="E235">
-        <v>644924</v>
+        <v>646274</v>
       </c>
       <c r="F235" t="s">
         <v>24</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>21551</v>
+        <v>21564</v>
       </c>
       <c r="D236">
         <v>8414</v>
       </c>
       <c r="E236">
-        <v>34609585</v>
+        <v>34639732</v>
       </c>
       <c r="F236" t="s">
         <v>24</v>
@@ -7484,13 +7484,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>56563</v>
+        <v>56581</v>
       </c>
       <c r="D237">
         <v>13450</v>
       </c>
       <c r="E237">
-        <v>161688977</v>
+        <v>161844000</v>
       </c>
       <c r="F237" t="s">
         <v>24</v>
@@ -7513,13 +7513,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>11114</v>
+        <v>11125</v>
       </c>
       <c r="D238">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="E238">
-        <v>28436359</v>
+        <v>28460345</v>
       </c>
       <c r="F238" t="s">
         <v>24</v>
@@ -7542,13 +7542,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>77486</v>
+        <v>77537</v>
       </c>
       <c r="D239">
         <v>9327</v>
       </c>
       <c r="E239">
-        <v>465994244</v>
+        <v>466457375</v>
       </c>
       <c r="F239" t="s">
         <v>24</v>
@@ -7571,13 +7571,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="D240">
         <v>1049</v>
       </c>
       <c r="E240">
-        <v>12867154</v>
+        <v>12872707</v>
       </c>
       <c r="F240" t="s">
         <v>24</v>
@@ -7629,13 +7629,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>8229</v>
+        <v>8236</v>
       </c>
       <c r="D242">
         <v>1982</v>
       </c>
       <c r="E242">
-        <v>18525894</v>
+        <v>18538793</v>
       </c>
       <c r="F242" t="s">
         <v>24</v>
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>26561</v>
+        <v>26581</v>
       </c>
       <c r="D243">
         <v>5914</v>
       </c>
       <c r="E243">
-        <v>84597819</v>
+        <v>84677549</v>
       </c>
       <c r="F243" t="s">
         <v>24</v>
@@ -7687,13 +7687,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>12289</v>
+        <v>12295</v>
       </c>
       <c r="D244">
         <v>2604</v>
       </c>
       <c r="E244">
-        <v>38984633</v>
+        <v>39000744</v>
       </c>
       <c r="F244" t="s">
         <v>24</v>
@@ -7716,13 +7716,13 @@
         <v>10</v>
       </c>
       <c r="C245">
-        <v>14555</v>
+        <v>14562</v>
       </c>
       <c r="D245">
         <v>2702</v>
       </c>
       <c r="E245">
-        <v>25605202</v>
+        <v>25631124</v>
       </c>
       <c r="F245" t="s">
         <v>24</v>
@@ -7745,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>13207</v>
+        <v>13212</v>
       </c>
       <c r="D246">
         <v>5418</v>
       </c>
       <c r="E246">
-        <v>17273294</v>
+        <v>17279825</v>
       </c>
       <c r="F246" t="s">
         <v>24</v>
@@ -7774,13 +7774,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>26856</v>
+        <v>26875</v>
       </c>
       <c r="D247">
         <v>3701</v>
       </c>
       <c r="E247">
-        <v>88284377</v>
+        <v>88350590</v>
       </c>
       <c r="F247" t="s">
         <v>24</v>
@@ -7803,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>37417</v>
+        <v>37436</v>
       </c>
       <c r="D248">
-        <v>8740</v>
+        <v>8741</v>
       </c>
       <c r="E248">
-        <v>72101792</v>
+        <v>72237539</v>
       </c>
       <c r="F248" t="s">
         <v>24</v>
@@ -7832,13 +7832,13 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>33643</v>
+        <v>33705</v>
       </c>
       <c r="D249">
-        <v>9178</v>
+        <v>9180</v>
       </c>
       <c r="E249">
-        <v>130142712</v>
+        <v>130733506</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
@@ -7890,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>34338</v>
+        <v>34368</v>
       </c>
       <c r="D251">
         <v>8818</v>
       </c>
       <c r="E251">
-        <v>67983895</v>
+        <v>68053067</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -7977,13 +7977,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>61767</v>
+        <v>61792</v>
       </c>
       <c r="D254">
-        <v>23910</v>
+        <v>23911</v>
       </c>
       <c r="E254">
-        <v>97603617</v>
+        <v>97774383</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -8006,13 +8006,13 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>136831</v>
+        <v>136916</v>
       </c>
       <c r="D255">
-        <v>32044</v>
+        <v>32045</v>
       </c>
       <c r="E255">
-        <v>385863076</v>
+        <v>386755250</v>
       </c>
       <c r="F255" t="s">
         <v>25</v>
@@ -8035,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>28608</v>
+        <v>28625</v>
       </c>
       <c r="D256">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="E256">
-        <v>72208019</v>
+        <v>72250604</v>
       </c>
       <c r="F256" t="s">
         <v>25</v>
@@ -8064,13 +8064,13 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>167274</v>
+        <v>167431</v>
       </c>
       <c r="D257">
         <v>20151</v>
       </c>
       <c r="E257">
-        <v>989756912</v>
+        <v>991029189</v>
       </c>
       <c r="F257" t="s">
         <v>25</v>
@@ -8093,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>14091</v>
+        <v>14098</v>
       </c>
       <c r="D258">
         <v>2972</v>
       </c>
       <c r="E258">
-        <v>36303258</v>
+        <v>36325564</v>
       </c>
       <c r="F258" t="s">
         <v>25</v>
@@ -8122,13 +8122,13 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>6040</v>
+        <v>6043</v>
       </c>
       <c r="D259">
         <v>1538</v>
       </c>
       <c r="E259">
-        <v>13557393</v>
+        <v>13561893</v>
       </c>
       <c r="F259" t="s">
         <v>25</v>
@@ -8151,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>22917</v>
+        <v>22944</v>
       </c>
       <c r="D260">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="E260">
-        <v>47669990</v>
+        <v>47744276</v>
       </c>
       <c r="F260" t="s">
         <v>25</v>
@@ -8180,13 +8180,13 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>74953</v>
+        <v>75023</v>
       </c>
       <c r="D261">
         <v>17130</v>
       </c>
       <c r="E261">
-        <v>215567664</v>
+        <v>215863410</v>
       </c>
       <c r="F261" t="s">
         <v>25</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>36415</v>
+        <v>36446</v>
       </c>
       <c r="D262">
-        <v>8089</v>
+        <v>8091</v>
       </c>
       <c r="E262">
-        <v>105157291</v>
+        <v>105319416</v>
       </c>
       <c r="F262" t="s">
         <v>25</v>
@@ -8267,13 +8267,13 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>44997</v>
+        <v>45056</v>
       </c>
       <c r="D264">
-        <v>7752</v>
+        <v>7753</v>
       </c>
       <c r="E264">
-        <v>77953625</v>
+        <v>78139880</v>
       </c>
       <c r="F264" t="s">
         <v>25</v>
@@ -8296,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>42962</v>
+        <v>42972</v>
       </c>
       <c r="D265">
-        <v>17107</v>
+        <v>17108</v>
       </c>
       <c r="E265">
-        <v>57261405</v>
+        <v>57270424</v>
       </c>
       <c r="F265" t="s">
         <v>25</v>
@@ -8325,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>65375</v>
+        <v>65456</v>
       </c>
       <c r="D266">
-        <v>9007</v>
+        <v>9008</v>
       </c>
       <c r="E266">
-        <v>196194996</v>
+        <v>196564254</v>
       </c>
       <c r="F266" t="s">
         <v>25</v>
@@ -8354,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>83024</v>
+        <v>83052</v>
       </c>
       <c r="D267">
-        <v>20019</v>
+        <v>20020</v>
       </c>
       <c r="E267">
-        <v>152398950</v>
+        <v>152542447</v>
       </c>
       <c r="F267" t="s">
         <v>25</v>
@@ -8383,13 +8383,13 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>30733</v>
+        <v>30792</v>
       </c>
       <c r="D268">
-        <v>8026</v>
+        <v>8027</v>
       </c>
       <c r="E268">
-        <v>82569018</v>
+        <v>82845031</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -8441,13 +8441,13 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>38326</v>
+        <v>38374</v>
       </c>
       <c r="D270">
         <v>9504</v>
       </c>
       <c r="E270">
-        <v>75452371</v>
+        <v>75641811</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>87577</v>
+        <v>87626</v>
       </c>
       <c r="D273">
-        <v>29708</v>
+        <v>29709</v>
       </c>
       <c r="E273">
-        <v>136372788</v>
+        <v>136489927</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -8557,13 +8557,13 @@
         <v>10</v>
       </c>
       <c r="C274">
-        <v>162691</v>
+        <v>162809</v>
       </c>
       <c r="D274">
-        <v>35648</v>
+        <v>35650</v>
       </c>
       <c r="E274">
-        <v>430580495</v>
+        <v>430994049</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -8586,13 +8586,13 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>36723</v>
+        <v>36747</v>
       </c>
       <c r="D275">
         <v>6050</v>
       </c>
       <c r="E275">
-        <v>90572871</v>
+        <v>90713470</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -8615,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C276">
-        <v>199739</v>
+        <v>199951</v>
       </c>
       <c r="D276">
         <v>23262</v>
       </c>
       <c r="E276">
-        <v>1128860562</v>
+        <v>1130694839</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -8644,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>17923</v>
+        <v>17942</v>
       </c>
       <c r="D277">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="E277">
-        <v>39041488</v>
+        <v>39097311</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -8673,13 +8673,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>6514</v>
+        <v>6518</v>
       </c>
       <c r="D278">
         <v>1607</v>
       </c>
       <c r="E278">
-        <v>12449244</v>
+        <v>12463744</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -8702,13 +8702,13 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>28181</v>
+        <v>28219</v>
       </c>
       <c r="D279">
         <v>6555</v>
       </c>
       <c r="E279">
-        <v>55461281</v>
+        <v>55546880</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>90443</v>
+        <v>90530</v>
       </c>
       <c r="D280">
-        <v>19676</v>
+        <v>19678</v>
       </c>
       <c r="E280">
-        <v>263972880</v>
+        <v>264299478</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -8760,13 +8760,13 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>41096</v>
+        <v>41140</v>
       </c>
       <c r="D281">
         <v>8944</v>
       </c>
       <c r="E281">
-        <v>122214768</v>
+        <v>122407972</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -8818,13 +8818,13 @@
         <v>10</v>
       </c>
       <c r="C283">
-        <v>57448</v>
+        <v>57531</v>
       </c>
       <c r="D283">
-        <v>9851</v>
+        <v>9852</v>
       </c>
       <c r="E283">
-        <v>96609247</v>
+        <v>96810130</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -8847,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>48066</v>
+        <v>48085</v>
       </c>
       <c r="D284">
         <v>19337</v>
       </c>
       <c r="E284">
-        <v>64552940</v>
+        <v>64574922</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -8876,13 +8876,13 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>78463</v>
+        <v>78574</v>
       </c>
       <c r="D285">
-        <v>10266</v>
+        <v>10268</v>
       </c>
       <c r="E285">
-        <v>231578334</v>
+        <v>232148265</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -8905,13 +8905,13 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>88419</v>
+        <v>88473</v>
       </c>
       <c r="D286">
-        <v>20271</v>
+        <v>20274</v>
       </c>
       <c r="E286">
-        <v>157652691</v>
+        <v>157812210</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>8121</v>
+        <v>8133</v>
       </c>
       <c r="D287">
         <v>2442</v>
       </c>
       <c r="E287">
-        <v>23411654</v>
+        <v>23488831</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -8992,13 +8992,13 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>15105</v>
+        <v>15120</v>
       </c>
       <c r="D289">
-        <v>4103</v>
+        <v>4105</v>
       </c>
       <c r="E289">
-        <v>31251057</v>
+        <v>31370983</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -9079,13 +9079,13 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>23854</v>
+        <v>23863</v>
       </c>
       <c r="D292">
         <v>10123</v>
       </c>
       <c r="E292">
-        <v>37679724</v>
+        <v>37705081</v>
       </c>
       <c r="F292" t="s">
         <v>27</v>
@@ -9108,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>59752</v>
+        <v>59797</v>
       </c>
       <c r="D293">
-        <v>14514</v>
+        <v>14516</v>
       </c>
       <c r="E293">
-        <v>180353181</v>
+        <v>180799115</v>
       </c>
       <c r="F293" t="s">
         <v>27</v>
@@ -9137,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>14768</v>
+        <v>14789</v>
       </c>
       <c r="D294">
         <v>2490</v>
       </c>
       <c r="E294">
-        <v>38382893</v>
+        <v>38573118</v>
       </c>
       <c r="F294" t="s">
         <v>27</v>
@@ -9166,13 +9166,13 @@
         <v>10</v>
       </c>
       <c r="C295">
-        <v>83108</v>
+        <v>83190</v>
       </c>
       <c r="D295">
         <v>9873</v>
       </c>
       <c r="E295">
-        <v>514382874</v>
+        <v>515125803</v>
       </c>
       <c r="F295" t="s">
         <v>27</v>
@@ -9195,13 +9195,13 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>8052</v>
+        <v>8058</v>
       </c>
       <c r="D296">
         <v>1674</v>
       </c>
       <c r="E296">
-        <v>19011726</v>
+        <v>19065057</v>
       </c>
       <c r="F296" t="s">
         <v>27</v>
@@ -9224,13 +9224,13 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="D297">
         <v>966</v>
       </c>
       <c r="E297">
-        <v>7428547</v>
+        <v>7431234</v>
       </c>
       <c r="F297" t="s">
         <v>27</v>
@@ -9253,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>11611</v>
+        <v>11626</v>
       </c>
       <c r="D298">
         <v>2955</v>
       </c>
       <c r="E298">
-        <v>23172900</v>
+        <v>23221205</v>
       </c>
       <c r="F298" t="s">
         <v>27</v>
@@ -9282,13 +9282,13 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>40758</v>
+        <v>40804</v>
       </c>
       <c r="D299">
         <v>9301</v>
       </c>
       <c r="E299">
-        <v>131186128</v>
+        <v>131449385</v>
       </c>
       <c r="F299" t="s">
         <v>27</v>
@@ -9311,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>14555</v>
+        <v>14568</v>
       </c>
       <c r="D300">
         <v>3335</v>
       </c>
       <c r="E300">
-        <v>61280478</v>
+        <v>61358542</v>
       </c>
       <c r="F300" t="s">
         <v>27</v>
@@ -9340,13 +9340,13 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <v>18859</v>
+        <v>18872</v>
       </c>
       <c r="D301">
         <v>3594</v>
       </c>
       <c r="E301">
-        <v>35153460</v>
+        <v>35196992</v>
       </c>
       <c r="F301" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>23676</v>
+        <v>23680</v>
       </c>
       <c r="D302">
         <v>9605</v>
       </c>
       <c r="E302">
-        <v>31212849</v>
+        <v>31219442</v>
       </c>
       <c r="F302" t="s">
         <v>27</v>
@@ -9398,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>36580</v>
+        <v>36631</v>
       </c>
       <c r="D303">
         <v>5176</v>
       </c>
       <c r="E303">
-        <v>118968615</v>
+        <v>119219933</v>
       </c>
       <c r="F303" t="s">
         <v>27</v>
@@ -9427,13 +9427,13 @@
         <v>10</v>
       </c>
       <c r="C304">
-        <v>42296</v>
+        <v>42323</v>
       </c>
       <c r="D304">
-        <v>10312</v>
+        <v>10313</v>
       </c>
       <c r="E304">
-        <v>84439988</v>
+        <v>84529915</v>
       </c>
       <c r="F304" t="s">
         <v>27</v>
@@ -9456,13 +9456,13 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>13844</v>
+        <v>13865</v>
       </c>
       <c r="D305">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="E305">
-        <v>43954362</v>
+        <v>44063640</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -9514,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>38038</v>
+        <v>38083</v>
       </c>
       <c r="D307">
-        <v>8892</v>
+        <v>8893</v>
       </c>
       <c r="E307">
-        <v>87370603</v>
+        <v>87741072</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -9601,13 +9601,13 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>81347</v>
+        <v>81393</v>
       </c>
       <c r="D310">
-        <v>26069</v>
+        <v>26070</v>
       </c>
       <c r="E310">
-        <v>132028276</v>
+        <v>132128919</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -9630,13 +9630,13 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>183674</v>
+        <v>183829</v>
       </c>
       <c r="D311">
-        <v>37582</v>
+        <v>37584</v>
       </c>
       <c r="E311">
-        <v>542261446</v>
+        <v>543256514</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -9659,13 +9659,13 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>69472</v>
+        <v>69497</v>
       </c>
       <c r="D312">
         <v>9319</v>
       </c>
       <c r="E312">
-        <v>183936435</v>
+        <v>184020995</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>203335</v>
+        <v>203511</v>
       </c>
       <c r="D313">
-        <v>23212</v>
+        <v>23213</v>
       </c>
       <c r="E313">
-        <v>1270543224</v>
+        <v>1272235093</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>19610</v>
+        <v>19631</v>
       </c>
       <c r="D314">
         <v>3837</v>
       </c>
       <c r="E314">
-        <v>47426573</v>
+        <v>47494683</v>
       </c>
       <c r="F314" t="s">
         <v>28</v>
@@ -9746,13 +9746,13 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>7892</v>
+        <v>7895</v>
       </c>
       <c r="D315">
         <v>1771</v>
       </c>
       <c r="E315">
-        <v>16322170</v>
+        <v>16325661</v>
       </c>
       <c r="F315" t="s">
         <v>28</v>
@@ -9775,13 +9775,13 @@
         <v>10</v>
       </c>
       <c r="C316">
-        <v>37502</v>
+        <v>37537</v>
       </c>
       <c r="D316">
         <v>8068</v>
       </c>
       <c r="E316">
-        <v>83294606</v>
+        <v>83446266</v>
       </c>
       <c r="F316" t="s">
         <v>28</v>
@@ -9804,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="C317">
-        <v>98137</v>
+        <v>98234</v>
       </c>
       <c r="D317">
-        <v>21104</v>
+        <v>21105</v>
       </c>
       <c r="E317">
-        <v>280224708</v>
+        <v>281019903</v>
       </c>
       <c r="F317" t="s">
         <v>28</v>
@@ -9833,13 +9833,13 @@
         <v>10</v>
       </c>
       <c r="C318">
-        <v>54508</v>
+        <v>54559</v>
       </c>
       <c r="D318">
-        <v>10815</v>
+        <v>10816</v>
       </c>
       <c r="E318">
-        <v>185010777</v>
+        <v>185264539</v>
       </c>
       <c r="F318" t="s">
         <v>28</v>
@@ -9891,13 +9891,13 @@
         <v>10</v>
       </c>
       <c r="C320">
-        <v>63448</v>
+        <v>63524</v>
       </c>
       <c r="D320">
         <v>10238</v>
       </c>
       <c r="E320">
-        <v>117717850</v>
+        <v>117909933</v>
       </c>
       <c r="F320" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>10</v>
       </c>
       <c r="C321">
-        <v>44467</v>
+        <v>44488</v>
       </c>
       <c r="D321">
         <v>17367</v>
       </c>
       <c r="E321">
-        <v>59518035</v>
+        <v>59551257</v>
       </c>
       <c r="F321" t="s">
         <v>28</v>
@@ -9949,13 +9949,13 @@
         <v>10</v>
       </c>
       <c r="C322">
-        <v>74096</v>
+        <v>74160</v>
       </c>
       <c r="D322">
         <v>9573</v>
       </c>
       <c r="E322">
-        <v>229588167</v>
+        <v>229885509</v>
       </c>
       <c r="F322" t="s">
         <v>28</v>
@@ -9978,13 +9978,13 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>91968</v>
+        <v>92006</v>
       </c>
       <c r="D323">
         <v>19852</v>
       </c>
       <c r="E323">
-        <v>173582087</v>
+        <v>173695267</v>
       </c>
       <c r="F323" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>26758</v>
+        <v>26927</v>
       </c>
       <c r="D2">
-        <v>7506</v>
+        <v>7507</v>
       </c>
       <c r="E2">
-        <v>56151430</v>
+        <v>56723089</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>44782</v>
+        <v>45073</v>
       </c>
       <c r="D4">
-        <v>11470</v>
+        <v>11473</v>
       </c>
       <c r="E4">
-        <v>108275017</v>
+        <v>109183915</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>1103725</v>
+        <v>1117662</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1936</v>
+        <v>1943</v>
       </c>
       <c r="D6">
         <v>564</v>
       </c>
       <c r="E6">
-        <v>2775255</v>
+        <v>2784055</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>92968</v>
+        <v>93336</v>
       </c>
       <c r="D7">
-        <v>32171</v>
+        <v>32172</v>
       </c>
       <c r="E7">
-        <v>153772059</v>
+        <v>154579509</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>174848</v>
+        <v>175958</v>
       </c>
       <c r="D8">
-        <v>39975</v>
+        <v>39977</v>
       </c>
       <c r="E8">
-        <v>597174943</v>
+        <v>601769348</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>64521</v>
+        <v>65211</v>
       </c>
       <c r="D9">
-        <v>9980</v>
+        <v>9981</v>
       </c>
       <c r="E9">
-        <v>172217737</v>
+        <v>174445375</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>252747</v>
+        <v>255434</v>
       </c>
       <c r="D10">
-        <v>29250</v>
+        <v>29252</v>
       </c>
       <c r="E10">
-        <v>1612596525</v>
+        <v>1638157878</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>23340</v>
+        <v>23545</v>
       </c>
       <c r="D11">
         <v>4787</v>
       </c>
       <c r="E11">
-        <v>56695092</v>
+        <v>57371029</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -959,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8717</v>
+        <v>8828</v>
       </c>
       <c r="D12">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="E12">
-        <v>18421324</v>
+        <v>18686242</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>36321</v>
+        <v>36597</v>
       </c>
       <c r="D13">
-        <v>8417</v>
+        <v>8420</v>
       </c>
       <c r="E13">
-        <v>89810246</v>
+        <v>90763047</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>112537</v>
+        <v>113426</v>
       </c>
       <c r="D14">
-        <v>25154</v>
+        <v>25156</v>
       </c>
       <c r="E14">
-        <v>348093366</v>
+        <v>352327703</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>53188</v>
+        <v>53644</v>
       </c>
       <c r="D15">
-        <v>11247</v>
+        <v>11249</v>
       </c>
       <c r="E15">
-        <v>191327471</v>
+        <v>193505098</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>127281</v>
+        <v>128186</v>
       </c>
       <c r="D17">
-        <v>19526</v>
+        <v>19528</v>
       </c>
       <c r="E17">
-        <v>278376219</v>
+        <v>280765283</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>60131</v>
+        <v>60270</v>
       </c>
       <c r="D18">
-        <v>23685</v>
+        <v>23686</v>
       </c>
       <c r="E18">
-        <v>82460489</v>
+        <v>82661468</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>99671</v>
+        <v>100533</v>
       </c>
       <c r="D19">
-        <v>13416</v>
+        <v>13420</v>
       </c>
       <c r="E19">
-        <v>308911034</v>
+        <v>312376999</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1191,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>105283</v>
+        <v>105681</v>
       </c>
       <c r="D20">
-        <v>24233</v>
+        <v>24235</v>
       </c>
       <c r="E20">
-        <v>215344096</v>
+        <v>216133900</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>9452</v>
+        <v>9520</v>
       </c>
       <c r="D21">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="E21">
-        <v>32082642</v>
+        <v>32430053</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>11942</v>
+        <v>12015</v>
       </c>
       <c r="D23">
         <v>3237</v>
       </c>
       <c r="E23">
-        <v>24213631</v>
+        <v>24515714</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1336,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="D25">
         <v>258</v>
       </c>
       <c r="E25">
-        <v>1486948</v>
+        <v>1491688</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>21140</v>
+        <v>21226</v>
       </c>
       <c r="D26">
         <v>8045</v>
       </c>
       <c r="E26">
-        <v>33194523</v>
+        <v>33414366</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1394,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>50772</v>
+        <v>51139</v>
       </c>
       <c r="D27">
-        <v>12282</v>
+        <v>12283</v>
       </c>
       <c r="E27">
-        <v>141448030</v>
+        <v>142626294</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6830</v>
+        <v>6900</v>
       </c>
       <c r="D28">
         <v>1533</v>
       </c>
       <c r="E28">
-        <v>18444351</v>
+        <v>18661026</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1452,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>70615</v>
+        <v>71474</v>
       </c>
       <c r="D29">
         <v>8133</v>
       </c>
       <c r="E29">
-        <v>399957847</v>
+        <v>406929613</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>4132</v>
+        <v>4173</v>
       </c>
       <c r="D30">
         <v>856</v>
       </c>
       <c r="E30">
-        <v>10038955</v>
+        <v>10192376</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1510,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1775</v>
+        <v>1794</v>
       </c>
       <c r="D31">
         <v>454</v>
       </c>
       <c r="E31">
-        <v>3202838</v>
+        <v>3262584</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>6797</v>
+        <v>6848</v>
       </c>
       <c r="D32">
         <v>1711</v>
       </c>
       <c r="E32">
-        <v>12729602</v>
+        <v>12829522</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>21260</v>
+        <v>21447</v>
       </c>
       <c r="D33">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="E33">
-        <v>67428016</v>
+        <v>68297802</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10342</v>
+        <v>10441</v>
       </c>
       <c r="D34">
         <v>2280</v>
       </c>
       <c r="E34">
-        <v>33059794</v>
+        <v>33664287</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>15806</v>
+        <v>15949</v>
       </c>
       <c r="D36">
         <v>2772</v>
       </c>
       <c r="E36">
-        <v>26530083</v>
+        <v>26787309</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>13086</v>
+        <v>13111</v>
       </c>
       <c r="D37">
         <v>5281</v>
       </c>
       <c r="E37">
-        <v>17357489</v>
+        <v>17383082</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1713,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>24793</v>
+        <v>25016</v>
       </c>
       <c r="D38">
         <v>3247</v>
       </c>
       <c r="E38">
-        <v>75591160</v>
+        <v>76386681</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>31040</v>
+        <v>31142</v>
       </c>
       <c r="D39">
-        <v>7341</v>
+        <v>7342</v>
       </c>
       <c r="E39">
-        <v>61184673</v>
+        <v>61376315</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>6045</v>
+        <v>6083</v>
       </c>
       <c r="D40">
         <v>1865</v>
       </c>
       <c r="E40">
-        <v>14767083</v>
+        <v>15087757</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>16172</v>
+        <v>16274</v>
       </c>
       <c r="D42">
         <v>4192</v>
       </c>
       <c r="E42">
-        <v>30911250</v>
+        <v>31194711</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1887,13 +1887,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D44">
         <v>159</v>
       </c>
       <c r="E44">
-        <v>706850</v>
+        <v>707137</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1916,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>21179</v>
+        <v>21236</v>
       </c>
       <c r="D45">
         <v>9066</v>
       </c>
       <c r="E45">
-        <v>32696727</v>
+        <v>32805004</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>54303</v>
+        <v>54607</v>
       </c>
       <c r="D46">
-        <v>13265</v>
+        <v>13266</v>
       </c>
       <c r="E46">
-        <v>166713416</v>
+        <v>167572689</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>9711</v>
+        <v>9809</v>
       </c>
       <c r="D47">
         <v>1862</v>
       </c>
       <c r="E47">
-        <v>26223886</v>
+        <v>26513067</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>95983</v>
+        <v>97148</v>
       </c>
       <c r="D48">
-        <v>11267</v>
+        <v>11268</v>
       </c>
       <c r="E48">
-        <v>589443497</v>
+        <v>599741459</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2032,13 +2032,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>7150</v>
+        <v>7219</v>
       </c>
       <c r="D49">
         <v>1434</v>
       </c>
       <c r="E49">
-        <v>19218853</v>
+        <v>19421149</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2061,13 +2061,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>2378</v>
+        <v>2393</v>
       </c>
       <c r="D50">
         <v>623</v>
       </c>
       <c r="E50">
-        <v>5978708</v>
+        <v>6013224</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>9039</v>
+        <v>9092</v>
       </c>
       <c r="D51">
         <v>2425</v>
       </c>
       <c r="E51">
-        <v>18496909</v>
+        <v>18648756</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2119,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>32134</v>
+        <v>32383</v>
       </c>
       <c r="D52">
         <v>7453</v>
       </c>
       <c r="E52">
-        <v>107166929</v>
+        <v>108435325</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>12454</v>
+        <v>12546</v>
       </c>
       <c r="D53">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="E53">
-        <v>43461520</v>
+        <v>43870701</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>16926</v>
+        <v>17063</v>
       </c>
       <c r="D54">
         <v>3138</v>
       </c>
       <c r="E54">
-        <v>31092698</v>
+        <v>31340263</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2206,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>21221</v>
+        <v>21286</v>
       </c>
       <c r="D55">
         <v>8867</v>
       </c>
       <c r="E55">
-        <v>28786423</v>
+        <v>28876555</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2235,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>30435</v>
+        <v>30715</v>
       </c>
       <c r="D56">
         <v>4408</v>
       </c>
       <c r="E56">
-        <v>97962605</v>
+        <v>99119123</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>34679</v>
+        <v>34773</v>
       </c>
       <c r="D57">
-        <v>8562</v>
+        <v>8563</v>
       </c>
       <c r="E57">
-        <v>70080467</v>
+        <v>70232863</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -2293,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>6484</v>
+        <v>6540</v>
       </c>
       <c r="D58">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E58">
-        <v>23669472</v>
+        <v>24234346</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2322,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10191</v>
+        <v>10253</v>
       </c>
       <c r="D59">
         <v>2666</v>
       </c>
       <c r="E59">
-        <v>20601250</v>
+        <v>20919860</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2380,13 +2380,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D61">
         <v>153</v>
       </c>
       <c r="E61">
-        <v>666157</v>
+        <v>667931</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>20058</v>
+        <v>20145</v>
       </c>
       <c r="D62">
-        <v>7728</v>
+        <v>7729</v>
       </c>
       <c r="E62">
-        <v>31968521</v>
+        <v>32150520</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>39669</v>
+        <v>39889</v>
       </c>
       <c r="D63">
         <v>9887</v>
       </c>
       <c r="E63">
-        <v>110189068</v>
+        <v>110723127</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2467,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>9919</v>
+        <v>10008</v>
       </c>
       <c r="D64">
         <v>1945</v>
       </c>
       <c r="E64">
-        <v>23353331</v>
+        <v>23639451</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>55673</v>
+        <v>56464</v>
       </c>
       <c r="D65">
-        <v>6564</v>
+        <v>6566</v>
       </c>
       <c r="E65">
-        <v>311650466</v>
+        <v>317885313</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>4558</v>
+        <v>4596</v>
       </c>
       <c r="D66">
         <v>963</v>
       </c>
       <c r="E66">
-        <v>12456540</v>
+        <v>12568295</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1620</v>
+        <v>1636</v>
       </c>
       <c r="D67">
         <v>397</v>
       </c>
       <c r="E67">
-        <v>3548317</v>
+        <v>3582203</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6801</v>
+        <v>6853</v>
       </c>
       <c r="D68">
         <v>1672</v>
       </c>
       <c r="E68">
-        <v>13275291</v>
+        <v>13401019</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>19640</v>
+        <v>19787</v>
       </c>
       <c r="D69">
         <v>4479</v>
       </c>
       <c r="E69">
-        <v>57776228</v>
+        <v>58344402</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2641,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>10145</v>
+        <v>10223</v>
       </c>
       <c r="D70">
         <v>2291</v>
       </c>
       <c r="E70">
-        <v>31549133</v>
+        <v>31834042</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>12017</v>
+        <v>12116</v>
       </c>
       <c r="D71">
         <v>2297</v>
       </c>
       <c r="E71">
-        <v>22514098</v>
+        <v>22687501</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2699,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>11114</v>
+        <v>11136</v>
       </c>
       <c r="D72">
         <v>4526</v>
       </c>
       <c r="E72">
-        <v>14604214</v>
+        <v>14628998</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>22217</v>
+        <v>22420</v>
       </c>
       <c r="D73">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="E73">
-        <v>71121098</v>
+        <v>72079145</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>27406</v>
+        <v>27514</v>
       </c>
       <c r="D74">
-        <v>6634</v>
+        <v>6635</v>
       </c>
       <c r="E74">
-        <v>53352172</v>
+        <v>53542666</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>5116</v>
+        <v>5148</v>
       </c>
       <c r="D75">
         <v>1139</v>
       </c>
       <c r="E75">
-        <v>10486520</v>
+        <v>10611969</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>4289</v>
+        <v>4325</v>
       </c>
       <c r="D76">
         <v>911</v>
       </c>
       <c r="E76">
-        <v>9054125</v>
+        <v>9199137</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -2873,13 +2873,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>7882</v>
+        <v>7920</v>
       </c>
       <c r="D78">
         <v>2464</v>
       </c>
       <c r="E78">
-        <v>13109377</v>
+        <v>13187412</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -2902,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>13689</v>
+        <v>13822</v>
       </c>
       <c r="D79">
         <v>2636</v>
       </c>
       <c r="E79">
-        <v>53672654</v>
+        <v>54270857</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>2329</v>
+        <v>2347</v>
       </c>
       <c r="D80">
         <v>404</v>
       </c>
       <c r="E80">
-        <v>10067710</v>
+        <v>10175851</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -2960,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>24560</v>
+        <v>24864</v>
       </c>
       <c r="D81">
         <v>2809</v>
       </c>
       <c r="E81">
-        <v>156166123</v>
+        <v>158792646</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="D82">
         <v>192</v>
       </c>
       <c r="E82">
-        <v>3382435</v>
+        <v>3390152</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -3018,13 +3018,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D83">
         <v>70</v>
       </c>
       <c r="E83">
-        <v>919531</v>
+        <v>924031</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>3988</v>
+        <v>4027</v>
       </c>
       <c r="D84">
         <v>706</v>
       </c>
       <c r="E84">
-        <v>12035541</v>
+        <v>12188183</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -3076,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>10205</v>
+        <v>10290</v>
       </c>
       <c r="D85">
         <v>1845</v>
       </c>
       <c r="E85">
-        <v>44497458</v>
+        <v>45023545</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>5073</v>
+        <v>5134</v>
       </c>
       <c r="D86">
         <v>941</v>
       </c>
       <c r="E86">
-        <v>16952764</v>
+        <v>17142466</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -3134,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>2718</v>
+        <v>2746</v>
       </c>
       <c r="D87">
         <v>412</v>
       </c>
       <c r="E87">
-        <v>5206099</v>
+        <v>5263423</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -3163,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>2396</v>
+        <v>2404</v>
       </c>
       <c r="D88">
         <v>925</v>
       </c>
       <c r="E88">
-        <v>3221640</v>
+        <v>3229901</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -3192,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>4381</v>
+        <v>4422</v>
       </c>
       <c r="D89">
         <v>553</v>
       </c>
       <c r="E89">
-        <v>15902153</v>
+        <v>16251956</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3221,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>6082</v>
+        <v>6128</v>
       </c>
       <c r="D90">
         <v>1284</v>
       </c>
       <c r="E90">
-        <v>12185099</v>
+        <v>12260512</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -3250,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>48189</v>
+        <v>48379</v>
       </c>
       <c r="D91">
-        <v>12944</v>
+        <v>12947</v>
       </c>
       <c r="E91">
-        <v>250889227</v>
+        <v>252129312</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>22162</v>
+        <v>22297</v>
       </c>
       <c r="D93">
-        <v>5752</v>
+        <v>5754</v>
       </c>
       <c r="E93">
-        <v>68947666</v>
+        <v>69604094</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3337,13 +3337,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D94">
         <v>60</v>
       </c>
       <c r="E94">
-        <v>237278</v>
+        <v>238778</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -3366,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>2100</v>
+        <v>2114</v>
       </c>
       <c r="D95">
         <v>530</v>
       </c>
       <c r="E95">
-        <v>3153889</v>
+        <v>3172862</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>44459</v>
+        <v>44627</v>
       </c>
       <c r="D96">
-        <v>15874</v>
+        <v>15876</v>
       </c>
       <c r="E96">
-        <v>70465184</v>
+        <v>70768262</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3424,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>95270</v>
+        <v>95872</v>
       </c>
       <c r="D97">
-        <v>22631</v>
+        <v>22632</v>
       </c>
       <c r="E97">
-        <v>286169860</v>
+        <v>287934332</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>21005</v>
+        <v>21226</v>
       </c>
       <c r="D98">
         <v>3635</v>
       </c>
       <c r="E98">
-        <v>53944948</v>
+        <v>54624733</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -3482,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>122769</v>
+        <v>124113</v>
       </c>
       <c r="D99">
-        <v>13975</v>
+        <v>13977</v>
       </c>
       <c r="E99">
-        <v>791265973</v>
+        <v>803824759</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>9175</v>
+        <v>9250</v>
       </c>
       <c r="D100">
         <v>1924</v>
       </c>
       <c r="E100">
-        <v>22642895</v>
+        <v>22855094</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -3540,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>4124</v>
+        <v>4157</v>
       </c>
       <c r="D101">
         <v>1059</v>
       </c>
       <c r="E101">
-        <v>7388601</v>
+        <v>7436329</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -3569,13 +3569,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>13205</v>
+        <v>13297</v>
       </c>
       <c r="D102">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="E102">
-        <v>27318562</v>
+        <v>27593666</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -3598,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>46160</v>
+        <v>46501</v>
       </c>
       <c r="D103">
         <v>10578</v>
       </c>
       <c r="E103">
-        <v>127956562</v>
+        <v>129334617</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>20509</v>
+        <v>20689</v>
       </c>
       <c r="D104">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E104">
-        <v>68873302</v>
+        <v>69600520</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>25795</v>
+        <v>26003</v>
       </c>
       <c r="D106">
         <v>4735</v>
       </c>
       <c r="E106">
-        <v>47214790</v>
+        <v>47603689</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>26716</v>
+        <v>26767</v>
       </c>
       <c r="D107">
         <v>11148</v>
       </c>
       <c r="E107">
-        <v>36535369</v>
+        <v>36598573</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>41933</v>
+        <v>42338</v>
       </c>
       <c r="D108">
         <v>5412</v>
       </c>
       <c r="E108">
-        <v>131023352</v>
+        <v>132588195</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>64183</v>
+        <v>64430</v>
       </c>
       <c r="D109">
-        <v>14828</v>
+        <v>14829</v>
       </c>
       <c r="E109">
-        <v>125813695</v>
+        <v>126232756</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>14805</v>
+        <v>14866</v>
       </c>
       <c r="D110">
         <v>2589</v>
       </c>
       <c r="E110">
-        <v>23215636</v>
+        <v>23304025</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>5094</v>
+        <v>5115</v>
       </c>
       <c r="D111">
         <v>1203</v>
       </c>
       <c r="E111">
-        <v>9730493</v>
+        <v>9769607</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>6979</v>
+        <v>7000</v>
       </c>
       <c r="D114">
         <v>2170</v>
       </c>
       <c r="E114">
-        <v>10754446</v>
+        <v>10786906</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -3946,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>14167</v>
+        <v>14220</v>
       </c>
       <c r="D115">
         <v>3229</v>
       </c>
       <c r="E115">
-        <v>27878390</v>
+        <v>27979027</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4441</v>
+        <v>4468</v>
       </c>
       <c r="D116">
         <v>736</v>
       </c>
       <c r="E116">
-        <v>10067802</v>
+        <v>10164790</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>15640</v>
+        <v>15713</v>
       </c>
       <c r="D117">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E117">
-        <v>41099212</v>
+        <v>41484738</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>1452</v>
+        <v>1461</v>
       </c>
       <c r="D118">
         <v>306</v>
       </c>
       <c r="E118">
-        <v>3759106</v>
+        <v>3791045</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -4062,13 +4062,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D119">
         <v>107</v>
       </c>
       <c r="E119">
-        <v>740160</v>
+        <v>742216</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -4091,13 +4091,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>2050</v>
+        <v>2063</v>
       </c>
       <c r="D120">
         <v>442</v>
       </c>
       <c r="E120">
-        <v>3714013</v>
+        <v>3743470</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -4120,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>5154</v>
+        <v>5174</v>
       </c>
       <c r="D121">
         <v>1265</v>
       </c>
       <c r="E121">
-        <v>9601262</v>
+        <v>9663752</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -4149,13 +4149,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>8133</v>
+        <v>8181</v>
       </c>
       <c r="D122">
         <v>1397</v>
       </c>
       <c r="E122">
-        <v>22476177</v>
+        <v>22675807</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>2934</v>
+        <v>2951</v>
       </c>
       <c r="D123">
         <v>658</v>
       </c>
       <c r="E123">
-        <v>4158336</v>
+        <v>4184800</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -4207,13 +4207,13 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="D124">
         <v>1007</v>
       </c>
       <c r="E124">
-        <v>3786072</v>
+        <v>3787572</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>3639</v>
+        <v>3656</v>
       </c>
       <c r="D125">
         <v>489</v>
       </c>
       <c r="E125">
-        <v>9655410</v>
+        <v>9733137</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4265,13 +4265,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>4559</v>
+        <v>4566</v>
       </c>
       <c r="D126">
         <v>1134</v>
       </c>
       <c r="E126">
-        <v>6710034</v>
+        <v>6719620</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>6268</v>
+        <v>6282</v>
       </c>
       <c r="D127">
         <v>820</v>
       </c>
       <c r="E127">
-        <v>10407171</v>
+        <v>10425981</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="D129">
         <v>401</v>
       </c>
       <c r="E129">
-        <v>5150257</v>
+        <v>5156737</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>6789</v>
+        <v>6808</v>
       </c>
       <c r="D131">
         <v>1088</v>
       </c>
       <c r="E131">
-        <v>15213375</v>
+        <v>15241481</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>5705</v>
+        <v>5722</v>
       </c>
       <c r="D132">
         <v>979</v>
       </c>
       <c r="E132">
-        <v>11958840</v>
+        <v>11983097</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -4468,13 +4468,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="D133">
         <v>292</v>
       </c>
       <c r="E133">
-        <v>5348953</v>
+        <v>5375021</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>4475</v>
+        <v>4487</v>
       </c>
       <c r="D134">
         <v>580</v>
       </c>
       <c r="E134">
-        <v>12764693</v>
+        <v>12824041</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4526,13 +4526,13 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D135">
         <v>84</v>
       </c>
       <c r="E135">
-        <v>1724035</v>
+        <v>1737000</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
@@ -4584,13 +4584,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D137">
         <v>80</v>
       </c>
       <c r="E137">
-        <v>957981</v>
+        <v>962481</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
@@ -4613,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>2428</v>
+        <v>2441</v>
       </c>
       <c r="D138">
         <v>439</v>
       </c>
       <c r="E138">
-        <v>5437910</v>
+        <v>5467162</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -4642,13 +4642,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>2765</v>
+        <v>2775</v>
       </c>
       <c r="D139">
         <v>392</v>
       </c>
       <c r="E139">
-        <v>7485843</v>
+        <v>7507393</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -4671,13 +4671,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D140">
         <v>155</v>
       </c>
       <c r="E140">
-        <v>1728589</v>
+        <v>1736089</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
@@ -4729,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="D142">
         <v>135</v>
       </c>
       <c r="E142">
-        <v>2567268</v>
+        <v>2583958</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -4758,13 +4758,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="D143">
         <v>291</v>
       </c>
       <c r="E143">
-        <v>3316646</v>
+        <v>3325528</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>7357</v>
+        <v>7407</v>
       </c>
       <c r="D144">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="E144">
-        <v>22973852</v>
+        <v>23128960</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -4845,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>16425</v>
+        <v>16523</v>
       </c>
       <c r="D146">
         <v>4229</v>
       </c>
       <c r="E146">
-        <v>39403842</v>
+        <v>39653799</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -4874,13 +4874,13 @@
         <v>10</v>
       </c>
       <c r="C147">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D147">
         <v>17</v>
       </c>
       <c r="E147">
-        <v>269583</v>
+        <v>271083</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
@@ -4903,13 +4903,13 @@
         <v>10</v>
       </c>
       <c r="C148">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="D148">
         <v>242</v>
       </c>
       <c r="E148">
-        <v>1088960</v>
+        <v>1103424</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>36226</v>
+        <v>36415</v>
       </c>
       <c r="D149">
         <v>13023</v>
       </c>
       <c r="E149">
-        <v>57759446</v>
+        <v>58153052</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>91952</v>
+        <v>92749</v>
       </c>
       <c r="D150">
         <v>21097</v>
       </c>
       <c r="E150">
-        <v>258934528</v>
+        <v>261471791</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>34455</v>
+        <v>34834</v>
       </c>
       <c r="D151">
         <v>5275</v>
       </c>
       <c r="E151">
-        <v>74162767</v>
+        <v>75095757</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>113594</v>
+        <v>114978</v>
       </c>
       <c r="D152">
         <v>13400</v>
       </c>
       <c r="E152">
-        <v>663340135</v>
+        <v>675207434</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>8868</v>
+        <v>8965</v>
       </c>
       <c r="D153">
         <v>1956</v>
       </c>
       <c r="E153">
-        <v>21747677</v>
+        <v>22035933</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>4106</v>
+        <v>4153</v>
       </c>
       <c r="D154">
         <v>963</v>
       </c>
       <c r="E154">
-        <v>7920956</v>
+        <v>8007395</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>11316</v>
+        <v>11412</v>
       </c>
       <c r="D155">
         <v>2738</v>
       </c>
       <c r="E155">
-        <v>24215005</v>
+        <v>24484054</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>44969</v>
+        <v>45324</v>
       </c>
       <c r="D156">
         <v>9960</v>
       </c>
       <c r="E156">
-        <v>131628424</v>
+        <v>133181026</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>19741</v>
+        <v>19927</v>
       </c>
       <c r="D157">
         <v>4242</v>
       </c>
       <c r="E157">
-        <v>67301534</v>
+        <v>67916905</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -5193,13 +5193,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158">
         <v>4</v>
       </c>
       <c r="E158">
-        <v>40571</v>
+        <v>50571</v>
       </c>
       <c r="F158" t="s">
         <v>19</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>21029</v>
+        <v>21214</v>
       </c>
       <c r="D159">
         <v>4102</v>
       </c>
       <c r="E159">
-        <v>36153304</v>
+        <v>36455971</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>26760</v>
+        <v>26824</v>
       </c>
       <c r="D160">
         <v>11386</v>
       </c>
       <c r="E160">
-        <v>36959361</v>
+        <v>37048690</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>40938</v>
+        <v>41317</v>
       </c>
       <c r="D161">
-        <v>5269</v>
+        <v>5271</v>
       </c>
       <c r="E161">
-        <v>130410283</v>
+        <v>131916856</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>60807</v>
+        <v>61062</v>
       </c>
       <c r="D162">
         <v>14044</v>
       </c>
       <c r="E162">
-        <v>110799233</v>
+        <v>111209241</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>2214</v>
+        <v>2227</v>
       </c>
       <c r="D163">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E163">
-        <v>4583203</v>
+        <v>4612672</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>47243</v>
+        <v>47550</v>
       </c>
       <c r="D164">
-        <v>10985</v>
+        <v>10988</v>
       </c>
       <c r="E164">
-        <v>134969499</v>
+        <v>135910865</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -5396,13 +5396,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="D165">
         <v>154</v>
       </c>
       <c r="E165">
-        <v>2165524</v>
+        <v>2176024</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
@@ -5425,13 +5425,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1581</v>
+        <v>1588</v>
       </c>
       <c r="D166">
         <v>423</v>
       </c>
       <c r="E166">
-        <v>2857701</v>
+        <v>2867401</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>99620</v>
+        <v>100030</v>
       </c>
       <c r="D167">
-        <v>32120</v>
+        <v>32123</v>
       </c>
       <c r="E167">
-        <v>183652136</v>
+        <v>184449319</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>267485</v>
+        <v>269386</v>
       </c>
       <c r="D168">
-        <v>57715</v>
+        <v>57724</v>
       </c>
       <c r="E168">
-        <v>1004296865</v>
+        <v>1014754223</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>514665</v>
+        <v>520521</v>
       </c>
       <c r="D169">
-        <v>60728</v>
+        <v>60733</v>
       </c>
       <c r="E169">
-        <v>1186614247</v>
+        <v>1204020488</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>318995</v>
+        <v>322021</v>
       </c>
       <c r="D170">
-        <v>37491</v>
+        <v>37497</v>
       </c>
       <c r="E170">
-        <v>2426366065</v>
+        <v>2461974453</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>105083</v>
+        <v>105899</v>
       </c>
       <c r="D171">
-        <v>20119</v>
+        <v>20121</v>
       </c>
       <c r="E171">
-        <v>361236284</v>
+        <v>365293419</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>20701</v>
+        <v>20916</v>
       </c>
       <c r="D172">
         <v>4317</v>
       </c>
       <c r="E172">
-        <v>58723863</v>
+        <v>59635793</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>51995</v>
+        <v>52391</v>
       </c>
       <c r="D173">
-        <v>11539</v>
+        <v>11542</v>
       </c>
       <c r="E173">
-        <v>137964860</v>
+        <v>139150596</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>333987</v>
+        <v>336642</v>
       </c>
       <c r="D174">
-        <v>69337</v>
+        <v>69347</v>
       </c>
       <c r="E174">
-        <v>883153634</v>
+        <v>891743518</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>111178</v>
+        <v>112196</v>
       </c>
       <c r="D175">
-        <v>17642</v>
+        <v>17645</v>
       </c>
       <c r="E175">
-        <v>585116888</v>
+        <v>592117789</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>90845</v>
+        <v>91593</v>
       </c>
       <c r="D177">
-        <v>16403</v>
+        <v>16405</v>
       </c>
       <c r="E177">
-        <v>160723959</v>
+        <v>162193122</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>74733</v>
+        <v>74919</v>
       </c>
       <c r="D178">
         <v>28746</v>
       </c>
       <c r="E178">
-        <v>101802579</v>
+        <v>102043521</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>210880</v>
+        <v>212587</v>
       </c>
       <c r="D179">
-        <v>28899</v>
+        <v>28907</v>
       </c>
       <c r="E179">
-        <v>680303779</v>
+        <v>687536420</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>134826</v>
+        <v>135435</v>
       </c>
       <c r="D180">
         <v>28772</v>
       </c>
       <c r="E180">
-        <v>313174199</v>
+        <v>314657762</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>7592</v>
+        <v>7613</v>
       </c>
       <c r="D181">
         <v>1790</v>
       </c>
       <c r="E181">
-        <v>10879826</v>
+        <v>10919424</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>6012</v>
+        <v>6042</v>
       </c>
       <c r="D182">
         <v>1653</v>
       </c>
       <c r="E182">
-        <v>10830063</v>
+        <v>10924248</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5947,13 +5947,13 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D184">
         <v>35</v>
       </c>
       <c r="E184">
-        <v>144773</v>
+        <v>146273</v>
       </c>
       <c r="F184" t="s">
         <v>21</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>8961</v>
+        <v>8988</v>
       </c>
       <c r="D185">
         <v>3235</v>
       </c>
       <c r="E185">
-        <v>13662599</v>
+        <v>13710117</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>20068</v>
+        <v>20178</v>
       </c>
       <c r="D186">
         <v>5196</v>
       </c>
       <c r="E186">
-        <v>35575796</v>
+        <v>35830000</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
@@ -6034,13 +6034,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>2966</v>
+        <v>2980</v>
       </c>
       <c r="D187">
         <v>784</v>
       </c>
       <c r="E187">
-        <v>6105010</v>
+        <v>6146897</v>
       </c>
       <c r="F187" t="s">
         <v>21</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>16110</v>
+        <v>16208</v>
       </c>
       <c r="D188">
         <v>2557</v>
       </c>
       <c r="E188">
-        <v>46146926</v>
+        <v>46627877</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6092,13 +6092,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>1810</v>
+        <v>1819</v>
       </c>
       <c r="D189">
         <v>398</v>
       </c>
       <c r="E189">
-        <v>5446300</v>
+        <v>5466896</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6121,13 +6121,13 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D190">
         <v>162</v>
       </c>
       <c r="E190">
-        <v>1043678</v>
+        <v>1045178</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>2314</v>
+        <v>2321</v>
       </c>
       <c r="D191">
         <v>633</v>
       </c>
       <c r="E191">
-        <v>3677432</v>
+        <v>3688544</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>6772</v>
+        <v>6821</v>
       </c>
       <c r="D192">
         <v>1840</v>
       </c>
       <c r="E192">
-        <v>13918372</v>
+        <v>14052106</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>4771</v>
+        <v>4792</v>
       </c>
       <c r="D193">
         <v>1029</v>
       </c>
       <c r="E193">
-        <v>18550704</v>
+        <v>18670058</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>5385</v>
+        <v>5409</v>
       </c>
       <c r="D194">
         <v>1244</v>
       </c>
       <c r="E194">
-        <v>7569228</v>
+        <v>7608440</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6266,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="C195">
-        <v>5725</v>
+        <v>5736</v>
       </c>
       <c r="D195">
         <v>2469</v>
       </c>
       <c r="E195">
-        <v>8087746</v>
+        <v>8104359</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>6239</v>
+        <v>6286</v>
       </c>
       <c r="D196">
         <v>908</v>
       </c>
       <c r="E196">
-        <v>15359339</v>
+        <v>15526870</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>6692</v>
+        <v>6721</v>
       </c>
       <c r="D197">
         <v>1980</v>
       </c>
       <c r="E197">
-        <v>8986293</v>
+        <v>9031004</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>3711</v>
+        <v>3720</v>
       </c>
       <c r="D198">
         <v>777</v>
       </c>
       <c r="E198">
-        <v>5227258</v>
+        <v>5239158</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -6382,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>3485</v>
+        <v>3493</v>
       </c>
       <c r="D199">
         <v>830</v>
       </c>
       <c r="E199">
-        <v>6760013</v>
+        <v>6778028</v>
       </c>
       <c r="F199" t="s">
         <v>22</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>4301</v>
+        <v>4315</v>
       </c>
       <c r="D202">
         <v>1381</v>
       </c>
       <c r="E202">
-        <v>7000701</v>
+        <v>7021537</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>10281</v>
+        <v>10324</v>
       </c>
       <c r="D203">
         <v>2224</v>
       </c>
       <c r="E203">
-        <v>23351808</v>
+        <v>23457180</v>
       </c>
       <c r="F203" t="s">
         <v>22</v>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>3909</v>
+        <v>3921</v>
       </c>
       <c r="D204">
         <v>715</v>
       </c>
       <c r="E204">
-        <v>9193255</v>
+        <v>9235822</v>
       </c>
       <c r="F204" t="s">
         <v>22</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>8237</v>
+        <v>8283</v>
       </c>
       <c r="D205">
         <v>1266</v>
       </c>
       <c r="E205">
-        <v>29090817</v>
+        <v>29330431</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="D206">
         <v>229</v>
       </c>
       <c r="E206">
-        <v>2819905</v>
+        <v>2825741</v>
       </c>
       <c r="F206" t="s">
         <v>22</v>
@@ -6614,13 +6614,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D207">
         <v>96</v>
       </c>
       <c r="E207">
-        <v>912831</v>
+        <v>931329</v>
       </c>
       <c r="F207" t="s">
         <v>22</v>
@@ -6643,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="D208">
         <v>303</v>
       </c>
       <c r="E208">
-        <v>2690871</v>
+        <v>2697698</v>
       </c>
       <c r="F208" t="s">
         <v>22</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>4529</v>
+        <v>4552</v>
       </c>
       <c r="D209">
         <v>1110</v>
       </c>
       <c r="E209">
-        <v>9557133</v>
+        <v>9637116</v>
       </c>
       <c r="F209" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>5185</v>
+        <v>5206</v>
       </c>
       <c r="D210">
         <v>940</v>
       </c>
       <c r="E210">
-        <v>13062949</v>
+        <v>13163901</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -6730,13 +6730,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>2419</v>
+        <v>2430</v>
       </c>
       <c r="D211">
         <v>479</v>
       </c>
       <c r="E211">
-        <v>3827717</v>
+        <v>3848054</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
@@ -6759,13 +6759,13 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="D212">
         <v>940</v>
       </c>
       <c r="E212">
-        <v>3329471</v>
+        <v>3330621</v>
       </c>
       <c r="F212" t="s">
         <v>22</v>
@@ -6788,13 +6788,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>2688</v>
+        <v>2704</v>
       </c>
       <c r="D213">
         <v>376</v>
       </c>
       <c r="E213">
-        <v>7245146</v>
+        <v>7296701</v>
       </c>
       <c r="F213" t="s">
         <v>22</v>
@@ -6817,13 +6817,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>4997</v>
+        <v>5013</v>
       </c>
       <c r="D214">
         <v>1062</v>
       </c>
       <c r="E214">
-        <v>8574696</v>
+        <v>8596702</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -6846,13 +6846,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>9043</v>
+        <v>9052</v>
       </c>
       <c r="D215">
         <v>1090</v>
       </c>
       <c r="E215">
-        <v>19725060</v>
+        <v>19741222</v>
       </c>
       <c r="F215" t="s">
         <v>23</v>
@@ -6875,13 +6875,13 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D216">
         <v>202</v>
       </c>
       <c r="E216">
-        <v>3631730</v>
+        <v>3632680</v>
       </c>
       <c r="F216" t="s">
         <v>23</v>
@@ -6933,13 +6933,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>4853</v>
+        <v>4860</v>
       </c>
       <c r="D218">
         <v>681</v>
       </c>
       <c r="E218">
-        <v>11810434</v>
+        <v>11822434</v>
       </c>
       <c r="F218" t="s">
         <v>23</v>
@@ -6962,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>21987</v>
+        <v>22016</v>
       </c>
       <c r="D219">
         <v>2788</v>
       </c>
       <c r="E219">
-        <v>51487310</v>
+        <v>51540586</v>
       </c>
       <c r="F219" t="s">
         <v>23</v>
@@ -6991,13 +6991,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>4434</v>
+        <v>4446</v>
       </c>
       <c r="D220">
         <v>521</v>
       </c>
       <c r="E220">
-        <v>11321867</v>
+        <v>11363160</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
@@ -7020,13 +7020,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>2375</v>
+        <v>2382</v>
       </c>
       <c r="D221">
         <v>319</v>
       </c>
       <c r="E221">
-        <v>6703571</v>
+        <v>6735334</v>
       </c>
       <c r="F221" t="s">
         <v>23</v>
@@ -7136,13 +7136,13 @@
         <v>10</v>
       </c>
       <c r="C225">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D225">
         <v>129</v>
       </c>
       <c r="E225">
-        <v>1602024</v>
+        <v>1615304</v>
       </c>
       <c r="F225" t="s">
         <v>23</v>
@@ -7165,13 +7165,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D226">
         <v>122</v>
       </c>
       <c r="E226">
-        <v>2527949</v>
+        <v>2529449</v>
       </c>
       <c r="F226" t="s">
         <v>23</v>
@@ -7310,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>5810</v>
+        <v>5847</v>
       </c>
       <c r="D231">
         <v>1740</v>
       </c>
       <c r="E231">
-        <v>12422239</v>
+        <v>12522396</v>
       </c>
       <c r="F231" t="s">
         <v>24</v>
@@ -7368,13 +7368,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>11313</v>
+        <v>11400</v>
       </c>
       <c r="D233">
         <v>3011</v>
       </c>
       <c r="E233">
-        <v>23345318</v>
+        <v>23537665</v>
       </c>
       <c r="F233" t="s">
         <v>24</v>
@@ -7426,13 +7426,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D235">
         <v>156</v>
       </c>
       <c r="E235">
-        <v>646274</v>
+        <v>650774</v>
       </c>
       <c r="F235" t="s">
         <v>24</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>21564</v>
+        <v>21642</v>
       </c>
       <c r="D236">
         <v>8414</v>
       </c>
       <c r="E236">
-        <v>34639732</v>
+        <v>34778075</v>
       </c>
       <c r="F236" t="s">
         <v>24</v>
@@ -7484,13 +7484,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>56581</v>
+        <v>56999</v>
       </c>
       <c r="D237">
         <v>13450</v>
       </c>
       <c r="E237">
-        <v>161844000</v>
+        <v>163233667</v>
       </c>
       <c r="F237" t="s">
         <v>24</v>
@@ -7513,13 +7513,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>11125</v>
+        <v>11231</v>
       </c>
       <c r="D238">
         <v>2148</v>
       </c>
       <c r="E238">
-        <v>28460345</v>
+        <v>28822133</v>
       </c>
       <c r="F238" t="s">
         <v>24</v>
@@ -7542,13 +7542,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>77537</v>
+        <v>78476</v>
       </c>
       <c r="D239">
-        <v>9327</v>
+        <v>9329</v>
       </c>
       <c r="E239">
-        <v>466457375</v>
+        <v>475416268</v>
       </c>
       <c r="F239" t="s">
         <v>24</v>
@@ -7571,13 +7571,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>5050</v>
+        <v>5088</v>
       </c>
       <c r="D240">
         <v>1049</v>
       </c>
       <c r="E240">
-        <v>12872707</v>
+        <v>12961154</v>
       </c>
       <c r="F240" t="s">
         <v>24</v>
@@ -7600,13 +7600,13 @@
         <v>10</v>
       </c>
       <c r="C241">
-        <v>2488</v>
+        <v>2517</v>
       </c>
       <c r="D241">
         <v>624</v>
       </c>
       <c r="E241">
-        <v>6241922</v>
+        <v>6295432</v>
       </c>
       <c r="F241" t="s">
         <v>24</v>
@@ -7629,13 +7629,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>8236</v>
+        <v>8287</v>
       </c>
       <c r="D242">
         <v>1982</v>
       </c>
       <c r="E242">
-        <v>18538793</v>
+        <v>18671007</v>
       </c>
       <c r="F242" t="s">
         <v>24</v>
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>26581</v>
+        <v>26783</v>
       </c>
       <c r="D243">
         <v>5914</v>
       </c>
       <c r="E243">
-        <v>84677549</v>
+        <v>85626010</v>
       </c>
       <c r="F243" t="s">
         <v>24</v>
@@ -7687,13 +7687,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>12295</v>
+        <v>12404</v>
       </c>
       <c r="D244">
         <v>2604</v>
       </c>
       <c r="E244">
-        <v>39000744</v>
+        <v>39427749</v>
       </c>
       <c r="F244" t="s">
         <v>24</v>
@@ -7716,13 +7716,13 @@
         <v>10</v>
       </c>
       <c r="C245">
-        <v>14562</v>
+        <v>14671</v>
       </c>
       <c r="D245">
         <v>2702</v>
       </c>
       <c r="E245">
-        <v>25631124</v>
+        <v>25844704</v>
       </c>
       <c r="F245" t="s">
         <v>24</v>
@@ -7745,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>13212</v>
+        <v>13237</v>
       </c>
       <c r="D246">
-        <v>5418</v>
+        <v>5419</v>
       </c>
       <c r="E246">
-        <v>17279825</v>
+        <v>17305120</v>
       </c>
       <c r="F246" t="s">
         <v>24</v>
@@ -7774,13 +7774,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>26875</v>
+        <v>27143</v>
       </c>
       <c r="D247">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="E247">
-        <v>88350590</v>
+        <v>89604246</v>
       </c>
       <c r="F247" t="s">
         <v>24</v>
@@ -7803,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>37436</v>
+        <v>37602</v>
       </c>
       <c r="D248">
         <v>8741</v>
       </c>
       <c r="E248">
-        <v>72237539</v>
+        <v>72491906</v>
       </c>
       <c r="F248" t="s">
         <v>24</v>
@@ -7832,13 +7832,13 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>33705</v>
+        <v>34000</v>
       </c>
       <c r="D249">
-        <v>9180</v>
+        <v>9183</v>
       </c>
       <c r="E249">
-        <v>130733506</v>
+        <v>132448828</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
@@ -7890,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>34368</v>
+        <v>34594</v>
       </c>
       <c r="D251">
-        <v>8818</v>
+        <v>8819</v>
       </c>
       <c r="E251">
-        <v>68053067</v>
+        <v>68649740</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -7919,13 +7919,13 @@
         <v>10</v>
       </c>
       <c r="C252">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D252">
         <v>33</v>
       </c>
       <c r="E252">
-        <v>341086</v>
+        <v>347395</v>
       </c>
       <c r="F252" t="s">
         <v>25</v>
@@ -7948,13 +7948,13 @@
         <v>10</v>
       </c>
       <c r="C253">
-        <v>1593</v>
+        <v>1605</v>
       </c>
       <c r="D253">
         <v>441</v>
       </c>
       <c r="E253">
-        <v>2417329</v>
+        <v>2433755</v>
       </c>
       <c r="F253" t="s">
         <v>25</v>
@@ -7977,13 +7977,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>61792</v>
+        <v>62012</v>
       </c>
       <c r="D254">
         <v>23911</v>
       </c>
       <c r="E254">
-        <v>97774383</v>
+        <v>98151181</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -8006,13 +8006,13 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>136916</v>
+        <v>137865</v>
       </c>
       <c r="D255">
-        <v>32045</v>
+        <v>32048</v>
       </c>
       <c r="E255">
-        <v>386755250</v>
+        <v>389840451</v>
       </c>
       <c r="F255" t="s">
         <v>25</v>
@@ -8035,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>28625</v>
+        <v>28925</v>
       </c>
       <c r="D256">
         <v>5060</v>
       </c>
       <c r="E256">
-        <v>72250604</v>
+        <v>73053579</v>
       </c>
       <c r="F256" t="s">
         <v>25</v>
@@ -8064,13 +8064,13 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>167431</v>
+        <v>169567</v>
       </c>
       <c r="D257">
-        <v>20151</v>
+        <v>20155</v>
       </c>
       <c r="E257">
-        <v>991029189</v>
+        <v>1009412566</v>
       </c>
       <c r="F257" t="s">
         <v>25</v>
@@ -8093,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>14098</v>
+        <v>14221</v>
       </c>
       <c r="D258">
         <v>2972</v>
       </c>
       <c r="E258">
-        <v>36325564</v>
+        <v>36817137</v>
       </c>
       <c r="F258" t="s">
         <v>25</v>
@@ -8122,13 +8122,13 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>6043</v>
+        <v>6114</v>
       </c>
       <c r="D259">
         <v>1538</v>
       </c>
       <c r="E259">
-        <v>13561893</v>
+        <v>13822552</v>
       </c>
       <c r="F259" t="s">
         <v>25</v>
@@ -8151,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>22944</v>
+        <v>23100</v>
       </c>
       <c r="D260">
         <v>5854</v>
       </c>
       <c r="E260">
-        <v>47744276</v>
+        <v>48127267</v>
       </c>
       <c r="F260" t="s">
         <v>25</v>
@@ -8180,13 +8180,13 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>75023</v>
+        <v>75690</v>
       </c>
       <c r="D261">
-        <v>17130</v>
+        <v>17134</v>
       </c>
       <c r="E261">
-        <v>215863410</v>
+        <v>218869822</v>
       </c>
       <c r="F261" t="s">
         <v>25</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>36446</v>
+        <v>36757</v>
       </c>
       <c r="D262">
         <v>8091</v>
       </c>
       <c r="E262">
-        <v>105319416</v>
+        <v>106367565</v>
       </c>
       <c r="F262" t="s">
         <v>25</v>
@@ -8267,13 +8267,13 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>45056</v>
+        <v>45456</v>
       </c>
       <c r="D264">
         <v>7753</v>
       </c>
       <c r="E264">
-        <v>78139880</v>
+        <v>79021688</v>
       </c>
       <c r="F264" t="s">
         <v>25</v>
@@ -8296,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>42972</v>
+        <v>43066</v>
       </c>
       <c r="D265">
         <v>17108</v>
       </c>
       <c r="E265">
-        <v>57270424</v>
+        <v>57402568</v>
       </c>
       <c r="F265" t="s">
         <v>25</v>
@@ -8325,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>65456</v>
+        <v>66146</v>
       </c>
       <c r="D266">
-        <v>9008</v>
+        <v>9010</v>
       </c>
       <c r="E266">
-        <v>196564254</v>
+        <v>199796947</v>
       </c>
       <c r="F266" t="s">
         <v>25</v>
@@ -8354,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>83052</v>
+        <v>83408</v>
       </c>
       <c r="D267">
-        <v>20020</v>
+        <v>20021</v>
       </c>
       <c r="E267">
-        <v>152542447</v>
+        <v>153164463</v>
       </c>
       <c r="F267" t="s">
         <v>25</v>
@@ -8383,13 +8383,13 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>30792</v>
+        <v>31013</v>
       </c>
       <c r="D268">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="E268">
-        <v>82845031</v>
+        <v>83829695</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -8441,13 +8441,13 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>38374</v>
+        <v>38628</v>
       </c>
       <c r="D270">
-        <v>9504</v>
+        <v>9505</v>
       </c>
       <c r="E270">
-        <v>75641811</v>
+        <v>76169886</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -8470,13 +8470,13 @@
         <v>10</v>
       </c>
       <c r="C271">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D271">
         <v>63</v>
       </c>
       <c r="E271">
-        <v>642482</v>
+        <v>651030</v>
       </c>
       <c r="F271" t="s">
         <v>26</v>
@@ -8499,13 +8499,13 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="D272">
         <v>352</v>
       </c>
       <c r="E272">
-        <v>2281825</v>
+        <v>2302625</v>
       </c>
       <c r="F272" t="s">
         <v>26</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>87626</v>
+        <v>88082</v>
       </c>
       <c r="D273">
         <v>29709</v>
       </c>
       <c r="E273">
-        <v>136489927</v>
+        <v>137221434</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -8557,13 +8557,13 @@
         <v>10</v>
       </c>
       <c r="C274">
-        <v>162809</v>
+        <v>164070</v>
       </c>
       <c r="D274">
-        <v>35650</v>
+        <v>35653</v>
       </c>
       <c r="E274">
-        <v>430994049</v>
+        <v>434328309</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -8586,13 +8586,13 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>36747</v>
+        <v>37225</v>
       </c>
       <c r="D275">
         <v>6050</v>
       </c>
       <c r="E275">
-        <v>90713470</v>
+        <v>92098076</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -8615,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C276">
-        <v>199951</v>
+        <v>202320</v>
       </c>
       <c r="D276">
         <v>23262</v>
       </c>
       <c r="E276">
-        <v>1130694839</v>
+        <v>1150436152</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -8644,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>17942</v>
+        <v>18111</v>
       </c>
       <c r="D277">
         <v>3664</v>
       </c>
       <c r="E277">
-        <v>39097311</v>
+        <v>39639742</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -8673,13 +8673,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>6518</v>
+        <v>6586</v>
       </c>
       <c r="D278">
         <v>1607</v>
       </c>
       <c r="E278">
-        <v>12463744</v>
+        <v>12674019</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -8702,13 +8702,13 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>28219</v>
+        <v>28461</v>
       </c>
       <c r="D279">
-        <v>6555</v>
+        <v>6557</v>
       </c>
       <c r="E279">
-        <v>55546880</v>
+        <v>56013120</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>90530</v>
+        <v>91275</v>
       </c>
       <c r="D280">
-        <v>19678</v>
+        <v>19680</v>
       </c>
       <c r="E280">
-        <v>264299478</v>
+        <v>267745977</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -8760,13 +8760,13 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>41140</v>
+        <v>41475</v>
       </c>
       <c r="D281">
-        <v>8944</v>
+        <v>8945</v>
       </c>
       <c r="E281">
-        <v>122407972</v>
+        <v>123434702</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -8818,13 +8818,13 @@
         <v>10</v>
       </c>
       <c r="C283">
-        <v>57531</v>
+        <v>58018</v>
       </c>
       <c r="D283">
-        <v>9852</v>
+        <v>9853</v>
       </c>
       <c r="E283">
-        <v>96810130</v>
+        <v>97706221</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -8847,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>48085</v>
+        <v>48218</v>
       </c>
       <c r="D284">
-        <v>19337</v>
+        <v>19338</v>
       </c>
       <c r="E284">
-        <v>64574922</v>
+        <v>64739252</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -8876,13 +8876,13 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>78574</v>
+        <v>79317</v>
       </c>
       <c r="D285">
-        <v>10268</v>
+        <v>10270</v>
       </c>
       <c r="E285">
-        <v>232148265</v>
+        <v>235638287</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -8905,13 +8905,13 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>88473</v>
+        <v>88833</v>
       </c>
       <c r="D286">
         <v>20274</v>
       </c>
       <c r="E286">
-        <v>157812210</v>
+        <v>158420495</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>8133</v>
+        <v>8178</v>
       </c>
       <c r="D287">
         <v>2442</v>
       </c>
       <c r="E287">
-        <v>23488831</v>
+        <v>23689129</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -8992,13 +8992,13 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>15120</v>
+        <v>15216</v>
       </c>
       <c r="D289">
         <v>4105</v>
       </c>
       <c r="E289">
-        <v>31370983</v>
+        <v>31723584</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -9050,13 +9050,13 @@
         <v>10</v>
       </c>
       <c r="C291">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D291">
         <v>274</v>
       </c>
       <c r="E291">
-        <v>1462898</v>
+        <v>1466310</v>
       </c>
       <c r="F291" t="s">
         <v>27</v>
@@ -9079,13 +9079,13 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>23863</v>
+        <v>23927</v>
       </c>
       <c r="D292">
         <v>10123</v>
       </c>
       <c r="E292">
-        <v>37705081</v>
+        <v>37796269</v>
       </c>
       <c r="F292" t="s">
         <v>27</v>
@@ -9108,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>59797</v>
+        <v>60205</v>
       </c>
       <c r="D293">
         <v>14516</v>
       </c>
       <c r="E293">
-        <v>180799115</v>
+        <v>182950068</v>
       </c>
       <c r="F293" t="s">
         <v>27</v>
@@ -9137,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>14789</v>
+        <v>14922</v>
       </c>
       <c r="D294">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="E294">
-        <v>38573118</v>
+        <v>39041762</v>
       </c>
       <c r="F294" t="s">
         <v>27</v>
@@ -9166,13 +9166,13 @@
         <v>10</v>
       </c>
       <c r="C295">
-        <v>83190</v>
+        <v>84216</v>
       </c>
       <c r="D295">
         <v>9873</v>
       </c>
       <c r="E295">
-        <v>515125803</v>
+        <v>524664972</v>
       </c>
       <c r="F295" t="s">
         <v>27</v>
@@ -9195,13 +9195,13 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>8058</v>
+        <v>8134</v>
       </c>
       <c r="D296">
         <v>1674</v>
       </c>
       <c r="E296">
-        <v>19065057</v>
+        <v>19278835</v>
       </c>
       <c r="F296" t="s">
         <v>27</v>
@@ -9224,13 +9224,13 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3635</v>
+        <v>3668</v>
       </c>
       <c r="D297">
         <v>966</v>
       </c>
       <c r="E297">
-        <v>7431234</v>
+        <v>7491468</v>
       </c>
       <c r="F297" t="s">
         <v>27</v>
@@ -9253,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>11626</v>
+        <v>11724</v>
       </c>
       <c r="D298">
         <v>2955</v>
       </c>
       <c r="E298">
-        <v>23221205</v>
+        <v>23409866</v>
       </c>
       <c r="F298" t="s">
         <v>27</v>
@@ -9282,13 +9282,13 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>40804</v>
+        <v>41119</v>
       </c>
       <c r="D299">
-        <v>9301</v>
+        <v>9303</v>
       </c>
       <c r="E299">
-        <v>131449385</v>
+        <v>132731729</v>
       </c>
       <c r="F299" t="s">
         <v>27</v>
@@ -9311,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>14568</v>
+        <v>14707</v>
       </c>
       <c r="D300">
         <v>3335</v>
       </c>
       <c r="E300">
-        <v>61358542</v>
+        <v>61899933</v>
       </c>
       <c r="F300" t="s">
         <v>27</v>
@@ -9340,13 +9340,13 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <v>18872</v>
+        <v>19023</v>
       </c>
       <c r="D301">
         <v>3594</v>
       </c>
       <c r="E301">
-        <v>35196992</v>
+        <v>35511263</v>
       </c>
       <c r="F301" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>23680</v>
+        <v>23735</v>
       </c>
       <c r="D302">
         <v>9605</v>
       </c>
       <c r="E302">
-        <v>31219442</v>
+        <v>31288891</v>
       </c>
       <c r="F302" t="s">
         <v>27</v>
@@ -9398,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>36631</v>
+        <v>36976</v>
       </c>
       <c r="D303">
-        <v>5176</v>
+        <v>5177</v>
       </c>
       <c r="E303">
-        <v>119219933</v>
+        <v>120833416</v>
       </c>
       <c r="F303" t="s">
         <v>27</v>
@@ -9427,13 +9427,13 @@
         <v>10</v>
       </c>
       <c r="C304">
-        <v>42323</v>
+        <v>42452</v>
       </c>
       <c r="D304">
         <v>10313</v>
       </c>
       <c r="E304">
-        <v>84529915</v>
+        <v>84777394</v>
       </c>
       <c r="F304" t="s">
         <v>27</v>
@@ -9456,13 +9456,13 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>13865</v>
+        <v>13990</v>
       </c>
       <c r="D305">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="E305">
-        <v>44063640</v>
+        <v>44705273</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -9514,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>38083</v>
+        <v>38382</v>
       </c>
       <c r="D307">
         <v>8893</v>
       </c>
       <c r="E307">
-        <v>87741072</v>
+        <v>88494116</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -9543,13 +9543,13 @@
         <v>10</v>
       </c>
       <c r="C308">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D308">
         <v>48</v>
       </c>
       <c r="E308">
-        <v>410101</v>
+        <v>423101</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -9572,13 +9572,13 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D309">
         <v>177</v>
       </c>
       <c r="E309">
-        <v>1083609</v>
+        <v>1086587</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -9601,13 +9601,13 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>81393</v>
+        <v>81824</v>
       </c>
       <c r="D310">
-        <v>26070</v>
+        <v>26073</v>
       </c>
       <c r="E310">
-        <v>132128919</v>
+        <v>132861545</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -9630,13 +9630,13 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>183829</v>
+        <v>185390</v>
       </c>
       <c r="D311">
-        <v>37584</v>
+        <v>37589</v>
       </c>
       <c r="E311">
-        <v>543256514</v>
+        <v>548090968</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -9659,13 +9659,13 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>69497</v>
+        <v>70499</v>
       </c>
       <c r="D312">
         <v>9319</v>
       </c>
       <c r="E312">
-        <v>184020995</v>
+        <v>187312238</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>203511</v>
+        <v>205846</v>
       </c>
       <c r="D313">
-        <v>23213</v>
+        <v>23215</v>
       </c>
       <c r="E313">
-        <v>1272235093</v>
+        <v>1293427955</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>19631</v>
+        <v>19831</v>
       </c>
       <c r="D314">
         <v>3837</v>
       </c>
       <c r="E314">
-        <v>47494683</v>
+        <v>48130140</v>
       </c>
       <c r="F314" t="s">
         <v>28</v>
@@ -9746,13 +9746,13 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>7895</v>
+        <v>7979</v>
       </c>
       <c r="D315">
         <v>1771</v>
       </c>
       <c r="E315">
-        <v>16325661</v>
+        <v>16512616</v>
       </c>
       <c r="F315" t="s">
         <v>28</v>
@@ -9775,13 +9775,13 @@
         <v>10</v>
       </c>
       <c r="C316">
-        <v>37537</v>
+        <v>37872</v>
       </c>
       <c r="D316">
-        <v>8068</v>
+        <v>8069</v>
       </c>
       <c r="E316">
-        <v>83446266</v>
+        <v>84291656</v>
       </c>
       <c r="F316" t="s">
         <v>28</v>
@@ -9804,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="C317">
-        <v>98234</v>
+        <v>99118</v>
       </c>
       <c r="D317">
-        <v>21105</v>
+        <v>21110</v>
       </c>
       <c r="E317">
-        <v>281019903</v>
+        <v>284455309</v>
       </c>
       <c r="F317" t="s">
         <v>28</v>
@@ -9833,13 +9833,13 @@
         <v>10</v>
       </c>
       <c r="C318">
-        <v>54559</v>
+        <v>55093</v>
       </c>
       <c r="D318">
-        <v>10816</v>
+        <v>10818</v>
       </c>
       <c r="E318">
-        <v>185264539</v>
+        <v>187874887</v>
       </c>
       <c r="F318" t="s">
         <v>28</v>
@@ -9891,13 +9891,13 @@
         <v>10</v>
       </c>
       <c r="C320">
-        <v>63524</v>
+        <v>64078</v>
       </c>
       <c r="D320">
         <v>10238</v>
       </c>
       <c r="E320">
-        <v>117909933</v>
+        <v>119035736</v>
       </c>
       <c r="F320" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>10</v>
       </c>
       <c r="C321">
-        <v>44488</v>
+        <v>44618</v>
       </c>
       <c r="D321">
         <v>17367</v>
       </c>
       <c r="E321">
-        <v>59551257</v>
+        <v>59711335</v>
       </c>
       <c r="F321" t="s">
         <v>28</v>
@@ -9949,13 +9949,13 @@
         <v>10</v>
       </c>
       <c r="C322">
-        <v>74160</v>
+        <v>74856</v>
       </c>
       <c r="D322">
         <v>9573</v>
       </c>
       <c r="E322">
-        <v>229885509</v>
+        <v>232894424</v>
       </c>
       <c r="F322" t="s">
         <v>28</v>
@@ -9978,13 +9978,13 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>92006</v>
+        <v>92488</v>
       </c>
       <c r="D323">
         <v>19852</v>
       </c>
       <c r="E323">
-        <v>173695267</v>
+        <v>174580569</v>
       </c>
       <c r="F323" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>26927</v>
+        <v>26975</v>
       </c>
       <c r="D2">
         <v>7507</v>
       </c>
       <c r="E2">
-        <v>56723089</v>
+        <v>56915042</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>45073</v>
+        <v>45126</v>
       </c>
       <c r="D4">
         <v>11473</v>
       </c>
       <c r="E4">
-        <v>109183915</v>
+        <v>109286501</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D6">
         <v>564</v>
       </c>
       <c r="E6">
-        <v>2784055</v>
+        <v>2787487</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>93336</v>
+        <v>93449</v>
       </c>
       <c r="D7">
-        <v>32172</v>
+        <v>32176</v>
       </c>
       <c r="E7">
-        <v>154579509</v>
+        <v>154947894</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>175958</v>
+        <v>176169</v>
       </c>
       <c r="D8">
-        <v>39977</v>
+        <v>39978</v>
       </c>
       <c r="E8">
-        <v>601769348</v>
+        <v>602375323</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>65211</v>
+        <v>65317</v>
       </c>
       <c r="D9">
         <v>9981</v>
       </c>
       <c r="E9">
-        <v>174445375</v>
+        <v>174738101</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>255434</v>
+        <v>255852</v>
       </c>
       <c r="D10">
         <v>29252</v>
       </c>
       <c r="E10">
-        <v>1638157878</v>
+        <v>1641759878</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>23545</v>
+        <v>23572</v>
       </c>
       <c r="D11">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="E11">
-        <v>57371029</v>
+        <v>57440328</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -959,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8828</v>
+        <v>8841</v>
       </c>
       <c r="D12">
         <v>2097</v>
       </c>
       <c r="E12">
-        <v>18686242</v>
+        <v>18705466</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>36597</v>
+        <v>36641</v>
       </c>
       <c r="D13">
         <v>8420</v>
       </c>
       <c r="E13">
-        <v>90763047</v>
+        <v>90842760</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>113426</v>
+        <v>113563</v>
       </c>
       <c r="D14">
         <v>25156</v>
       </c>
       <c r="E14">
-        <v>352327703</v>
+        <v>352833008</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>53644</v>
+        <v>53740</v>
       </c>
       <c r="D15">
-        <v>11249</v>
+        <v>11250</v>
       </c>
       <c r="E15">
-        <v>193505098</v>
+        <v>193720088</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>128186</v>
+        <v>128382</v>
       </c>
       <c r="D17">
-        <v>19528</v>
+        <v>19529</v>
       </c>
       <c r="E17">
-        <v>280765283</v>
+        <v>281065065</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>60270</v>
+        <v>60307</v>
       </c>
       <c r="D18">
         <v>23686</v>
       </c>
       <c r="E18">
-        <v>82661468</v>
+        <v>82704493</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>100533</v>
+        <v>100680</v>
       </c>
       <c r="D19">
-        <v>13420</v>
+        <v>13422</v>
       </c>
       <c r="E19">
-        <v>312376999</v>
+        <v>312943816</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1191,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>105681</v>
+        <v>105745</v>
       </c>
       <c r="D20">
         <v>24235</v>
       </c>
       <c r="E20">
-        <v>216133900</v>
+        <v>216207584</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>9520</v>
+        <v>9537</v>
       </c>
       <c r="D21">
         <v>2890</v>
       </c>
       <c r="E21">
-        <v>32430053</v>
+        <v>32476944</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>12015</v>
+        <v>12027</v>
       </c>
       <c r="D23">
         <v>3237</v>
       </c>
       <c r="E23">
-        <v>24515714</v>
+        <v>24530021</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>21226</v>
+        <v>21243</v>
       </c>
       <c r="D26">
         <v>8045</v>
       </c>
       <c r="E26">
-        <v>33414366</v>
+        <v>33439513</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1394,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>51139</v>
+        <v>51199</v>
       </c>
       <c r="D27">
-        <v>12283</v>
+        <v>12284</v>
       </c>
       <c r="E27">
-        <v>142626294</v>
+        <v>142791754</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6900</v>
+        <v>6905</v>
       </c>
       <c r="D28">
         <v>1533</v>
       </c>
       <c r="E28">
-        <v>18661026</v>
+        <v>18669341</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1452,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>71474</v>
+        <v>71586</v>
       </c>
       <c r="D29">
-        <v>8133</v>
+        <v>8135</v>
       </c>
       <c r="E29">
-        <v>406929613</v>
+        <v>407800959</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>4173</v>
+        <v>4176</v>
       </c>
       <c r="D30">
         <v>856</v>
       </c>
       <c r="E30">
-        <v>10192376</v>
+        <v>10199373</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1510,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D31">
         <v>454</v>
       </c>
       <c r="E31">
-        <v>3262584</v>
+        <v>3264084</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>6848</v>
+        <v>6863</v>
       </c>
       <c r="D32">
         <v>1711</v>
       </c>
       <c r="E32">
-        <v>12829522</v>
+        <v>12924324</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>21447</v>
+        <v>21467</v>
       </c>
       <c r="D33">
         <v>4892</v>
       </c>
       <c r="E33">
-        <v>68297802</v>
+        <v>68350467</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10441</v>
+        <v>10452</v>
       </c>
       <c r="D34">
         <v>2280</v>
       </c>
       <c r="E34">
-        <v>33664287</v>
+        <v>33691219</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>15949</v>
+        <v>15974</v>
       </c>
       <c r="D36">
         <v>2772</v>
       </c>
       <c r="E36">
-        <v>26787309</v>
+        <v>26826330</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>13111</v>
+        <v>13115</v>
       </c>
       <c r="D37">
         <v>5281</v>
       </c>
       <c r="E37">
-        <v>17383082</v>
+        <v>17386741</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1713,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>25016</v>
+        <v>25047</v>
       </c>
       <c r="D38">
         <v>3247</v>
       </c>
       <c r="E38">
-        <v>76386681</v>
+        <v>76465867</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>31142</v>
+        <v>31165</v>
       </c>
       <c r="D39">
         <v>7342</v>
       </c>
       <c r="E39">
-        <v>61376315</v>
+        <v>61428359</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>6083</v>
+        <v>6090</v>
       </c>
       <c r="D40">
         <v>1865</v>
       </c>
       <c r="E40">
-        <v>15087757</v>
+        <v>15107730</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>16274</v>
+        <v>16301</v>
       </c>
       <c r="D42">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E42">
-        <v>31194711</v>
+        <v>31223956</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1916,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>21236</v>
+        <v>21258</v>
       </c>
       <c r="D45">
         <v>9066</v>
       </c>
       <c r="E45">
-        <v>32805004</v>
+        <v>32830542</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>54607</v>
+        <v>54675</v>
       </c>
       <c r="D46">
         <v>13266</v>
       </c>
       <c r="E46">
-        <v>167572689</v>
+        <v>167689015</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>9809</v>
+        <v>9833</v>
       </c>
       <c r="D47">
         <v>1862</v>
       </c>
       <c r="E47">
-        <v>26513067</v>
+        <v>26573742</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>97148</v>
+        <v>97286</v>
       </c>
       <c r="D48">
         <v>11268</v>
       </c>
       <c r="E48">
-        <v>599741459</v>
+        <v>600886465</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2032,13 +2032,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>7219</v>
+        <v>7233</v>
       </c>
       <c r="D49">
         <v>1434</v>
       </c>
       <c r="E49">
-        <v>19421149</v>
+        <v>19467324</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2061,13 +2061,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="D50">
         <v>623</v>
       </c>
       <c r="E50">
-        <v>6013224</v>
+        <v>6017724</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>9092</v>
+        <v>9104</v>
       </c>
       <c r="D51">
         <v>2425</v>
       </c>
       <c r="E51">
-        <v>18648756</v>
+        <v>18667912</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2119,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>32383</v>
+        <v>32416</v>
       </c>
       <c r="D52">
         <v>7453</v>
       </c>
       <c r="E52">
-        <v>108435325</v>
+        <v>108541420</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>12546</v>
+        <v>12558</v>
       </c>
       <c r="D53">
         <v>2941</v>
       </c>
       <c r="E53">
-        <v>43870701</v>
+        <v>43896395</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>17063</v>
+        <v>17094</v>
       </c>
       <c r="D54">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E54">
-        <v>31340263</v>
+        <v>31403890</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2206,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>21286</v>
+        <v>21302</v>
       </c>
       <c r="D55">
         <v>8867</v>
       </c>
       <c r="E55">
-        <v>28876555</v>
+        <v>28892547</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2235,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>30715</v>
+        <v>30768</v>
       </c>
       <c r="D56">
         <v>4408</v>
       </c>
       <c r="E56">
-        <v>99119123</v>
+        <v>99274588</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>34773</v>
+        <v>34793</v>
       </c>
       <c r="D57">
         <v>8563</v>
       </c>
       <c r="E57">
-        <v>70232863</v>
+        <v>70256425</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -2293,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>6540</v>
+        <v>6550</v>
       </c>
       <c r="D58">
         <v>1814</v>
       </c>
       <c r="E58">
-        <v>24234346</v>
+        <v>24268489</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2322,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10253</v>
+        <v>10273</v>
       </c>
       <c r="D59">
         <v>2666</v>
       </c>
       <c r="E59">
-        <v>20919860</v>
+        <v>20937957</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>20145</v>
+        <v>20171</v>
       </c>
       <c r="D62">
-        <v>7729</v>
+        <v>7731</v>
       </c>
       <c r="E62">
-        <v>32150520</v>
+        <v>32185913</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>39889</v>
+        <v>39936</v>
       </c>
       <c r="D63">
-        <v>9887</v>
+        <v>9888</v>
       </c>
       <c r="E63">
-        <v>110723127</v>
+        <v>110804671</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2467,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>10008</v>
+        <v>10028</v>
       </c>
       <c r="D64">
         <v>1945</v>
       </c>
       <c r="E64">
-        <v>23639451</v>
+        <v>23703600</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>56464</v>
+        <v>56548</v>
       </c>
       <c r="D65">
         <v>6566</v>
       </c>
       <c r="E65">
-        <v>317885313</v>
+        <v>318467583</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>4596</v>
+        <v>4604</v>
       </c>
       <c r="D66">
         <v>963</v>
       </c>
       <c r="E66">
-        <v>12568295</v>
+        <v>12586382</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="D67">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E67">
-        <v>3582203</v>
+        <v>3585203</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6853</v>
+        <v>6863</v>
       </c>
       <c r="D68">
         <v>1672</v>
       </c>
       <c r="E68">
-        <v>13401019</v>
+        <v>13417145</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>19787</v>
+        <v>19809</v>
       </c>
       <c r="D69">
         <v>4479</v>
       </c>
       <c r="E69">
-        <v>58344402</v>
+        <v>58421009</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2641,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>10223</v>
+        <v>10236</v>
       </c>
       <c r="D70">
         <v>2291</v>
       </c>
       <c r="E70">
-        <v>31834042</v>
+        <v>31873489</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>12116</v>
+        <v>12137</v>
       </c>
       <c r="D71">
         <v>2297</v>
       </c>
       <c r="E71">
-        <v>22687501</v>
+        <v>22716048</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2699,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>11136</v>
+        <v>11146</v>
       </c>
       <c r="D72">
         <v>4526</v>
       </c>
       <c r="E72">
-        <v>14628998</v>
+        <v>14641270</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>22420</v>
+        <v>22467</v>
       </c>
       <c r="D73">
         <v>3088</v>
       </c>
       <c r="E73">
-        <v>72079145</v>
+        <v>72202324</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>27514</v>
+        <v>27537</v>
       </c>
       <c r="D74">
         <v>6635</v>
       </c>
       <c r="E74">
-        <v>53542666</v>
+        <v>53586534</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>5148</v>
+        <v>5157</v>
       </c>
       <c r="D75">
         <v>1139</v>
       </c>
       <c r="E75">
-        <v>10611969</v>
+        <v>10623337</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>4325</v>
+        <v>4330</v>
       </c>
       <c r="D76">
         <v>911</v>
       </c>
       <c r="E76">
-        <v>9199137</v>
+        <v>9204120</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -2873,13 +2873,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>7920</v>
+        <v>7928</v>
       </c>
       <c r="D78">
         <v>2464</v>
       </c>
       <c r="E78">
-        <v>13187412</v>
+        <v>13199597</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -2902,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>13822</v>
+        <v>13829</v>
       </c>
       <c r="D79">
         <v>2636</v>
       </c>
       <c r="E79">
-        <v>54270857</v>
+        <v>54288706</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="D80">
         <v>404</v>
       </c>
       <c r="E80">
-        <v>10175851</v>
+        <v>10212741</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -2960,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>24864</v>
+        <v>24910</v>
       </c>
       <c r="D81">
         <v>2809</v>
       </c>
       <c r="E81">
-        <v>158792646</v>
+        <v>159173418</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D82">
         <v>192</v>
       </c>
       <c r="E82">
-        <v>3390152</v>
+        <v>3391436</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>4027</v>
+        <v>4029</v>
       </c>
       <c r="D84">
         <v>706</v>
       </c>
       <c r="E84">
-        <v>12188183</v>
+        <v>12200377</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -3076,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>10290</v>
+        <v>10298</v>
       </c>
       <c r="D85">
         <v>1845</v>
       </c>
       <c r="E85">
-        <v>45023545</v>
+        <v>45067496</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>5134</v>
+        <v>5144</v>
       </c>
       <c r="D86">
         <v>941</v>
       </c>
       <c r="E86">
-        <v>17142466</v>
+        <v>17211278</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -3134,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>2746</v>
+        <v>2753</v>
       </c>
       <c r="D87">
         <v>412</v>
       </c>
       <c r="E87">
-        <v>5263423</v>
+        <v>5289405</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -3163,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D88">
         <v>925</v>
       </c>
       <c r="E88">
-        <v>3229901</v>
+        <v>3231139</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -3192,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>4422</v>
+        <v>4426</v>
       </c>
       <c r="D89">
         <v>553</v>
       </c>
       <c r="E89">
-        <v>16251956</v>
+        <v>16255837</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3221,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>6128</v>
+        <v>6138</v>
       </c>
       <c r="D90">
         <v>1284</v>
       </c>
       <c r="E90">
-        <v>12260512</v>
+        <v>12273429</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -3250,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>48379</v>
+        <v>48427</v>
       </c>
       <c r="D91">
-        <v>12947</v>
+        <v>12949</v>
       </c>
       <c r="E91">
-        <v>252129312</v>
+        <v>252430254</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>22297</v>
+        <v>22324</v>
       </c>
       <c r="D93">
         <v>5754</v>
       </c>
       <c r="E93">
-        <v>69604094</v>
+        <v>69671789</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3337,13 +3337,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D94">
         <v>60</v>
       </c>
       <c r="E94">
-        <v>238778</v>
+        <v>240278</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -3366,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>2114</v>
+        <v>2121</v>
       </c>
       <c r="D95">
         <v>530</v>
       </c>
       <c r="E95">
-        <v>3172862</v>
+        <v>3181558</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>44627</v>
+        <v>44675</v>
       </c>
       <c r="D96">
         <v>15876</v>
       </c>
       <c r="E96">
-        <v>70768262</v>
+        <v>70838166</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3424,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>95872</v>
+        <v>95989</v>
       </c>
       <c r="D97">
-        <v>22632</v>
+        <v>22633</v>
       </c>
       <c r="E97">
-        <v>287934332</v>
+        <v>288169320</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>21226</v>
+        <v>21259</v>
       </c>
       <c r="D98">
         <v>3635</v>
       </c>
       <c r="E98">
-        <v>54624733</v>
+        <v>54700129</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -3482,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>124113</v>
+        <v>124294</v>
       </c>
       <c r="D99">
         <v>13977</v>
       </c>
       <c r="E99">
-        <v>803824759</v>
+        <v>805327344</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>9250</v>
+        <v>9261</v>
       </c>
       <c r="D100">
         <v>1924</v>
       </c>
       <c r="E100">
-        <v>22855094</v>
+        <v>22896474</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -3540,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>4157</v>
+        <v>4160</v>
       </c>
       <c r="D101">
         <v>1059</v>
       </c>
       <c r="E101">
-        <v>7436329</v>
+        <v>7440829</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -3569,13 +3569,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>13297</v>
+        <v>13314</v>
       </c>
       <c r="D102">
         <v>3090</v>
       </c>
       <c r="E102">
-        <v>27593666</v>
+        <v>27621652</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -3598,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>46501</v>
+        <v>46552</v>
       </c>
       <c r="D103">
         <v>10578</v>
       </c>
       <c r="E103">
-        <v>129334617</v>
+        <v>129422278</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>20689</v>
+        <v>20721</v>
       </c>
       <c r="D104">
         <v>4546</v>
       </c>
       <c r="E104">
-        <v>69600520</v>
+        <v>69659067</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>26003</v>
+        <v>26058</v>
       </c>
       <c r="D106">
         <v>4735</v>
       </c>
       <c r="E106">
-        <v>47603689</v>
+        <v>47690679</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>26767</v>
+        <v>26782</v>
       </c>
       <c r="D107">
         <v>11148</v>
       </c>
       <c r="E107">
-        <v>36598573</v>
+        <v>36624627</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>42338</v>
+        <v>42413</v>
       </c>
       <c r="D108">
         <v>5412</v>
       </c>
       <c r="E108">
-        <v>132588195</v>
+        <v>132843987</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>64430</v>
+        <v>64484</v>
       </c>
       <c r="D109">
         <v>14829</v>
       </c>
       <c r="E109">
-        <v>126232756</v>
+        <v>126301009</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>14866</v>
+        <v>14892</v>
       </c>
       <c r="D110">
         <v>2589</v>
       </c>
       <c r="E110">
-        <v>23304025</v>
+        <v>23345525</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>5115</v>
+        <v>5119</v>
       </c>
       <c r="D111">
         <v>1203</v>
       </c>
       <c r="E111">
-        <v>9769607</v>
+        <v>9784107</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>7000</v>
+        <v>7014</v>
       </c>
       <c r="D114">
         <v>2170</v>
       </c>
       <c r="E114">
-        <v>10786906</v>
+        <v>10805638</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -3946,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>14220</v>
+        <v>14238</v>
       </c>
       <c r="D115">
         <v>3229</v>
       </c>
       <c r="E115">
-        <v>27979027</v>
+        <v>28011080</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4468</v>
+        <v>4478</v>
       </c>
       <c r="D116">
         <v>736</v>
       </c>
       <c r="E116">
-        <v>10164790</v>
+        <v>10196755</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>15713</v>
+        <v>15745</v>
       </c>
       <c r="D117">
         <v>2086</v>
       </c>
       <c r="E117">
-        <v>41484738</v>
+        <v>41581764</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D118">
         <v>306</v>
       </c>
       <c r="E118">
-        <v>3791045</v>
+        <v>3795301</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -4091,13 +4091,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D120">
         <v>442</v>
       </c>
       <c r="E120">
-        <v>3743470</v>
+        <v>3747179</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -4120,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>5174</v>
+        <v>5184</v>
       </c>
       <c r="D121">
         <v>1265</v>
       </c>
       <c r="E121">
-        <v>9663752</v>
+        <v>9686918</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -4149,13 +4149,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>8181</v>
+        <v>8191</v>
       </c>
       <c r="D122">
         <v>1397</v>
       </c>
       <c r="E122">
-        <v>22675807</v>
+        <v>22725291</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="D123">
         <v>658</v>
       </c>
       <c r="E123">
-        <v>4184800</v>
+        <v>4186290</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -4207,13 +4207,13 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="D124">
         <v>1007</v>
       </c>
       <c r="E124">
-        <v>3787572</v>
+        <v>3790572</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>3656</v>
+        <v>3662</v>
       </c>
       <c r="D125">
         <v>489</v>
       </c>
       <c r="E125">
-        <v>9733137</v>
+        <v>9763195</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4265,13 +4265,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>4566</v>
+        <v>4574</v>
       </c>
       <c r="D126">
         <v>1134</v>
       </c>
       <c r="E126">
-        <v>6719620</v>
+        <v>6730038</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>6282</v>
+        <v>6283</v>
       </c>
       <c r="D127">
         <v>820</v>
       </c>
       <c r="E127">
-        <v>10425981</v>
+        <v>10427481</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2407</v>
+        <v>2414</v>
       </c>
       <c r="D129">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E129">
-        <v>5156737</v>
+        <v>5167237</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>6808</v>
+        <v>6811</v>
       </c>
       <c r="D131">
         <v>1088</v>
       </c>
       <c r="E131">
-        <v>15241481</v>
+        <v>15246831</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>5722</v>
+        <v>5729</v>
       </c>
       <c r="D132">
         <v>979</v>
       </c>
       <c r="E132">
-        <v>11983097</v>
+        <v>11993597</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -4468,13 +4468,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D133">
         <v>292</v>
       </c>
       <c r="E133">
-        <v>5375021</v>
+        <v>5377431</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="D134">
         <v>580</v>
       </c>
       <c r="E134">
-        <v>12824041</v>
+        <v>12825385</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4555,13 +4555,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D136">
         <v>44</v>
       </c>
       <c r="E136">
-        <v>580521</v>
+        <v>582021</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -4642,13 +4642,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="D139">
         <v>392</v>
       </c>
       <c r="E139">
-        <v>7507393</v>
+        <v>7515893</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -4729,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="D142">
         <v>135</v>
       </c>
       <c r="E142">
-        <v>2583958</v>
+        <v>2589816</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>7407</v>
+        <v>7423</v>
       </c>
       <c r="D144">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E144">
-        <v>23128960</v>
+        <v>23175844</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -4845,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>16523</v>
+        <v>16555</v>
       </c>
       <c r="D146">
         <v>4229</v>
       </c>
       <c r="E146">
-        <v>39653799</v>
+        <v>39901314</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -4903,13 +4903,13 @@
         <v>10</v>
       </c>
       <c r="C148">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D148">
         <v>242</v>
       </c>
       <c r="E148">
-        <v>1103424</v>
+        <v>1106424</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>36415</v>
+        <v>36451</v>
       </c>
       <c r="D149">
         <v>13023</v>
       </c>
       <c r="E149">
-        <v>58153052</v>
+        <v>58211219</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>92749</v>
+        <v>92876</v>
       </c>
       <c r="D150">
         <v>21097</v>
       </c>
       <c r="E150">
-        <v>261471791</v>
+        <v>261794892</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>34834</v>
+        <v>34912</v>
       </c>
       <c r="D151">
         <v>5275</v>
       </c>
       <c r="E151">
-        <v>75095757</v>
+        <v>75309964</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>114978</v>
+        <v>115140</v>
       </c>
       <c r="D152">
         <v>13400</v>
       </c>
       <c r="E152">
-        <v>675207434</v>
+        <v>676431431</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D153">
         <v>1956</v>
       </c>
       <c r="E153">
-        <v>22035933</v>
+        <v>22064795</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>4153</v>
+        <v>4163</v>
       </c>
       <c r="D154">
         <v>963</v>
       </c>
       <c r="E154">
-        <v>8007395</v>
+        <v>8028708</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>11412</v>
+        <v>11424</v>
       </c>
       <c r="D155">
         <v>2738</v>
       </c>
       <c r="E155">
-        <v>24484054</v>
+        <v>24502033</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>45324</v>
+        <v>45383</v>
       </c>
       <c r="D156">
         <v>9960</v>
       </c>
       <c r="E156">
-        <v>133181026</v>
+        <v>133332356</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>19927</v>
+        <v>19958</v>
       </c>
       <c r="D157">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E157">
-        <v>67916905</v>
+        <v>67979945</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>21214</v>
+        <v>21250</v>
       </c>
       <c r="D159">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E159">
-        <v>36455971</v>
+        <v>36510110</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>26824</v>
+        <v>26840</v>
       </c>
       <c r="D160">
-        <v>11386</v>
+        <v>11387</v>
       </c>
       <c r="E160">
-        <v>37048690</v>
+        <v>37063158</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>41317</v>
+        <v>41386</v>
       </c>
       <c r="D161">
         <v>5271</v>
       </c>
       <c r="E161">
-        <v>131916856</v>
+        <v>132208930</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>61062</v>
+        <v>61102</v>
       </c>
       <c r="D162">
         <v>14044</v>
       </c>
       <c r="E162">
-        <v>111209241</v>
+        <v>111261516</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>2227</v>
+        <v>2232</v>
       </c>
       <c r="D163">
         <v>704</v>
       </c>
       <c r="E163">
-        <v>4612672</v>
+        <v>4620239</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>47550</v>
+        <v>47622</v>
       </c>
       <c r="D164">
-        <v>10988</v>
+        <v>10989</v>
       </c>
       <c r="E164">
-        <v>135910865</v>
+        <v>136078784</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -5396,13 +5396,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D165">
         <v>154</v>
       </c>
       <c r="E165">
-        <v>2176024</v>
+        <v>2179024</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
@@ -5425,13 +5425,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D166">
         <v>423</v>
       </c>
       <c r="E166">
-        <v>2867401</v>
+        <v>2881556</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>100030</v>
+        <v>100171</v>
       </c>
       <c r="D167">
-        <v>32123</v>
+        <v>32125</v>
       </c>
       <c r="E167">
-        <v>184449319</v>
+        <v>184677289</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>269386</v>
+        <v>269830</v>
       </c>
       <c r="D168">
         <v>57724</v>
       </c>
       <c r="E168">
-        <v>1014754223</v>
+        <v>1016047601</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>520521</v>
+        <v>521904</v>
       </c>
       <c r="D169">
         <v>60733</v>
       </c>
       <c r="E169">
-        <v>1204020488</v>
+        <v>1207754198</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>322021</v>
+        <v>322674</v>
       </c>
       <c r="D170">
         <v>37497</v>
       </c>
       <c r="E170">
-        <v>2461974453</v>
+        <v>2468753569</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>105899</v>
+        <v>106085</v>
       </c>
       <c r="D171">
         <v>20121</v>
       </c>
       <c r="E171">
-        <v>365293419</v>
+        <v>365854955</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>20916</v>
+        <v>20944</v>
       </c>
       <c r="D172">
         <v>4317</v>
       </c>
       <c r="E172">
-        <v>59635793</v>
+        <v>59720310</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>52391</v>
+        <v>52470</v>
       </c>
       <c r="D173">
         <v>11542</v>
       </c>
       <c r="E173">
-        <v>139150596</v>
+        <v>139415930</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>336642</v>
+        <v>337236</v>
       </c>
       <c r="D174">
-        <v>69347</v>
+        <v>69351</v>
       </c>
       <c r="E174">
-        <v>891743518</v>
+        <v>893275923</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>112196</v>
+        <v>112385</v>
       </c>
       <c r="D175">
         <v>17645</v>
       </c>
       <c r="E175">
-        <v>592117789</v>
+        <v>593096200</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>91593</v>
+        <v>91770</v>
       </c>
       <c r="D177">
-        <v>16405</v>
+        <v>16406</v>
       </c>
       <c r="E177">
-        <v>162193122</v>
+        <v>162458777</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>74919</v>
+        <v>74977</v>
       </c>
       <c r="D178">
         <v>28746</v>
       </c>
       <c r="E178">
-        <v>102043521</v>
+        <v>102113587</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>212587</v>
+        <v>212997</v>
       </c>
       <c r="D179">
-        <v>28907</v>
+        <v>28908</v>
       </c>
       <c r="E179">
-        <v>687536420</v>
+        <v>688702297</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>135435</v>
+        <v>135605</v>
       </c>
       <c r="D180">
         <v>28772</v>
       </c>
       <c r="E180">
-        <v>314657762</v>
+        <v>314958998</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>7613</v>
+        <v>7622</v>
       </c>
       <c r="D181">
         <v>1790</v>
       </c>
       <c r="E181">
-        <v>10919424</v>
+        <v>10933357</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>6042</v>
+        <v>6051</v>
       </c>
       <c r="D182">
         <v>1653</v>
       </c>
       <c r="E182">
-        <v>10924248</v>
+        <v>10933556</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5918,13 +5918,13 @@
         <v>10</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D183">
         <v>4</v>
       </c>
       <c r="E183">
-        <v>17213</v>
+        <v>20213</v>
       </c>
       <c r="F183" t="s">
         <v>21</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>8988</v>
+        <v>8994</v>
       </c>
       <c r="D185">
         <v>3235</v>
       </c>
       <c r="E185">
-        <v>13710117</v>
+        <v>13718417</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>20178</v>
+        <v>20192</v>
       </c>
       <c r="D186">
         <v>5196</v>
       </c>
       <c r="E186">
-        <v>35830000</v>
+        <v>35859230</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
@@ -6034,13 +6034,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="D187">
         <v>784</v>
       </c>
       <c r="E187">
-        <v>6146897</v>
+        <v>6173517</v>
       </c>
       <c r="F187" t="s">
         <v>21</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>16208</v>
+        <v>16232</v>
       </c>
       <c r="D188">
         <v>2557</v>
       </c>
       <c r="E188">
-        <v>46627877</v>
+        <v>46698570</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6092,13 +6092,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D189">
         <v>398</v>
       </c>
       <c r="E189">
-        <v>5466896</v>
+        <v>5470759</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="D191">
         <v>633</v>
       </c>
       <c r="E191">
-        <v>3688544</v>
+        <v>3691096</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>6821</v>
+        <v>6825</v>
       </c>
       <c r="D192">
         <v>1840</v>
       </c>
       <c r="E192">
-        <v>14052106</v>
+        <v>14066056</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>4792</v>
+        <v>4796</v>
       </c>
       <c r="D193">
         <v>1029</v>
       </c>
       <c r="E193">
-        <v>18670058</v>
+        <v>18702335</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>5409</v>
+        <v>5415</v>
       </c>
       <c r="D194">
         <v>1244</v>
       </c>
       <c r="E194">
-        <v>7608440</v>
+        <v>7617257</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6266,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="C195">
-        <v>5736</v>
+        <v>5739</v>
       </c>
       <c r="D195">
         <v>2469</v>
       </c>
       <c r="E195">
-        <v>8104359</v>
+        <v>8108859</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>6286</v>
+        <v>6297</v>
       </c>
       <c r="D196">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E196">
-        <v>15526870</v>
+        <v>15540102</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>6721</v>
+        <v>6730</v>
       </c>
       <c r="D197">
         <v>1980</v>
       </c>
       <c r="E197">
-        <v>9031004</v>
+        <v>9044212</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>3720</v>
+        <v>3728</v>
       </c>
       <c r="D198">
         <v>777</v>
       </c>
       <c r="E198">
-        <v>5239158</v>
+        <v>5248620</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -6382,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="D199">
         <v>830</v>
       </c>
       <c r="E199">
-        <v>6778028</v>
+        <v>6779731</v>
       </c>
       <c r="F199" t="s">
         <v>22</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>4315</v>
+        <v>4318</v>
       </c>
       <c r="D202">
         <v>1381</v>
       </c>
       <c r="E202">
-        <v>7021537</v>
+        <v>7034535</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>10324</v>
+        <v>10335</v>
       </c>
       <c r="D203">
         <v>2224</v>
       </c>
       <c r="E203">
-        <v>23457180</v>
+        <v>23493970</v>
       </c>
       <c r="F203" t="s">
         <v>22</v>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="D204">
         <v>715</v>
       </c>
       <c r="E204">
-        <v>9235822</v>
+        <v>9240487</v>
       </c>
       <c r="F204" t="s">
         <v>22</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>8283</v>
+        <v>8286</v>
       </c>
       <c r="D205">
         <v>1266</v>
       </c>
       <c r="E205">
-        <v>29330431</v>
+        <v>29349346</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D206">
         <v>229</v>
       </c>
       <c r="E206">
-        <v>2825741</v>
+        <v>2826933</v>
       </c>
       <c r="F206" t="s">
         <v>22</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>4552</v>
+        <v>4559</v>
       </c>
       <c r="D209">
         <v>1110</v>
       </c>
       <c r="E209">
-        <v>9637116</v>
+        <v>9647083</v>
       </c>
       <c r="F209" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>5206</v>
+        <v>5211</v>
       </c>
       <c r="D210">
         <v>940</v>
       </c>
       <c r="E210">
-        <v>13163901</v>
+        <v>13174855</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -6788,13 +6788,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="D213">
         <v>376</v>
       </c>
       <c r="E213">
-        <v>7296701</v>
+        <v>7314646</v>
       </c>
       <c r="F213" t="s">
         <v>22</v>
@@ -6817,13 +6817,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>5013</v>
+        <v>5019</v>
       </c>
       <c r="D214">
         <v>1062</v>
       </c>
       <c r="E214">
-        <v>8596702</v>
+        <v>8617284</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -6846,13 +6846,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>9052</v>
+        <v>9062</v>
       </c>
       <c r="D215">
         <v>1090</v>
       </c>
       <c r="E215">
-        <v>19741222</v>
+        <v>19755732</v>
       </c>
       <c r="F215" t="s">
         <v>23</v>
@@ -6933,13 +6933,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>4860</v>
+        <v>4865</v>
       </c>
       <c r="D218">
         <v>681</v>
       </c>
       <c r="E218">
-        <v>11822434</v>
+        <v>11832934</v>
       </c>
       <c r="F218" t="s">
         <v>23</v>
@@ -6962,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>22016</v>
+        <v>22053</v>
       </c>
       <c r="D219">
         <v>2788</v>
       </c>
       <c r="E219">
-        <v>51540586</v>
+        <v>51596856</v>
       </c>
       <c r="F219" t="s">
         <v>23</v>
@@ -6991,13 +6991,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>4446</v>
+        <v>4457</v>
       </c>
       <c r="D220">
         <v>521</v>
       </c>
       <c r="E220">
-        <v>11363160</v>
+        <v>11380360</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
@@ -7020,13 +7020,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="D221">
         <v>319</v>
       </c>
       <c r="E221">
-        <v>6735334</v>
+        <v>6736334</v>
       </c>
       <c r="F221" t="s">
         <v>23</v>
@@ -7165,13 +7165,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D226">
         <v>122</v>
       </c>
       <c r="E226">
-        <v>2529449</v>
+        <v>2532449</v>
       </c>
       <c r="F226" t="s">
         <v>23</v>
@@ -7194,13 +7194,13 @@
         <v>10</v>
       </c>
       <c r="C227">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D227">
         <v>75</v>
       </c>
       <c r="E227">
-        <v>1360906</v>
+        <v>1362406</v>
       </c>
       <c r="F227" t="s">
         <v>23</v>
@@ -7281,13 +7281,13 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D230">
         <v>112</v>
       </c>
       <c r="E230">
-        <v>1673011</v>
+        <v>1678308</v>
       </c>
       <c r="F230" t="s">
         <v>23</v>
@@ -7310,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>5847</v>
+        <v>5860</v>
       </c>
       <c r="D231">
         <v>1740</v>
       </c>
       <c r="E231">
-        <v>12522396</v>
+        <v>12556902</v>
       </c>
       <c r="F231" t="s">
         <v>24</v>
@@ -7368,13 +7368,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>11400</v>
+        <v>11411</v>
       </c>
       <c r="D233">
         <v>3011</v>
       </c>
       <c r="E233">
-        <v>23537665</v>
+        <v>23549372</v>
       </c>
       <c r="F233" t="s">
         <v>24</v>
@@ -7426,13 +7426,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D235">
         <v>156</v>
       </c>
       <c r="E235">
-        <v>650774</v>
+        <v>652274</v>
       </c>
       <c r="F235" t="s">
         <v>24</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>21642</v>
+        <v>21675</v>
       </c>
       <c r="D236">
         <v>8414</v>
       </c>
       <c r="E236">
-        <v>34778075</v>
+        <v>34828062</v>
       </c>
       <c r="F236" t="s">
         <v>24</v>
@@ -7484,13 +7484,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>56999</v>
+        <v>57066</v>
       </c>
       <c r="D237">
         <v>13450</v>
       </c>
       <c r="E237">
-        <v>163233667</v>
+        <v>163399901</v>
       </c>
       <c r="F237" t="s">
         <v>24</v>
@@ -7513,13 +7513,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>11231</v>
+        <v>11251</v>
       </c>
       <c r="D238">
         <v>2148</v>
       </c>
       <c r="E238">
-        <v>28822133</v>
+        <v>28879110</v>
       </c>
       <c r="F238" t="s">
         <v>24</v>
@@ -7542,13 +7542,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>78476</v>
+        <v>78587</v>
       </c>
       <c r="D239">
         <v>9329</v>
       </c>
       <c r="E239">
-        <v>475416268</v>
+        <v>476424653</v>
       </c>
       <c r="F239" t="s">
         <v>24</v>
@@ -7571,13 +7571,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>5088</v>
+        <v>5091</v>
       </c>
       <c r="D240">
         <v>1049</v>
       </c>
       <c r="E240">
-        <v>12961154</v>
+        <v>12964654</v>
       </c>
       <c r="F240" t="s">
         <v>24</v>
@@ -7600,13 +7600,13 @@
         <v>10</v>
       </c>
       <c r="C241">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="D241">
         <v>624</v>
       </c>
       <c r="E241">
-        <v>6295432</v>
+        <v>6301432</v>
       </c>
       <c r="F241" t="s">
         <v>24</v>
@@ -7629,13 +7629,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>8287</v>
+        <v>8297</v>
       </c>
       <c r="D242">
         <v>1982</v>
       </c>
       <c r="E242">
-        <v>18671007</v>
+        <v>18686496</v>
       </c>
       <c r="F242" t="s">
         <v>24</v>
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>26783</v>
+        <v>26815</v>
       </c>
       <c r="D243">
         <v>5914</v>
       </c>
       <c r="E243">
-        <v>85626010</v>
+        <v>85726142</v>
       </c>
       <c r="F243" t="s">
         <v>24</v>
@@ -7687,13 +7687,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>12404</v>
+        <v>12427</v>
       </c>
       <c r="D244">
         <v>2604</v>
       </c>
       <c r="E244">
-        <v>39427749</v>
+        <v>39484594</v>
       </c>
       <c r="F244" t="s">
         <v>24</v>
@@ -7716,13 +7716,13 @@
         <v>10</v>
       </c>
       <c r="C245">
-        <v>14671</v>
+        <v>14693</v>
       </c>
       <c r="D245">
         <v>2702</v>
       </c>
       <c r="E245">
-        <v>25844704</v>
+        <v>25866267</v>
       </c>
       <c r="F245" t="s">
         <v>24</v>
@@ -7745,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>13237</v>
+        <v>13244</v>
       </c>
       <c r="D246">
         <v>5419</v>
       </c>
       <c r="E246">
-        <v>17305120</v>
+        <v>17314043</v>
       </c>
       <c r="F246" t="s">
         <v>24</v>
@@ -7774,13 +7774,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>27143</v>
+        <v>27197</v>
       </c>
       <c r="D247">
         <v>3702</v>
       </c>
       <c r="E247">
-        <v>89604246</v>
+        <v>89763099</v>
       </c>
       <c r="F247" t="s">
         <v>24</v>
@@ -7803,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>37602</v>
+        <v>37634</v>
       </c>
       <c r="D248">
         <v>8741</v>
       </c>
       <c r="E248">
-        <v>72491906</v>
+        <v>72527504</v>
       </c>
       <c r="F248" t="s">
         <v>24</v>
@@ -7832,13 +7832,13 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>34000</v>
+        <v>34054</v>
       </c>
       <c r="D249">
-        <v>9183</v>
+        <v>9184</v>
       </c>
       <c r="E249">
-        <v>132448828</v>
+        <v>132875115</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
@@ -7890,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>34594</v>
+        <v>34641</v>
       </c>
       <c r="D251">
         <v>8819</v>
       </c>
       <c r="E251">
-        <v>68649740</v>
+        <v>68779083</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -7948,13 +7948,13 @@
         <v>10</v>
       </c>
       <c r="C253">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D253">
         <v>441</v>
       </c>
       <c r="E253">
-        <v>2433755</v>
+        <v>2434905</v>
       </c>
       <c r="F253" t="s">
         <v>25</v>
@@ -7977,13 +7977,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>62012</v>
+        <v>62080</v>
       </c>
       <c r="D254">
         <v>23911</v>
       </c>
       <c r="E254">
-        <v>98151181</v>
+        <v>98263268</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -8006,13 +8006,13 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>137865</v>
+        <v>138032</v>
       </c>
       <c r="D255">
         <v>32048</v>
       </c>
       <c r="E255">
-        <v>389840451</v>
+        <v>390150893</v>
       </c>
       <c r="F255" t="s">
         <v>25</v>
@@ -8035,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>28925</v>
+        <v>28970</v>
       </c>
       <c r="D256">
         <v>5060</v>
       </c>
       <c r="E256">
-        <v>73053579</v>
+        <v>73178988</v>
       </c>
       <c r="F256" t="s">
         <v>25</v>
@@ -8064,13 +8064,13 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>169567</v>
+        <v>169837</v>
       </c>
       <c r="D257">
         <v>20155</v>
       </c>
       <c r="E257">
-        <v>1009412566</v>
+        <v>1011500565</v>
       </c>
       <c r="F257" t="s">
         <v>25</v>
@@ -8093,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>14221</v>
+        <v>14233</v>
       </c>
       <c r="D258">
         <v>2972</v>
       </c>
       <c r="E258">
-        <v>36817137</v>
+        <v>36884021</v>
       </c>
       <c r="F258" t="s">
         <v>25</v>
@@ -8122,13 +8122,13 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>6114</v>
+        <v>6120</v>
       </c>
       <c r="D259">
         <v>1538</v>
       </c>
       <c r="E259">
-        <v>13822552</v>
+        <v>13839533</v>
       </c>
       <c r="F259" t="s">
         <v>25</v>
@@ -8151,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>23100</v>
+        <v>23126</v>
       </c>
       <c r="D260">
         <v>5854</v>
       </c>
       <c r="E260">
-        <v>48127267</v>
+        <v>48175500</v>
       </c>
       <c r="F260" t="s">
         <v>25</v>
@@ -8180,13 +8180,13 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>75690</v>
+        <v>75802</v>
       </c>
       <c r="D261">
-        <v>17134</v>
+        <v>17135</v>
       </c>
       <c r="E261">
-        <v>218869822</v>
+        <v>219460306</v>
       </c>
       <c r="F261" t="s">
         <v>25</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>36757</v>
+        <v>36808</v>
       </c>
       <c r="D262">
         <v>8091</v>
       </c>
       <c r="E262">
-        <v>106367565</v>
+        <v>106561504</v>
       </c>
       <c r="F262" t="s">
         <v>25</v>
@@ -8267,13 +8267,13 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>45456</v>
+        <v>45535</v>
       </c>
       <c r="D264">
         <v>7753</v>
       </c>
       <c r="E264">
-        <v>79021688</v>
+        <v>79145094</v>
       </c>
       <c r="F264" t="s">
         <v>25</v>
@@ -8296,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>43066</v>
+        <v>43102</v>
       </c>
       <c r="D265">
         <v>17108</v>
       </c>
       <c r="E265">
-        <v>57402568</v>
+        <v>57443677</v>
       </c>
       <c r="F265" t="s">
         <v>25</v>
@@ -8325,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>66146</v>
+        <v>66282</v>
       </c>
       <c r="D266">
-        <v>9010</v>
+        <v>9011</v>
       </c>
       <c r="E266">
-        <v>199796947</v>
+        <v>200116165</v>
       </c>
       <c r="F266" t="s">
         <v>25</v>
@@ -8354,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>83408</v>
+        <v>83485</v>
       </c>
       <c r="D267">
         <v>20021</v>
       </c>
       <c r="E267">
-        <v>153164463</v>
+        <v>153279647</v>
       </c>
       <c r="F267" t="s">
         <v>25</v>
@@ -8383,13 +8383,13 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>31013</v>
+        <v>31074</v>
       </c>
       <c r="D268">
         <v>8028</v>
       </c>
       <c r="E268">
-        <v>83829695</v>
+        <v>84026174</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -8441,13 +8441,13 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>38628</v>
+        <v>38684</v>
       </c>
       <c r="D270">
         <v>9505</v>
       </c>
       <c r="E270">
-        <v>76169886</v>
+        <v>76262693</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -8499,13 +8499,13 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D272">
         <v>352</v>
       </c>
       <c r="E272">
-        <v>2302625</v>
+        <v>2303334</v>
       </c>
       <c r="F272" t="s">
         <v>26</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>88082</v>
+        <v>88196</v>
       </c>
       <c r="D273">
-        <v>29709</v>
+        <v>29713</v>
       </c>
       <c r="E273">
-        <v>137221434</v>
+        <v>137385040</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -8557,13 +8557,13 @@
         <v>10</v>
       </c>
       <c r="C274">
-        <v>164070</v>
+        <v>164312</v>
       </c>
       <c r="D274">
         <v>35653</v>
       </c>
       <c r="E274">
-        <v>434328309</v>
+        <v>434746254</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -8586,13 +8586,13 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>37225</v>
+        <v>37308</v>
       </c>
       <c r="D275">
         <v>6050</v>
       </c>
       <c r="E275">
-        <v>92098076</v>
+        <v>92281101</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -8615,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C276">
-        <v>202320</v>
+        <v>202638</v>
       </c>
       <c r="D276">
         <v>23262</v>
       </c>
       <c r="E276">
-        <v>1150436152</v>
+        <v>1152636067</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -8644,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>18111</v>
+        <v>18137</v>
       </c>
       <c r="D277">
         <v>3664</v>
       </c>
       <c r="E277">
-        <v>39639742</v>
+        <v>39704095</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -8673,13 +8673,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>6586</v>
+        <v>6593</v>
       </c>
       <c r="D278">
         <v>1607</v>
       </c>
       <c r="E278">
-        <v>12674019</v>
+        <v>12683514</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -8702,13 +8702,13 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>28461</v>
+        <v>28493</v>
       </c>
       <c r="D279">
         <v>6557</v>
       </c>
       <c r="E279">
-        <v>56013120</v>
+        <v>56074176</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>91275</v>
+        <v>91414</v>
       </c>
       <c r="D280">
-        <v>19680</v>
+        <v>19681</v>
       </c>
       <c r="E280">
-        <v>267745977</v>
+        <v>268173346</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -8760,13 +8760,13 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>41475</v>
+        <v>41541</v>
       </c>
       <c r="D281">
         <v>8945</v>
       </c>
       <c r="E281">
-        <v>123434702</v>
+        <v>123604514</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -8818,13 +8818,13 @@
         <v>10</v>
       </c>
       <c r="C283">
-        <v>58018</v>
+        <v>58160</v>
       </c>
       <c r="D283">
         <v>9853</v>
       </c>
       <c r="E283">
-        <v>97706221</v>
+        <v>97915693</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -8847,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>48218</v>
+        <v>48252</v>
       </c>
       <c r="D284">
-        <v>19338</v>
+        <v>19339</v>
       </c>
       <c r="E284">
-        <v>64739252</v>
+        <v>64777818</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -8876,13 +8876,13 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>79317</v>
+        <v>79488</v>
       </c>
       <c r="D285">
         <v>10270</v>
       </c>
       <c r="E285">
-        <v>235638287</v>
+        <v>236044426</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -8905,13 +8905,13 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>88833</v>
+        <v>88906</v>
       </c>
       <c r="D286">
         <v>20274</v>
       </c>
       <c r="E286">
-        <v>158420495</v>
+        <v>158538746</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>8178</v>
+        <v>8189</v>
       </c>
       <c r="D287">
         <v>2442</v>
       </c>
       <c r="E287">
-        <v>23689129</v>
+        <v>23739324</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -8992,13 +8992,13 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>15216</v>
+        <v>15241</v>
       </c>
       <c r="D289">
         <v>4105</v>
       </c>
       <c r="E289">
-        <v>31723584</v>
+        <v>31757928</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -9079,13 +9079,13 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>23927</v>
+        <v>23953</v>
       </c>
       <c r="D292">
         <v>10123</v>
       </c>
       <c r="E292">
-        <v>37796269</v>
+        <v>37842943</v>
       </c>
       <c r="F292" t="s">
         <v>27</v>
@@ -9108,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>60205</v>
+        <v>60266</v>
       </c>
       <c r="D293">
         <v>14516</v>
       </c>
       <c r="E293">
-        <v>182950068</v>
+        <v>183105285</v>
       </c>
       <c r="F293" t="s">
         <v>27</v>
@@ -9137,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>14922</v>
+        <v>14953</v>
       </c>
       <c r="D294">
         <v>2491</v>
       </c>
       <c r="E294">
-        <v>39041762</v>
+        <v>39124103</v>
       </c>
       <c r="F294" t="s">
         <v>27</v>
@@ -9166,13 +9166,13 @@
         <v>10</v>
       </c>
       <c r="C295">
-        <v>84216</v>
+        <v>84347</v>
       </c>
       <c r="D295">
         <v>9873</v>
       </c>
       <c r="E295">
-        <v>524664972</v>
+        <v>525825194</v>
       </c>
       <c r="F295" t="s">
         <v>27</v>
@@ -9195,13 +9195,13 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>8134</v>
+        <v>8146</v>
       </c>
       <c r="D296">
         <v>1674</v>
       </c>
       <c r="E296">
-        <v>19278835</v>
+        <v>19293579</v>
       </c>
       <c r="F296" t="s">
         <v>27</v>
@@ -9224,13 +9224,13 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="D297">
         <v>966</v>
       </c>
       <c r="E297">
-        <v>7491468</v>
+        <v>7495968</v>
       </c>
       <c r="F297" t="s">
         <v>27</v>
@@ -9253,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>11724</v>
+        <v>11739</v>
       </c>
       <c r="D298">
         <v>2955</v>
       </c>
       <c r="E298">
-        <v>23409866</v>
+        <v>23428751</v>
       </c>
       <c r="F298" t="s">
         <v>27</v>
@@ -9282,13 +9282,13 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>41119</v>
+        <v>41174</v>
       </c>
       <c r="D299">
-        <v>9303</v>
+        <v>9304</v>
       </c>
       <c r="E299">
-        <v>132731729</v>
+        <v>132916714</v>
       </c>
       <c r="F299" t="s">
         <v>27</v>
@@ -9311,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>14707</v>
+        <v>14725</v>
       </c>
       <c r="D300">
         <v>3335</v>
       </c>
       <c r="E300">
-        <v>61899933</v>
+        <v>61943095</v>
       </c>
       <c r="F300" t="s">
         <v>27</v>
@@ -9340,13 +9340,13 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <v>19023</v>
+        <v>19061</v>
       </c>
       <c r="D301">
         <v>3594</v>
       </c>
       <c r="E301">
-        <v>35511263</v>
+        <v>35569787</v>
       </c>
       <c r="F301" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>23735</v>
+        <v>23749</v>
       </c>
       <c r="D302">
         <v>9605</v>
       </c>
       <c r="E302">
-        <v>31288891</v>
+        <v>31303696</v>
       </c>
       <c r="F302" t="s">
         <v>27</v>
@@ -9398,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>36976</v>
+        <v>37033</v>
       </c>
       <c r="D303">
         <v>5177</v>
       </c>
       <c r="E303">
-        <v>120833416</v>
+        <v>121005297</v>
       </c>
       <c r="F303" t="s">
         <v>27</v>
@@ -9427,13 +9427,13 @@
         <v>10</v>
       </c>
       <c r="C304">
-        <v>42452</v>
+        <v>42481</v>
       </c>
       <c r="D304">
         <v>10313</v>
       </c>
       <c r="E304">
-        <v>84777394</v>
+        <v>84821258</v>
       </c>
       <c r="F304" t="s">
         <v>27</v>
@@ -9456,13 +9456,13 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>13990</v>
+        <v>14012</v>
       </c>
       <c r="D305">
         <v>3598</v>
       </c>
       <c r="E305">
-        <v>44705273</v>
+        <v>44751353</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -9514,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>38382</v>
+        <v>38443</v>
       </c>
       <c r="D307">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="E307">
-        <v>88494116</v>
+        <v>88612948</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -9601,13 +9601,13 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>81824</v>
+        <v>81977</v>
       </c>
       <c r="D310">
-        <v>26073</v>
+        <v>26075</v>
       </c>
       <c r="E310">
-        <v>132861545</v>
+        <v>133105026</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -9630,13 +9630,13 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>185390</v>
+        <v>185716</v>
       </c>
       <c r="D311">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="E311">
-        <v>548090968</v>
+        <v>549029433</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -9659,13 +9659,13 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>70499</v>
+        <v>70654</v>
       </c>
       <c r="D312">
-        <v>9319</v>
+        <v>9320</v>
       </c>
       <c r="E312">
-        <v>187312238</v>
+        <v>187723637</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>205846</v>
+        <v>206166</v>
       </c>
       <c r="D313">
         <v>23215</v>
       </c>
       <c r="E313">
-        <v>1293427955</v>
+        <v>1296177976</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>19831</v>
+        <v>19855</v>
       </c>
       <c r="D314">
         <v>3837</v>
       </c>
       <c r="E314">
-        <v>48130140</v>
+        <v>48197257</v>
       </c>
       <c r="F314" t="s">
         <v>28</v>
@@ -9746,13 +9746,13 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>7979</v>
+        <v>7989</v>
       </c>
       <c r="D315">
         <v>1771</v>
       </c>
       <c r="E315">
-        <v>16512616</v>
+        <v>16536743</v>
       </c>
       <c r="F315" t="s">
         <v>28</v>
@@ -9775,13 +9775,13 @@
         <v>10</v>
       </c>
       <c r="C316">
-        <v>37872</v>
+        <v>37927</v>
       </c>
       <c r="D316">
         <v>8069</v>
       </c>
       <c r="E316">
-        <v>84291656</v>
+        <v>84402432</v>
       </c>
       <c r="F316" t="s">
         <v>28</v>
@@ -9804,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="C317">
-        <v>99118</v>
+        <v>99251</v>
       </c>
       <c r="D317">
         <v>21110</v>
       </c>
       <c r="E317">
-        <v>284455309</v>
+        <v>284764202</v>
       </c>
       <c r="F317" t="s">
         <v>28</v>
@@ -9833,13 +9833,13 @@
         <v>10</v>
       </c>
       <c r="C318">
-        <v>55093</v>
+        <v>55209</v>
       </c>
       <c r="D318">
         <v>10818</v>
       </c>
       <c r="E318">
-        <v>187874887</v>
+        <v>188387741</v>
       </c>
       <c r="F318" t="s">
         <v>28</v>
@@ -9891,13 +9891,13 @@
         <v>10</v>
       </c>
       <c r="C320">
-        <v>64078</v>
+        <v>64195</v>
       </c>
       <c r="D320">
         <v>10238</v>
       </c>
       <c r="E320">
-        <v>119035736</v>
+        <v>119193664</v>
       </c>
       <c r="F320" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>10</v>
       </c>
       <c r="C321">
-        <v>44618</v>
+        <v>44646</v>
       </c>
       <c r="D321">
-        <v>17367</v>
+        <v>17368</v>
       </c>
       <c r="E321">
-        <v>59711335</v>
+        <v>59743335</v>
       </c>
       <c r="F321" t="s">
         <v>28</v>
@@ -9949,13 +9949,13 @@
         <v>10</v>
       </c>
       <c r="C322">
-        <v>74856</v>
+        <v>74985</v>
       </c>
       <c r="D322">
-        <v>9573</v>
+        <v>9574</v>
       </c>
       <c r="E322">
-        <v>232894424</v>
+        <v>233353822</v>
       </c>
       <c r="F322" t="s">
         <v>28</v>
@@ -9978,13 +9978,13 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>92488</v>
+        <v>92594</v>
       </c>
       <c r="D323">
-        <v>19852</v>
+        <v>19854</v>
       </c>
       <c r="E323">
-        <v>174580569</v>
+        <v>174722101</v>
       </c>
       <c r="F323" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>26975</v>
+        <v>27069</v>
       </c>
       <c r="D2">
-        <v>7507</v>
+        <v>7508</v>
       </c>
       <c r="E2">
-        <v>56915042</v>
+        <v>57189711</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>45126</v>
+        <v>45224</v>
       </c>
       <c r="D4">
-        <v>11473</v>
+        <v>11475</v>
       </c>
       <c r="E4">
-        <v>109286501</v>
+        <v>110070760</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D6">
         <v>564</v>
       </c>
       <c r="E6">
-        <v>2787487</v>
+        <v>2788987</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>93449</v>
+        <v>93576</v>
       </c>
       <c r="D7">
-        <v>32176</v>
+        <v>32179</v>
       </c>
       <c r="E7">
-        <v>154947894</v>
+        <v>155246466</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>176169</v>
+        <v>176730</v>
       </c>
       <c r="D8">
-        <v>39978</v>
+        <v>39983</v>
       </c>
       <c r="E8">
-        <v>602375323</v>
+        <v>606437627</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>65317</v>
+        <v>65453</v>
       </c>
       <c r="D9">
-        <v>9981</v>
+        <v>9983</v>
       </c>
       <c r="E9">
-        <v>174738101</v>
+        <v>175439464</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>255852</v>
+        <v>256854</v>
       </c>
       <c r="D10">
-        <v>29252</v>
+        <v>29256</v>
       </c>
       <c r="E10">
-        <v>1641759878</v>
+        <v>1650376675</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>23572</v>
+        <v>23637</v>
       </c>
       <c r="D11">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="E11">
-        <v>57440328</v>
+        <v>57834539</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -959,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8841</v>
+        <v>8859</v>
       </c>
       <c r="D12">
         <v>2097</v>
       </c>
       <c r="E12">
-        <v>18705466</v>
+        <v>18746366</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>36641</v>
+        <v>36742</v>
       </c>
       <c r="D13">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="E13">
-        <v>90842760</v>
+        <v>91367080</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>113563</v>
+        <v>113897</v>
       </c>
       <c r="D14">
-        <v>25156</v>
+        <v>25162</v>
       </c>
       <c r="E14">
-        <v>352833008</v>
+        <v>354584978</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>53740</v>
+        <v>53878</v>
       </c>
       <c r="D15">
-        <v>11250</v>
+        <v>11254</v>
       </c>
       <c r="E15">
-        <v>193720088</v>
+        <v>195017650</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>128382</v>
+        <v>128798</v>
       </c>
       <c r="D17">
-        <v>19529</v>
+        <v>19531</v>
       </c>
       <c r="E17">
-        <v>281065065</v>
+        <v>282618424</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>60307</v>
+        <v>60346</v>
       </c>
       <c r="D18">
         <v>23686</v>
       </c>
       <c r="E18">
-        <v>82704493</v>
+        <v>82761873</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>100680</v>
+        <v>100974</v>
       </c>
       <c r="D19">
-        <v>13422</v>
+        <v>13424</v>
       </c>
       <c r="E19">
-        <v>312943816</v>
+        <v>314984096</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1191,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>105745</v>
+        <v>106031</v>
       </c>
       <c r="D20">
-        <v>24235</v>
+        <v>24241</v>
       </c>
       <c r="E20">
-        <v>216207584</v>
+        <v>217444491</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>9537</v>
+        <v>9562</v>
       </c>
       <c r="D21">
         <v>2890</v>
       </c>
       <c r="E21">
-        <v>32476944</v>
+        <v>32583856</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>12027</v>
+        <v>12054</v>
       </c>
       <c r="D23">
         <v>3237</v>
       </c>
       <c r="E23">
-        <v>24530021</v>
+        <v>24624537</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1336,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D25">
         <v>258</v>
       </c>
       <c r="E25">
-        <v>1491688</v>
+        <v>1494688</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>21243</v>
+        <v>21281</v>
       </c>
       <c r="D26">
-        <v>8045</v>
+        <v>8046</v>
       </c>
       <c r="E26">
-        <v>33439513</v>
+        <v>33519790</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1394,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>51199</v>
+        <v>51381</v>
       </c>
       <c r="D27">
-        <v>12284</v>
+        <v>12285</v>
       </c>
       <c r="E27">
-        <v>142791754</v>
+        <v>143583596</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6905</v>
+        <v>6917</v>
       </c>
       <c r="D28">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E28">
-        <v>18669341</v>
+        <v>18735683</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1452,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>71586</v>
+        <v>71972</v>
       </c>
       <c r="D29">
         <v>8135</v>
       </c>
       <c r="E29">
-        <v>407800959</v>
+        <v>410974769</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>4176</v>
+        <v>4191</v>
       </c>
       <c r="D30">
         <v>856</v>
       </c>
       <c r="E30">
-        <v>10199373</v>
+        <v>10284622</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1510,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D31">
         <v>454</v>
       </c>
       <c r="E31">
-        <v>3264084</v>
+        <v>3266056</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>6863</v>
+        <v>6872</v>
       </c>
       <c r="D32">
         <v>1711</v>
       </c>
       <c r="E32">
-        <v>12924324</v>
+        <v>12961191</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>21467</v>
+        <v>21530</v>
       </c>
       <c r="D33">
         <v>4892</v>
       </c>
       <c r="E33">
-        <v>68350467</v>
+        <v>68709422</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10452</v>
+        <v>10486</v>
       </c>
       <c r="D34">
         <v>2280</v>
       </c>
       <c r="E34">
-        <v>33691219</v>
+        <v>34026908</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>15974</v>
+        <v>16008</v>
       </c>
       <c r="D36">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E36">
-        <v>26826330</v>
+        <v>26900535</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>13115</v>
+        <v>13122</v>
       </c>
       <c r="D37">
         <v>5281</v>
       </c>
       <c r="E37">
-        <v>17386741</v>
+        <v>17396434</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1713,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>25047</v>
+        <v>25139</v>
       </c>
       <c r="D38">
         <v>3247</v>
       </c>
       <c r="E38">
-        <v>76465867</v>
+        <v>76882226</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>31165</v>
+        <v>31239</v>
       </c>
       <c r="D39">
         <v>7342</v>
       </c>
       <c r="E39">
-        <v>61428359</v>
+        <v>61614247</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>6090</v>
+        <v>6107</v>
       </c>
       <c r="D40">
         <v>1865</v>
       </c>
       <c r="E40">
-        <v>15107730</v>
+        <v>15213280</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>16301</v>
+        <v>16344</v>
       </c>
       <c r="D42">
         <v>4193</v>
       </c>
       <c r="E42">
-        <v>31223956</v>
+        <v>31395491</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1916,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>21258</v>
+        <v>21278</v>
       </c>
       <c r="D45">
         <v>9066</v>
       </c>
       <c r="E45">
-        <v>32830542</v>
+        <v>32893817</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>54675</v>
+        <v>54847</v>
       </c>
       <c r="D46">
-        <v>13266</v>
+        <v>13267</v>
       </c>
       <c r="E46">
-        <v>167689015</v>
+        <v>168491008</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>9833</v>
+        <v>9847</v>
       </c>
       <c r="D47">
         <v>1862</v>
       </c>
       <c r="E47">
-        <v>26573742</v>
+        <v>26658720</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>97286</v>
+        <v>97748</v>
       </c>
       <c r="D48">
         <v>11268</v>
       </c>
       <c r="E48">
-        <v>600886465</v>
+        <v>604815661</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2032,13 +2032,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>7233</v>
+        <v>7244</v>
       </c>
       <c r="D49">
         <v>1434</v>
       </c>
       <c r="E49">
-        <v>19467324</v>
+        <v>19561141</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2061,13 +2061,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="D50">
         <v>623</v>
       </c>
       <c r="E50">
-        <v>6017724</v>
+        <v>6022774</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>9104</v>
+        <v>9126</v>
       </c>
       <c r="D51">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="E51">
-        <v>18667912</v>
+        <v>18731215</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2119,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>32416</v>
+        <v>32492</v>
       </c>
       <c r="D52">
         <v>7453</v>
       </c>
       <c r="E52">
-        <v>108541420</v>
+        <v>109052532</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>12558</v>
+        <v>12586</v>
       </c>
       <c r="D53">
         <v>2941</v>
       </c>
       <c r="E53">
-        <v>43896395</v>
+        <v>44056937</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>17094</v>
+        <v>17130</v>
       </c>
       <c r="D54">
         <v>3139</v>
       </c>
       <c r="E54">
-        <v>31403890</v>
+        <v>31484399</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2206,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>21302</v>
+        <v>21319</v>
       </c>
       <c r="D55">
         <v>8867</v>
       </c>
       <c r="E55">
-        <v>28892547</v>
+        <v>28925609</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2235,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>30768</v>
+        <v>30877</v>
       </c>
       <c r="D56">
         <v>4408</v>
       </c>
       <c r="E56">
-        <v>99274588</v>
+        <v>99844854</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>34793</v>
+        <v>34872</v>
       </c>
       <c r="D57">
-        <v>8563</v>
+        <v>8565</v>
       </c>
       <c r="E57">
-        <v>70256425</v>
+        <v>70499690</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -2293,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>6550</v>
+        <v>6569</v>
       </c>
       <c r="D58">
         <v>1814</v>
       </c>
       <c r="E58">
-        <v>24268489</v>
+        <v>24397803</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2322,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10273</v>
+        <v>10298</v>
       </c>
       <c r="D59">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="E59">
-        <v>20937957</v>
+        <v>21009558</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>20171</v>
+        <v>20190</v>
       </c>
       <c r="D62">
         <v>7731</v>
       </c>
       <c r="E62">
-        <v>32185913</v>
+        <v>32220266</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>39936</v>
+        <v>40047</v>
       </c>
       <c r="D63">
-        <v>9888</v>
+        <v>9889</v>
       </c>
       <c r="E63">
-        <v>110804671</v>
+        <v>111396534</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2467,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>10028</v>
+        <v>10044</v>
       </c>
       <c r="D64">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="E64">
-        <v>23703600</v>
+        <v>23745666</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>56548</v>
+        <v>56779</v>
       </c>
       <c r="D65">
         <v>6566</v>
       </c>
       <c r="E65">
-        <v>318467583</v>
+        <v>320304422</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>4604</v>
+        <v>4609</v>
       </c>
       <c r="D66">
         <v>963</v>
       </c>
       <c r="E66">
-        <v>12586382</v>
+        <v>12592147</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="D67">
         <v>398</v>
       </c>
       <c r="E67">
-        <v>3585203</v>
+        <v>3592391</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6863</v>
+        <v>6873</v>
       </c>
       <c r="D68">
         <v>1672</v>
       </c>
       <c r="E68">
-        <v>13417145</v>
+        <v>13459422</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>19809</v>
+        <v>19867</v>
       </c>
       <c r="D69">
         <v>4479</v>
       </c>
       <c r="E69">
-        <v>58421009</v>
+        <v>58671950</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2641,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>10236</v>
+        <v>10258</v>
       </c>
       <c r="D70">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="E70">
-        <v>31873489</v>
+        <v>32011974</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>12137</v>
+        <v>12155</v>
       </c>
       <c r="D71">
         <v>2297</v>
       </c>
       <c r="E71">
-        <v>22716048</v>
+        <v>22761794</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2699,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>11146</v>
+        <v>11151</v>
       </c>
       <c r="D72">
         <v>4526</v>
       </c>
       <c r="E72">
-        <v>14641270</v>
+        <v>14656236</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>22467</v>
+        <v>22546</v>
       </c>
       <c r="D73">
         <v>3088</v>
       </c>
       <c r="E73">
-        <v>72202324</v>
+        <v>72618035</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>27537</v>
+        <v>27609</v>
       </c>
       <c r="D74">
         <v>6635</v>
       </c>
       <c r="E74">
-        <v>53586534</v>
+        <v>53805000</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>5157</v>
+        <v>5169</v>
       </c>
       <c r="D75">
         <v>1139</v>
       </c>
       <c r="E75">
-        <v>10623337</v>
+        <v>10655916</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>4330</v>
+        <v>4338</v>
       </c>
       <c r="D76">
         <v>911</v>
       </c>
       <c r="E76">
-        <v>9204120</v>
+        <v>9231031</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -2873,13 +2873,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>7928</v>
+        <v>7940</v>
       </c>
       <c r="D78">
         <v>2464</v>
       </c>
       <c r="E78">
-        <v>13199597</v>
+        <v>13236558</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -2902,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>13829</v>
+        <v>13873</v>
       </c>
       <c r="D79">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="E79">
-        <v>54288706</v>
+        <v>54746282</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="D80">
         <v>404</v>
       </c>
       <c r="E80">
-        <v>10212741</v>
+        <v>10232741</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -2960,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>24910</v>
+        <v>24992</v>
       </c>
       <c r="D81">
         <v>2809</v>
       </c>
       <c r="E81">
-        <v>159173418</v>
+        <v>159969441</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="D82">
         <v>192</v>
       </c>
       <c r="E82">
-        <v>3391436</v>
+        <v>3409536</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -3018,13 +3018,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D83">
         <v>70</v>
       </c>
       <c r="E83">
-        <v>924031</v>
+        <v>925531</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>4029</v>
+        <v>4038</v>
       </c>
       <c r="D84">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E84">
-        <v>12200377</v>
+        <v>12236486</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -3076,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>10298</v>
+        <v>10322</v>
       </c>
       <c r="D85">
         <v>1845</v>
       </c>
       <c r="E85">
-        <v>45067496</v>
+        <v>45286581</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>5144</v>
+        <v>5155</v>
       </c>
       <c r="D86">
         <v>941</v>
       </c>
       <c r="E86">
-        <v>17211278</v>
+        <v>17245737</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -3134,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="D87">
         <v>412</v>
       </c>
       <c r="E87">
-        <v>5289405</v>
+        <v>5291260</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -3163,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="D88">
         <v>925</v>
       </c>
       <c r="E88">
-        <v>3231139</v>
+        <v>3233219</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -3192,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>4426</v>
+        <v>4440</v>
       </c>
       <c r="D89">
         <v>553</v>
       </c>
       <c r="E89">
-        <v>16255837</v>
+        <v>16351855</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3221,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>6138</v>
+        <v>6153</v>
       </c>
       <c r="D90">
         <v>1284</v>
       </c>
       <c r="E90">
-        <v>12273429</v>
+        <v>12316920</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -3250,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>48427</v>
+        <v>48702</v>
       </c>
       <c r="D91">
-        <v>12949</v>
+        <v>12955</v>
       </c>
       <c r="E91">
-        <v>252430254</v>
+        <v>254198626</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>22324</v>
+        <v>22385</v>
       </c>
       <c r="D93">
-        <v>5754</v>
+        <v>5756</v>
       </c>
       <c r="E93">
-        <v>69671789</v>
+        <v>70033522</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3366,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="D95">
         <v>530</v>
       </c>
       <c r="E95">
-        <v>3181558</v>
+        <v>3187238</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>44675</v>
+        <v>44727</v>
       </c>
       <c r="D96">
         <v>15876</v>
       </c>
       <c r="E96">
-        <v>70838166</v>
+        <v>70954534</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3424,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>95989</v>
+        <v>96282</v>
       </c>
       <c r="D97">
-        <v>22633</v>
+        <v>22639</v>
       </c>
       <c r="E97">
-        <v>288169320</v>
+        <v>289976068</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>21259</v>
+        <v>21300</v>
       </c>
       <c r="D98">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="E98">
-        <v>54700129</v>
+        <v>54975658</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -3482,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>124294</v>
+        <v>124867</v>
       </c>
       <c r="D99">
         <v>13977</v>
       </c>
       <c r="E99">
-        <v>805327344</v>
+        <v>810493363</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>9261</v>
+        <v>9291</v>
       </c>
       <c r="D100">
         <v>1924</v>
       </c>
       <c r="E100">
-        <v>22896474</v>
+        <v>23001105</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -3540,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>4160</v>
+        <v>4169</v>
       </c>
       <c r="D101">
         <v>1059</v>
       </c>
       <c r="E101">
-        <v>7440829</v>
+        <v>7450740</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -3569,13 +3569,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>13314</v>
+        <v>13348</v>
       </c>
       <c r="D102">
         <v>3090</v>
       </c>
       <c r="E102">
-        <v>27621652</v>
+        <v>27734013</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -3598,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>46552</v>
+        <v>46669</v>
       </c>
       <c r="D103">
-        <v>10578</v>
+        <v>10580</v>
       </c>
       <c r="E103">
-        <v>129422278</v>
+        <v>130146577</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>20721</v>
+        <v>20771</v>
       </c>
       <c r="D104">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E104">
-        <v>69659067</v>
+        <v>70082418</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -3656,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105">
-        <v>119568</v>
+        <v>129568</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>26058</v>
+        <v>26117</v>
       </c>
       <c r="D106">
         <v>4735</v>
       </c>
       <c r="E106">
-        <v>47690679</v>
+        <v>47843670</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>26782</v>
+        <v>26812</v>
       </c>
       <c r="D107">
         <v>11148</v>
       </c>
       <c r="E107">
-        <v>36624627</v>
+        <v>36712939</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>42413</v>
+        <v>42549</v>
       </c>
       <c r="D108">
-        <v>5412</v>
+        <v>5414</v>
       </c>
       <c r="E108">
-        <v>132843987</v>
+        <v>133492400</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>64484</v>
+        <v>64644</v>
       </c>
       <c r="D109">
         <v>14829</v>
       </c>
       <c r="E109">
-        <v>126301009</v>
+        <v>126877312</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>14892</v>
+        <v>14924</v>
       </c>
       <c r="D110">
         <v>2589</v>
       </c>
       <c r="E110">
-        <v>23345525</v>
+        <v>23396150</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>5119</v>
+        <v>5137</v>
       </c>
       <c r="D111">
         <v>1203</v>
       </c>
       <c r="E111">
-        <v>9784107</v>
+        <v>9854986</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>7014</v>
+        <v>7028</v>
       </c>
       <c r="D114">
         <v>2170</v>
       </c>
       <c r="E114">
-        <v>10805638</v>
+        <v>10834823</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -3946,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>14238</v>
+        <v>14271</v>
       </c>
       <c r="D115">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="E115">
-        <v>28011080</v>
+        <v>28177474</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4478</v>
+        <v>4487</v>
       </c>
       <c r="D116">
         <v>736</v>
       </c>
       <c r="E116">
-        <v>10196755</v>
+        <v>10366618</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>15745</v>
+        <v>15799</v>
       </c>
       <c r="D117">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="E117">
-        <v>41581764</v>
+        <v>41962768</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D118">
         <v>306</v>
       </c>
       <c r="E118">
-        <v>3795301</v>
+        <v>3806257</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -4062,13 +4062,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D119">
         <v>107</v>
       </c>
       <c r="E119">
-        <v>742216</v>
+        <v>765155</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -4091,13 +4091,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="D120">
         <v>442</v>
       </c>
       <c r="E120">
-        <v>3747179</v>
+        <v>3753258</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -4120,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>5184</v>
+        <v>5192</v>
       </c>
       <c r="D121">
         <v>1265</v>
       </c>
       <c r="E121">
-        <v>9686918</v>
+        <v>9716279</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -4149,13 +4149,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>8191</v>
+        <v>8207</v>
       </c>
       <c r="D122">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E122">
-        <v>22725291</v>
+        <v>22912603</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="D123">
         <v>658</v>
       </c>
       <c r="E123">
-        <v>4186290</v>
+        <v>4192160</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>3662</v>
+        <v>3678</v>
       </c>
       <c r="D125">
         <v>489</v>
       </c>
       <c r="E125">
-        <v>9763195</v>
+        <v>9846354</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4265,13 +4265,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>4574</v>
+        <v>4589</v>
       </c>
       <c r="D126">
         <v>1134</v>
       </c>
       <c r="E126">
-        <v>6730038</v>
+        <v>6760378</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>6283</v>
+        <v>6306</v>
       </c>
       <c r="D127">
         <v>820</v>
       </c>
       <c r="E127">
-        <v>10427481</v>
+        <v>10454198</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2414</v>
+        <v>2420</v>
       </c>
       <c r="D129">
         <v>402</v>
       </c>
       <c r="E129">
-        <v>5167237</v>
+        <v>5185421</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>6811</v>
+        <v>6819</v>
       </c>
       <c r="D131">
         <v>1088</v>
       </c>
       <c r="E131">
-        <v>15246831</v>
+        <v>15259734</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>5729</v>
+        <v>5740</v>
       </c>
       <c r="D132">
         <v>979</v>
       </c>
       <c r="E132">
-        <v>11993597</v>
+        <v>12007839</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -4468,13 +4468,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="D133">
         <v>292</v>
       </c>
       <c r="E133">
-        <v>5377431</v>
+        <v>5387931</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>4488</v>
+        <v>4502</v>
       </c>
       <c r="D134">
         <v>580</v>
       </c>
       <c r="E134">
-        <v>12825385</v>
+        <v>12911272</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4526,13 +4526,13 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D135">
         <v>84</v>
       </c>
       <c r="E135">
-        <v>1737000</v>
+        <v>1745820</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
@@ -4555,13 +4555,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D136">
         <v>44</v>
       </c>
       <c r="E136">
-        <v>582021</v>
+        <v>583521</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -4584,13 +4584,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D137">
         <v>80</v>
       </c>
       <c r="E137">
-        <v>962481</v>
+        <v>963981</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
@@ -4613,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>2441</v>
+        <v>2449</v>
       </c>
       <c r="D138">
         <v>439</v>
       </c>
       <c r="E138">
-        <v>5467162</v>
+        <v>5478378</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -4642,13 +4642,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="D139">
         <v>392</v>
       </c>
       <c r="E139">
-        <v>7515893</v>
+        <v>7529038</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -4671,13 +4671,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D140">
         <v>155</v>
       </c>
       <c r="E140">
-        <v>1736089</v>
+        <v>1737404</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
@@ -4729,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D142">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E142">
-        <v>2589816</v>
+        <v>2610160</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -4758,13 +4758,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D143">
         <v>291</v>
       </c>
       <c r="E143">
-        <v>3325528</v>
+        <v>3327028</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>7423</v>
+        <v>7451</v>
       </c>
       <c r="D144">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="E144">
-        <v>23175844</v>
+        <v>23291292</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -4845,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>16555</v>
+        <v>16586</v>
       </c>
       <c r="D146">
         <v>4229</v>
       </c>
       <c r="E146">
-        <v>39901314</v>
+        <v>40322957</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>36451</v>
+        <v>36481</v>
       </c>
       <c r="D149">
-        <v>13023</v>
+        <v>13024</v>
       </c>
       <c r="E149">
-        <v>58211219</v>
+        <v>58292948</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>92876</v>
+        <v>93161</v>
       </c>
       <c r="D150">
-        <v>21097</v>
+        <v>21103</v>
       </c>
       <c r="E150">
-        <v>261794892</v>
+        <v>263709293</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>34912</v>
+        <v>34986</v>
       </c>
       <c r="D151">
         <v>5275</v>
       </c>
       <c r="E151">
-        <v>75309964</v>
+        <v>75576831</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>115140</v>
+        <v>115629</v>
       </c>
       <c r="D152">
-        <v>13400</v>
+        <v>13402</v>
       </c>
       <c r="E152">
-        <v>676431431</v>
+        <v>680242688</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>8975</v>
+        <v>8993</v>
       </c>
       <c r="D153">
         <v>1956</v>
       </c>
       <c r="E153">
-        <v>22064795</v>
+        <v>22110208</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>4163</v>
+        <v>4169</v>
       </c>
       <c r="D154">
         <v>963</v>
       </c>
       <c r="E154">
-        <v>8028708</v>
+        <v>8037012</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>11424</v>
+        <v>11451</v>
       </c>
       <c r="D155">
         <v>2738</v>
       </c>
       <c r="E155">
-        <v>24502033</v>
+        <v>24584359</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>45383</v>
+        <v>45513</v>
       </c>
       <c r="D156">
-        <v>9960</v>
+        <v>9961</v>
       </c>
       <c r="E156">
-        <v>133332356</v>
+        <v>134028182</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>19958</v>
+        <v>19998</v>
       </c>
       <c r="D157">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E157">
-        <v>67979945</v>
+        <v>68212805</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>21250</v>
+        <v>21293</v>
       </c>
       <c r="D159">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E159">
-        <v>36510110</v>
+        <v>36665207</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>26840</v>
+        <v>26852</v>
       </c>
       <c r="D160">
         <v>11387</v>
       </c>
       <c r="E160">
-        <v>37063158</v>
+        <v>37079443</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>41386</v>
+        <v>41506</v>
       </c>
       <c r="D161">
-        <v>5271</v>
+        <v>5273</v>
       </c>
       <c r="E161">
-        <v>132208930</v>
+        <v>132976668</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>61102</v>
+        <v>61266</v>
       </c>
       <c r="D162">
-        <v>14044</v>
+        <v>14045</v>
       </c>
       <c r="E162">
-        <v>111261516</v>
+        <v>111733010</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="D163">
         <v>704</v>
       </c>
       <c r="E163">
-        <v>4620239</v>
+        <v>4624739</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>47622</v>
+        <v>47738</v>
       </c>
       <c r="D164">
-        <v>10989</v>
+        <v>10992</v>
       </c>
       <c r="E164">
-        <v>136078784</v>
+        <v>136861678</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -5425,13 +5425,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D166">
         <v>423</v>
       </c>
       <c r="E166">
-        <v>2881556</v>
+        <v>2883056</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>100171</v>
+        <v>100309</v>
       </c>
       <c r="D167">
-        <v>32125</v>
+        <v>32127</v>
       </c>
       <c r="E167">
-        <v>184677289</v>
+        <v>185148257</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>269830</v>
+        <v>270629</v>
       </c>
       <c r="D168">
-        <v>57724</v>
+        <v>57737</v>
       </c>
       <c r="E168">
-        <v>1016047601</v>
+        <v>1025385908</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>521904</v>
+        <v>522847</v>
       </c>
       <c r="D169">
-        <v>60733</v>
+        <v>60738</v>
       </c>
       <c r="E169">
-        <v>1207754198</v>
+        <v>1211747686</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>322674</v>
+        <v>323758</v>
       </c>
       <c r="D170">
         <v>37497</v>
       </c>
       <c r="E170">
-        <v>2468753569</v>
+        <v>2482283811</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>106085</v>
+        <v>106368</v>
       </c>
       <c r="D171">
-        <v>20121</v>
+        <v>20125</v>
       </c>
       <c r="E171">
-        <v>365854955</v>
+        <v>368410305</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>20944</v>
+        <v>20994</v>
       </c>
       <c r="D172">
         <v>4317</v>
       </c>
       <c r="E172">
-        <v>59720310</v>
+        <v>60228350</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>52470</v>
+        <v>52591</v>
       </c>
       <c r="D173">
         <v>11542</v>
       </c>
       <c r="E173">
-        <v>139415930</v>
+        <v>140070096</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>337236</v>
+        <v>338012</v>
       </c>
       <c r="D174">
-        <v>69351</v>
+        <v>69360</v>
       </c>
       <c r="E174">
-        <v>893275923</v>
+        <v>897857585</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>112385</v>
+        <v>112677</v>
       </c>
       <c r="D175">
-        <v>17645</v>
+        <v>17646</v>
       </c>
       <c r="E175">
-        <v>593096200</v>
+        <v>597861452</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>91770</v>
+        <v>91966</v>
       </c>
       <c r="D177">
-        <v>16406</v>
+        <v>16409</v>
       </c>
       <c r="E177">
-        <v>162458777</v>
+        <v>163019880</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>74977</v>
+        <v>75031</v>
       </c>
       <c r="D178">
-        <v>28746</v>
+        <v>28748</v>
       </c>
       <c r="E178">
-        <v>102113587</v>
+        <v>102238885</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>212997</v>
+        <v>213542</v>
       </c>
       <c r="D179">
-        <v>28908</v>
+        <v>28909</v>
       </c>
       <c r="E179">
-        <v>688702297</v>
+        <v>691615944</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>135605</v>
+        <v>136032</v>
       </c>
       <c r="D180">
-        <v>28772</v>
+        <v>28774</v>
       </c>
       <c r="E180">
-        <v>314958998</v>
+        <v>316334344</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>7622</v>
+        <v>7630</v>
       </c>
       <c r="D181">
         <v>1790</v>
       </c>
       <c r="E181">
-        <v>10933357</v>
+        <v>10953857</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>6051</v>
+        <v>6064</v>
       </c>
       <c r="D182">
         <v>1653</v>
       </c>
       <c r="E182">
-        <v>10933556</v>
+        <v>10963146</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>8994</v>
+        <v>9003</v>
       </c>
       <c r="D185">
         <v>3235</v>
       </c>
       <c r="E185">
-        <v>13718417</v>
+        <v>13737367</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>20192</v>
+        <v>20236</v>
       </c>
       <c r="D186">
-        <v>5196</v>
+        <v>5198</v>
       </c>
       <c r="E186">
-        <v>35859230</v>
+        <v>36094874</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
@@ -6034,13 +6034,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>2983</v>
+        <v>2990</v>
       </c>
       <c r="D187">
         <v>784</v>
       </c>
       <c r="E187">
-        <v>6173517</v>
+        <v>6201787</v>
       </c>
       <c r="F187" t="s">
         <v>21</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>16232</v>
+        <v>16304</v>
       </c>
       <c r="D188">
         <v>2557</v>
       </c>
       <c r="E188">
-        <v>46698570</v>
+        <v>47210796</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6092,13 +6092,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>1822</v>
+        <v>1827</v>
       </c>
       <c r="D189">
         <v>398</v>
       </c>
       <c r="E189">
-        <v>5470759</v>
+        <v>5492330</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6121,13 +6121,13 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D190">
         <v>162</v>
       </c>
       <c r="E190">
-        <v>1045178</v>
+        <v>1048178</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="D191">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E191">
-        <v>3691096</v>
+        <v>3702888</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>6825</v>
+        <v>6840</v>
       </c>
       <c r="D192">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E192">
-        <v>14066056</v>
+        <v>14209883</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>4796</v>
+        <v>4806</v>
       </c>
       <c r="D193">
         <v>1029</v>
       </c>
       <c r="E193">
-        <v>18702335</v>
+        <v>18787318</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>5415</v>
+        <v>5423</v>
       </c>
       <c r="D194">
         <v>1244</v>
       </c>
       <c r="E194">
-        <v>7617257</v>
+        <v>7640580</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>6297</v>
+        <v>6317</v>
       </c>
       <c r="D196">
         <v>909</v>
       </c>
       <c r="E196">
-        <v>15540102</v>
+        <v>15726082</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>6730</v>
+        <v>6735</v>
       </c>
       <c r="D197">
         <v>1980</v>
       </c>
       <c r="E197">
-        <v>9044212</v>
+        <v>9058814</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>3728</v>
+        <v>3740</v>
       </c>
       <c r="D198">
         <v>777</v>
       </c>
       <c r="E198">
-        <v>5248620</v>
+        <v>5266369</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -6382,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>3495</v>
+        <v>3499</v>
       </c>
       <c r="D199">
         <v>830</v>
       </c>
       <c r="E199">
-        <v>6779731</v>
+        <v>6789467</v>
       </c>
       <c r="F199" t="s">
         <v>22</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>4318</v>
+        <v>4324</v>
       </c>
       <c r="D202">
         <v>1381</v>
       </c>
       <c r="E202">
-        <v>7034535</v>
+        <v>7043235</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>10335</v>
+        <v>10347</v>
       </c>
       <c r="D203">
         <v>2224</v>
       </c>
       <c r="E203">
-        <v>23493970</v>
+        <v>23546329</v>
       </c>
       <c r="F203" t="s">
         <v>22</v>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>3925</v>
+        <v>3936</v>
       </c>
       <c r="D204">
         <v>715</v>
       </c>
       <c r="E204">
-        <v>9240487</v>
+        <v>9285232</v>
       </c>
       <c r="F204" t="s">
         <v>22</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>8286</v>
+        <v>8313</v>
       </c>
       <c r="D205">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E205">
-        <v>29349346</v>
+        <v>29897924</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="D206">
         <v>229</v>
       </c>
       <c r="E206">
-        <v>2826933</v>
+        <v>2922896</v>
       </c>
       <c r="F206" t="s">
         <v>22</v>
@@ -6614,13 +6614,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D207">
         <v>96</v>
       </c>
       <c r="E207">
-        <v>931329</v>
+        <v>953208</v>
       </c>
       <c r="F207" t="s">
         <v>22</v>
@@ -6643,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D208">
         <v>303</v>
       </c>
       <c r="E208">
-        <v>2697698</v>
+        <v>2700556</v>
       </c>
       <c r="F208" t="s">
         <v>22</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>4559</v>
+        <v>4567</v>
       </c>
       <c r="D209">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E209">
-        <v>9647083</v>
+        <v>9664299</v>
       </c>
       <c r="F209" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>5211</v>
+        <v>5217</v>
       </c>
       <c r="D210">
         <v>940</v>
       </c>
       <c r="E210">
-        <v>13174855</v>
+        <v>13236687</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -6730,13 +6730,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>2430</v>
+        <v>2436</v>
       </c>
       <c r="D211">
         <v>479</v>
       </c>
       <c r="E211">
-        <v>3848054</v>
+        <v>3861195</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
@@ -6788,13 +6788,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>2707</v>
+        <v>2715</v>
       </c>
       <c r="D213">
         <v>376</v>
       </c>
       <c r="E213">
-        <v>7314646</v>
+        <v>7351538</v>
       </c>
       <c r="F213" t="s">
         <v>22</v>
@@ -6817,13 +6817,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>5019</v>
+        <v>5027</v>
       </c>
       <c r="D214">
         <v>1062</v>
       </c>
       <c r="E214">
-        <v>8617284</v>
+        <v>8630249</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -6846,13 +6846,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>9062</v>
+        <v>9077</v>
       </c>
       <c r="D215">
         <v>1090</v>
       </c>
       <c r="E215">
-        <v>19755732</v>
+        <v>19778232</v>
       </c>
       <c r="F215" t="s">
         <v>23</v>
@@ -6875,13 +6875,13 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D216">
         <v>202</v>
       </c>
       <c r="E216">
-        <v>3632680</v>
+        <v>3635680</v>
       </c>
       <c r="F216" t="s">
         <v>23</v>
@@ -6933,13 +6933,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>4865</v>
+        <v>4873</v>
       </c>
       <c r="D218">
         <v>681</v>
       </c>
       <c r="E218">
-        <v>11832934</v>
+        <v>11844934</v>
       </c>
       <c r="F218" t="s">
         <v>23</v>
@@ -6962,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>22053</v>
+        <v>22070</v>
       </c>
       <c r="D219">
         <v>2788</v>
       </c>
       <c r="E219">
-        <v>51596856</v>
+        <v>51622202</v>
       </c>
       <c r="F219" t="s">
         <v>23</v>
@@ -6991,13 +6991,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>4457</v>
+        <v>4460</v>
       </c>
       <c r="D220">
         <v>521</v>
       </c>
       <c r="E220">
-        <v>11380360</v>
+        <v>11385360</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
@@ -7020,13 +7020,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="D221">
         <v>319</v>
       </c>
       <c r="E221">
-        <v>6736334</v>
+        <v>6759684</v>
       </c>
       <c r="F221" t="s">
         <v>23</v>
@@ -7049,13 +7049,13 @@
         <v>10</v>
       </c>
       <c r="C222">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D222">
         <v>42</v>
       </c>
       <c r="E222">
-        <v>539936</v>
+        <v>541436</v>
       </c>
       <c r="F222" t="s">
         <v>23</v>
@@ -7136,13 +7136,13 @@
         <v>10</v>
       </c>
       <c r="C225">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D225">
         <v>129</v>
       </c>
       <c r="E225">
-        <v>1615304</v>
+        <v>1616720</v>
       </c>
       <c r="F225" t="s">
         <v>23</v>
@@ -7252,13 +7252,13 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D229">
         <v>61</v>
       </c>
       <c r="E229">
-        <v>1270933</v>
+        <v>1280933</v>
       </c>
       <c r="F229" t="s">
         <v>23</v>
@@ -7310,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>5860</v>
+        <v>5873</v>
       </c>
       <c r="D231">
         <v>1740</v>
       </c>
       <c r="E231">
-        <v>12556902</v>
+        <v>12589200</v>
       </c>
       <c r="F231" t="s">
         <v>24</v>
@@ -7368,13 +7368,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>11411</v>
+        <v>11439</v>
       </c>
       <c r="D233">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="E233">
-        <v>23549372</v>
+        <v>23620294</v>
       </c>
       <c r="F233" t="s">
         <v>24</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>21675</v>
+        <v>21697</v>
       </c>
       <c r="D236">
-        <v>8414</v>
+        <v>8415</v>
       </c>
       <c r="E236">
-        <v>34828062</v>
+        <v>34857567</v>
       </c>
       <c r="F236" t="s">
         <v>24</v>
@@ -7484,13 +7484,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>57066</v>
+        <v>57255</v>
       </c>
       <c r="D237">
-        <v>13450</v>
+        <v>13452</v>
       </c>
       <c r="E237">
-        <v>163399901</v>
+        <v>164404847</v>
       </c>
       <c r="F237" t="s">
         <v>24</v>
@@ -7513,13 +7513,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>11251</v>
+        <v>11279</v>
       </c>
       <c r="D238">
         <v>2148</v>
       </c>
       <c r="E238">
-        <v>28879110</v>
+        <v>29049514</v>
       </c>
       <c r="F238" t="s">
         <v>24</v>
@@ -7542,13 +7542,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>78587</v>
+        <v>78923</v>
       </c>
       <c r="D239">
         <v>9329</v>
       </c>
       <c r="E239">
-        <v>476424653</v>
+        <v>479361287</v>
       </c>
       <c r="F239" t="s">
         <v>24</v>
@@ -7571,13 +7571,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>5091</v>
+        <v>5099</v>
       </c>
       <c r="D240">
         <v>1049</v>
       </c>
       <c r="E240">
-        <v>12964654</v>
+        <v>12994287</v>
       </c>
       <c r="F240" t="s">
         <v>24</v>
@@ -7600,13 +7600,13 @@
         <v>10</v>
       </c>
       <c r="C241">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="D241">
         <v>624</v>
       </c>
       <c r="E241">
-        <v>6301432</v>
+        <v>6308932</v>
       </c>
       <c r="F241" t="s">
         <v>24</v>
@@ -7629,13 +7629,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>8297</v>
+        <v>8312</v>
       </c>
       <c r="D242">
         <v>1982</v>
       </c>
       <c r="E242">
-        <v>18686496</v>
+        <v>18727017</v>
       </c>
       <c r="F242" t="s">
         <v>24</v>
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>26815</v>
+        <v>26885</v>
       </c>
       <c r="D243">
         <v>5914</v>
       </c>
       <c r="E243">
-        <v>85726142</v>
+        <v>86432577</v>
       </c>
       <c r="F243" t="s">
         <v>24</v>
@@ -7687,13 +7687,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>12427</v>
+        <v>12461</v>
       </c>
       <c r="D244">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="E244">
-        <v>39484594</v>
+        <v>39634524</v>
       </c>
       <c r="F244" t="s">
         <v>24</v>
@@ -7716,13 +7716,13 @@
         <v>10</v>
       </c>
       <c r="C245">
-        <v>14693</v>
+        <v>14734</v>
       </c>
       <c r="D245">
         <v>2702</v>
       </c>
       <c r="E245">
-        <v>25866267</v>
+        <v>25953377</v>
       </c>
       <c r="F245" t="s">
         <v>24</v>
@@ -7745,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>13244</v>
+        <v>13250</v>
       </c>
       <c r="D246">
         <v>5419</v>
       </c>
       <c r="E246">
-        <v>17314043</v>
+        <v>17321957</v>
       </c>
       <c r="F246" t="s">
         <v>24</v>
@@ -7774,13 +7774,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>27197</v>
+        <v>27306</v>
       </c>
       <c r="D247">
         <v>3702</v>
       </c>
       <c r="E247">
-        <v>89763099</v>
+        <v>90442192</v>
       </c>
       <c r="F247" t="s">
         <v>24</v>
@@ -7803,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>37634</v>
+        <v>37728</v>
       </c>
       <c r="D248">
         <v>8741</v>
       </c>
       <c r="E248">
-        <v>72527504</v>
+        <v>72737660</v>
       </c>
       <c r="F248" t="s">
         <v>24</v>
@@ -7832,13 +7832,13 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>34054</v>
+        <v>34215</v>
       </c>
       <c r="D249">
-        <v>9184</v>
+        <v>9190</v>
       </c>
       <c r="E249">
-        <v>132875115</v>
+        <v>133952887</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
@@ -7890,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>34641</v>
+        <v>34731</v>
       </c>
       <c r="D251">
         <v>8819</v>
       </c>
       <c r="E251">
-        <v>68779083</v>
+        <v>69183249</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -7948,13 +7948,13 @@
         <v>10</v>
       </c>
       <c r="C253">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="D253">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E253">
-        <v>2434905</v>
+        <v>2453437</v>
       </c>
       <c r="F253" t="s">
         <v>25</v>
@@ -7977,13 +7977,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>62080</v>
+        <v>62148</v>
       </c>
       <c r="D254">
-        <v>23911</v>
+        <v>23914</v>
       </c>
       <c r="E254">
-        <v>98263268</v>
+        <v>98402848</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -8006,13 +8006,13 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>138032</v>
+        <v>138439</v>
       </c>
       <c r="D255">
-        <v>32048</v>
+        <v>32049</v>
       </c>
       <c r="E255">
-        <v>390150893</v>
+        <v>392067280</v>
       </c>
       <c r="F255" t="s">
         <v>25</v>
@@ -8035,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>28970</v>
+        <v>29038</v>
       </c>
       <c r="D256">
-        <v>5060</v>
+        <v>5064</v>
       </c>
       <c r="E256">
-        <v>73178988</v>
+        <v>73450855</v>
       </c>
       <c r="F256" t="s">
         <v>25</v>
@@ -8064,13 +8064,13 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>169837</v>
+        <v>170503</v>
       </c>
       <c r="D257">
         <v>20155</v>
       </c>
       <c r="E257">
-        <v>1011500565</v>
+        <v>1017118281</v>
       </c>
       <c r="F257" t="s">
         <v>25</v>
@@ -8093,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>14233</v>
+        <v>14264</v>
       </c>
       <c r="D258">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="E258">
-        <v>36884021</v>
+        <v>37101139</v>
       </c>
       <c r="F258" t="s">
         <v>25</v>
@@ -8122,13 +8122,13 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>6120</v>
+        <v>6141</v>
       </c>
       <c r="D259">
         <v>1538</v>
       </c>
       <c r="E259">
-        <v>13839533</v>
+        <v>13917120</v>
       </c>
       <c r="F259" t="s">
         <v>25</v>
@@ -8151,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>23126</v>
+        <v>23177</v>
       </c>
       <c r="D260">
         <v>5854</v>
       </c>
       <c r="E260">
-        <v>48175500</v>
+        <v>48425429</v>
       </c>
       <c r="F260" t="s">
         <v>25</v>
@@ -8180,13 +8180,13 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>75802</v>
+        <v>75989</v>
       </c>
       <c r="D261">
         <v>17135</v>
       </c>
       <c r="E261">
-        <v>219460306</v>
+        <v>220514051</v>
       </c>
       <c r="F261" t="s">
         <v>25</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>36808</v>
+        <v>36896</v>
       </c>
       <c r="D262">
         <v>8091</v>
       </c>
       <c r="E262">
-        <v>106561504</v>
+        <v>107203606</v>
       </c>
       <c r="F262" t="s">
         <v>25</v>
@@ -8267,13 +8267,13 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>45535</v>
+        <v>45646</v>
       </c>
       <c r="D264">
-        <v>7753</v>
+        <v>7754</v>
       </c>
       <c r="E264">
-        <v>79145094</v>
+        <v>79443106</v>
       </c>
       <c r="F264" t="s">
         <v>25</v>
@@ -8296,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>43102</v>
+        <v>43128</v>
       </c>
       <c r="D265">
-        <v>17108</v>
+        <v>17109</v>
       </c>
       <c r="E265">
-        <v>57443677</v>
+        <v>57497894</v>
       </c>
       <c r="F265" t="s">
         <v>25</v>
@@ -8325,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>66282</v>
+        <v>66516</v>
       </c>
       <c r="D266">
-        <v>9011</v>
+        <v>9013</v>
       </c>
       <c r="E266">
-        <v>200116165</v>
+        <v>201845797</v>
       </c>
       <c r="F266" t="s">
         <v>25</v>
@@ -8354,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>83485</v>
+        <v>83684</v>
       </c>
       <c r="D267">
-        <v>20021</v>
+        <v>20022</v>
       </c>
       <c r="E267">
-        <v>153279647</v>
+        <v>153812355</v>
       </c>
       <c r="F267" t="s">
         <v>25</v>
@@ -8383,13 +8383,13 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>31074</v>
+        <v>31142</v>
       </c>
       <c r="D268">
         <v>8028</v>
       </c>
       <c r="E268">
-        <v>84026174</v>
+        <v>84368000</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -8441,13 +8441,13 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>38684</v>
+        <v>38785</v>
       </c>
       <c r="D270">
-        <v>9505</v>
+        <v>9506</v>
       </c>
       <c r="E270">
-        <v>76262693</v>
+        <v>76578584</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -8470,13 +8470,13 @@
         <v>10</v>
       </c>
       <c r="C271">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D271">
         <v>63</v>
       </c>
       <c r="E271">
-        <v>651030</v>
+        <v>657938</v>
       </c>
       <c r="F271" t="s">
         <v>26</v>
@@ -8499,13 +8499,13 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D272">
         <v>352</v>
       </c>
       <c r="E272">
-        <v>2303334</v>
+        <v>2306320</v>
       </c>
       <c r="F272" t="s">
         <v>26</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>88196</v>
+        <v>88299</v>
       </c>
       <c r="D273">
-        <v>29713</v>
+        <v>29714</v>
       </c>
       <c r="E273">
-        <v>137385040</v>
+        <v>137665805</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -8557,13 +8557,13 @@
         <v>10</v>
       </c>
       <c r="C274">
-        <v>164312</v>
+        <v>164790</v>
       </c>
       <c r="D274">
-        <v>35653</v>
+        <v>35657</v>
       </c>
       <c r="E274">
-        <v>434746254</v>
+        <v>437804115</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -8586,13 +8586,13 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>37308</v>
+        <v>37371</v>
       </c>
       <c r="D275">
-        <v>6050</v>
+        <v>6052</v>
       </c>
       <c r="E275">
-        <v>92281101</v>
+        <v>92702480</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -8615,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C276">
-        <v>202638</v>
+        <v>203407</v>
       </c>
       <c r="D276">
         <v>23262</v>
       </c>
       <c r="E276">
-        <v>1152636067</v>
+        <v>1158405691</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -8644,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>18137</v>
+        <v>18184</v>
       </c>
       <c r="D277">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="E277">
-        <v>39704095</v>
+        <v>39839600</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -8673,13 +8673,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>6593</v>
+        <v>6605</v>
       </c>
       <c r="D278">
         <v>1607</v>
       </c>
       <c r="E278">
-        <v>12683514</v>
+        <v>12700550</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -8702,13 +8702,13 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>28493</v>
+        <v>28567</v>
       </c>
       <c r="D279">
-        <v>6557</v>
+        <v>6558</v>
       </c>
       <c r="E279">
-        <v>56074176</v>
+        <v>56273523</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>91414</v>
+        <v>91645</v>
       </c>
       <c r="D280">
-        <v>19681</v>
+        <v>19683</v>
       </c>
       <c r="E280">
-        <v>268173346</v>
+        <v>269461111</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -8760,13 +8760,13 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>41541</v>
+        <v>41644</v>
       </c>
       <c r="D281">
-        <v>8945</v>
+        <v>8948</v>
       </c>
       <c r="E281">
-        <v>123604514</v>
+        <v>124280881</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -8818,13 +8818,13 @@
         <v>10</v>
       </c>
       <c r="C283">
-        <v>58160</v>
+        <v>58305</v>
       </c>
       <c r="D283">
-        <v>9853</v>
+        <v>9854</v>
       </c>
       <c r="E283">
-        <v>97915693</v>
+        <v>98276069</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -8847,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>48252</v>
+        <v>48288</v>
       </c>
       <c r="D284">
         <v>19339</v>
       </c>
       <c r="E284">
-        <v>64777818</v>
+        <v>64829272</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -8876,13 +8876,13 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>79488</v>
+        <v>79728</v>
       </c>
       <c r="D285">
         <v>10270</v>
       </c>
       <c r="E285">
-        <v>236044426</v>
+        <v>237432328</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -8905,13 +8905,13 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>88906</v>
+        <v>89113</v>
       </c>
       <c r="D286">
-        <v>20274</v>
+        <v>20277</v>
       </c>
       <c r="E286">
-        <v>158538746</v>
+        <v>159092379</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>8189</v>
+        <v>8210</v>
       </c>
       <c r="D287">
         <v>2442</v>
       </c>
       <c r="E287">
-        <v>23739324</v>
+        <v>23851730</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -8992,13 +8992,13 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>15241</v>
+        <v>15267</v>
       </c>
       <c r="D289">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E289">
-        <v>31757928</v>
+        <v>31910736</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -9079,13 +9079,13 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>23953</v>
+        <v>23973</v>
       </c>
       <c r="D292">
         <v>10123</v>
       </c>
       <c r="E292">
-        <v>37842943</v>
+        <v>37913197</v>
       </c>
       <c r="F292" t="s">
         <v>27</v>
@@ -9108,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>60266</v>
+        <v>60415</v>
       </c>
       <c r="D293">
         <v>14516</v>
       </c>
       <c r="E293">
-        <v>183105285</v>
+        <v>184293954</v>
       </c>
       <c r="F293" t="s">
         <v>27</v>
@@ -9137,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>14953</v>
+        <v>14963</v>
       </c>
       <c r="D294">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="E294">
-        <v>39124103</v>
+        <v>39157595</v>
       </c>
       <c r="F294" t="s">
         <v>27</v>
@@ -9166,13 +9166,13 @@
         <v>10</v>
       </c>
       <c r="C295">
-        <v>84347</v>
+        <v>84661</v>
       </c>
       <c r="D295">
-        <v>9873</v>
+        <v>9874</v>
       </c>
       <c r="E295">
-        <v>525825194</v>
+        <v>528687056</v>
       </c>
       <c r="F295" t="s">
         <v>27</v>
@@ -9195,13 +9195,13 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>8146</v>
+        <v>8168</v>
       </c>
       <c r="D296">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E296">
-        <v>19293579</v>
+        <v>19383379</v>
       </c>
       <c r="F296" t="s">
         <v>27</v>
@@ -9224,13 +9224,13 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3671</v>
+        <v>3675</v>
       </c>
       <c r="D297">
         <v>966</v>
       </c>
       <c r="E297">
-        <v>7495968</v>
+        <v>7500799</v>
       </c>
       <c r="F297" t="s">
         <v>27</v>
@@ -9253,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>11739</v>
+        <v>11762</v>
       </c>
       <c r="D298">
         <v>2955</v>
       </c>
       <c r="E298">
-        <v>23428751</v>
+        <v>23467182</v>
       </c>
       <c r="F298" t="s">
         <v>27</v>
@@ -9282,13 +9282,13 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>41174</v>
+        <v>41281</v>
       </c>
       <c r="D299">
-        <v>9304</v>
+        <v>9307</v>
       </c>
       <c r="E299">
-        <v>132916714</v>
+        <v>133571857</v>
       </c>
       <c r="F299" t="s">
         <v>27</v>
@@ -9311,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>14725</v>
+        <v>14759</v>
       </c>
       <c r="D300">
         <v>3335</v>
       </c>
       <c r="E300">
-        <v>61943095</v>
+        <v>62368467</v>
       </c>
       <c r="F300" t="s">
         <v>27</v>
@@ -9340,13 +9340,13 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <v>19061</v>
+        <v>19103</v>
       </c>
       <c r="D301">
         <v>3594</v>
       </c>
       <c r="E301">
-        <v>35569787</v>
+        <v>35700020</v>
       </c>
       <c r="F301" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>23749</v>
+        <v>23759</v>
       </c>
       <c r="D302">
         <v>9605</v>
       </c>
       <c r="E302">
-        <v>31303696</v>
+        <v>31316724</v>
       </c>
       <c r="F302" t="s">
         <v>27</v>
@@ -9398,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>37033</v>
+        <v>37121</v>
       </c>
       <c r="D303">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="E303">
-        <v>121005297</v>
+        <v>121569581</v>
       </c>
       <c r="F303" t="s">
         <v>27</v>
@@ -9427,13 +9427,13 @@
         <v>10</v>
       </c>
       <c r="C304">
-        <v>42481</v>
+        <v>42563</v>
       </c>
       <c r="D304">
-        <v>10313</v>
+        <v>10314</v>
       </c>
       <c r="E304">
-        <v>84821258</v>
+        <v>85006174</v>
       </c>
       <c r="F304" t="s">
         <v>27</v>
@@ -9456,13 +9456,13 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>14012</v>
+        <v>14054</v>
       </c>
       <c r="D305">
         <v>3598</v>
       </c>
       <c r="E305">
-        <v>44751353</v>
+        <v>44937020</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -9514,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>38443</v>
+        <v>38540</v>
       </c>
       <c r="D307">
-        <v>8894</v>
+        <v>8895</v>
       </c>
       <c r="E307">
-        <v>88612948</v>
+        <v>89052915</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -9601,13 +9601,13 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>81977</v>
+        <v>82059</v>
       </c>
       <c r="D310">
-        <v>26075</v>
+        <v>26078</v>
       </c>
       <c r="E310">
-        <v>133105026</v>
+        <v>133317620</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -9630,13 +9630,13 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>185716</v>
+        <v>186291</v>
       </c>
       <c r="D311">
-        <v>37590</v>
+        <v>37597</v>
       </c>
       <c r="E311">
-        <v>549029433</v>
+        <v>552272245</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -9659,13 +9659,13 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>70654</v>
+        <v>70815</v>
       </c>
       <c r="D312">
-        <v>9320</v>
+        <v>9321</v>
       </c>
       <c r="E312">
-        <v>187723637</v>
+        <v>188393965</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>206166</v>
+        <v>206970</v>
       </c>
       <c r="D313">
-        <v>23215</v>
+        <v>23217</v>
       </c>
       <c r="E313">
-        <v>1296177976</v>
+        <v>1303432058</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>19855</v>
+        <v>19912</v>
       </c>
       <c r="D314">
         <v>3837</v>
       </c>
       <c r="E314">
-        <v>48197257</v>
+        <v>48418632</v>
       </c>
       <c r="F314" t="s">
         <v>28</v>
@@ -9746,13 +9746,13 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>7989</v>
+        <v>8004</v>
       </c>
       <c r="D315">
         <v>1771</v>
       </c>
       <c r="E315">
-        <v>16536743</v>
+        <v>16580349</v>
       </c>
       <c r="F315" t="s">
         <v>28</v>
@@ -9775,13 +9775,13 @@
         <v>10</v>
       </c>
       <c r="C316">
-        <v>37927</v>
+        <v>38020</v>
       </c>
       <c r="D316">
-        <v>8069</v>
+        <v>8070</v>
       </c>
       <c r="E316">
-        <v>84402432</v>
+        <v>84684323</v>
       </c>
       <c r="F316" t="s">
         <v>28</v>
@@ -9804,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="C317">
-        <v>99251</v>
+        <v>99479</v>
       </c>
       <c r="D317">
-        <v>21110</v>
+        <v>21115</v>
       </c>
       <c r="E317">
-        <v>284764202</v>
+        <v>285813427</v>
       </c>
       <c r="F317" t="s">
         <v>28</v>
@@ -9833,13 +9833,13 @@
         <v>10</v>
       </c>
       <c r="C318">
-        <v>55209</v>
+        <v>55342</v>
       </c>
       <c r="D318">
-        <v>10818</v>
+        <v>10820</v>
       </c>
       <c r="E318">
-        <v>188387741</v>
+        <v>189662241</v>
       </c>
       <c r="F318" t="s">
         <v>28</v>
@@ -9891,13 +9891,13 @@
         <v>10</v>
       </c>
       <c r="C320">
-        <v>64195</v>
+        <v>64341</v>
       </c>
       <c r="D320">
         <v>10238</v>
       </c>
       <c r="E320">
-        <v>119193664</v>
+        <v>119674080</v>
       </c>
       <c r="F320" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>10</v>
       </c>
       <c r="C321">
-        <v>44646</v>
+        <v>44670</v>
       </c>
       <c r="D321">
-        <v>17368</v>
+        <v>17369</v>
       </c>
       <c r="E321">
-        <v>59743335</v>
+        <v>59779102</v>
       </c>
       <c r="F321" t="s">
         <v>28</v>
@@ -9949,13 +9949,13 @@
         <v>10</v>
       </c>
       <c r="C322">
-        <v>74985</v>
+        <v>75237</v>
       </c>
       <c r="D322">
         <v>9574</v>
       </c>
       <c r="E322">
-        <v>233353822</v>
+        <v>234582861</v>
       </c>
       <c r="F322" t="s">
         <v>28</v>
@@ -9978,13 +9978,13 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>92594</v>
+        <v>92811</v>
       </c>
       <c r="D323">
-        <v>19854</v>
+        <v>19855</v>
       </c>
       <c r="E323">
-        <v>174722101</v>
+        <v>175427822</v>
       </c>
       <c r="F323" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>27069</v>
+        <v>27169</v>
       </c>
       <c r="D2">
-        <v>7508</v>
+        <v>7512</v>
       </c>
       <c r="E2">
-        <v>57189711</v>
+        <v>57430095</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -698,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>53606</v>
+        <v>54031</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>45224</v>
+        <v>45306</v>
       </c>
       <c r="D4">
-        <v>11475</v>
+        <v>11476</v>
       </c>
       <c r="E4">
-        <v>110070760</v>
+        <v>110479267</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>1117662</v>
+        <v>1120662</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D6">
         <v>564</v>
       </c>
       <c r="E6">
-        <v>2788987</v>
+        <v>2790487</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>93576</v>
+        <v>93695</v>
       </c>
       <c r="D7">
-        <v>32179</v>
+        <v>32182</v>
       </c>
       <c r="E7">
-        <v>155246466</v>
+        <v>155496585</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>176730</v>
+        <v>177184</v>
       </c>
       <c r="D8">
-        <v>39983</v>
+        <v>39991</v>
       </c>
       <c r="E8">
-        <v>606437627</v>
+        <v>609968459</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>65453</v>
+        <v>65578</v>
       </c>
       <c r="D9">
-        <v>9983</v>
+        <v>9986</v>
       </c>
       <c r="E9">
-        <v>175439464</v>
+        <v>176401772</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>256854</v>
+        <v>257521</v>
       </c>
       <c r="D10">
-        <v>29256</v>
+        <v>29258</v>
       </c>
       <c r="E10">
-        <v>1650376675</v>
+        <v>1656885878</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>23637</v>
+        <v>23695</v>
       </c>
       <c r="D11">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="E11">
-        <v>57834539</v>
+        <v>58092382</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -959,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8859</v>
+        <v>8869</v>
       </c>
       <c r="D12">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="E12">
-        <v>18746366</v>
+        <v>18800790</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>36742</v>
+        <v>36833</v>
       </c>
       <c r="D13">
-        <v>8421</v>
+        <v>8422</v>
       </c>
       <c r="E13">
-        <v>91367080</v>
+        <v>91864196</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>113897</v>
+        <v>114143</v>
       </c>
       <c r="D14">
-        <v>25162</v>
+        <v>25169</v>
       </c>
       <c r="E14">
-        <v>354584978</v>
+        <v>356116214</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>53878</v>
+        <v>54005</v>
       </c>
       <c r="D15">
         <v>11254</v>
       </c>
       <c r="E15">
-        <v>195017650</v>
+        <v>196129116</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>128798</v>
+        <v>129157</v>
       </c>
       <c r="D17">
-        <v>19531</v>
+        <v>19533</v>
       </c>
       <c r="E17">
-        <v>282618424</v>
+        <v>284091716</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>60346</v>
+        <v>60375</v>
       </c>
       <c r="D18">
-        <v>23686</v>
+        <v>23687</v>
       </c>
       <c r="E18">
-        <v>82761873</v>
+        <v>82821435</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>100974</v>
+        <v>101221</v>
       </c>
       <c r="D19">
-        <v>13424</v>
+        <v>13425</v>
       </c>
       <c r="E19">
-        <v>314984096</v>
+        <v>316450408</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1191,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>106031</v>
+        <v>106272</v>
       </c>
       <c r="D20">
         <v>24241</v>
       </c>
       <c r="E20">
-        <v>217444491</v>
+        <v>218424833</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>9562</v>
+        <v>9588</v>
       </c>
       <c r="D21">
         <v>2890</v>
       </c>
       <c r="E21">
-        <v>32583856</v>
+        <v>32787979</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>12054</v>
+        <v>12072</v>
       </c>
       <c r="D23">
         <v>3237</v>
       </c>
       <c r="E23">
-        <v>24624537</v>
+        <v>24679345</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>21281</v>
+        <v>21307</v>
       </c>
       <c r="D26">
-        <v>8046</v>
+        <v>8047</v>
       </c>
       <c r="E26">
-        <v>33519790</v>
+        <v>33562077</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1394,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>51381</v>
+        <v>51490</v>
       </c>
       <c r="D27">
-        <v>12285</v>
+        <v>12287</v>
       </c>
       <c r="E27">
-        <v>143583596</v>
+        <v>144187226</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6917</v>
+        <v>6929</v>
       </c>
       <c r="D28">
         <v>1534</v>
       </c>
       <c r="E28">
-        <v>18735683</v>
+        <v>18872046</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1452,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>71972</v>
+        <v>72182</v>
       </c>
       <c r="D29">
         <v>8135</v>
       </c>
       <c r="E29">
-        <v>410974769</v>
+        <v>413003820</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>4191</v>
+        <v>4206</v>
       </c>
       <c r="D30">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E30">
-        <v>10284622</v>
+        <v>10333141</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1510,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D31">
         <v>454</v>
       </c>
       <c r="E31">
-        <v>3266056</v>
+        <v>3268013</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>6872</v>
+        <v>6887</v>
       </c>
       <c r="D32">
         <v>1711</v>
       </c>
       <c r="E32">
-        <v>12961191</v>
+        <v>12996976</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>21530</v>
+        <v>21594</v>
       </c>
       <c r="D33">
         <v>4892</v>
       </c>
       <c r="E33">
-        <v>68709422</v>
+        <v>69257638</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10486</v>
+        <v>10500</v>
       </c>
       <c r="D34">
         <v>2280</v>
       </c>
       <c r="E34">
-        <v>34026908</v>
+        <v>34130806</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>16008</v>
+        <v>16040</v>
       </c>
       <c r="D36">
         <v>2773</v>
       </c>
       <c r="E36">
-        <v>26900535</v>
+        <v>26956777</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>13122</v>
+        <v>13126</v>
       </c>
       <c r="D37">
         <v>5281</v>
       </c>
       <c r="E37">
-        <v>17396434</v>
+        <v>17400459</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1713,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>25139</v>
+        <v>25197</v>
       </c>
       <c r="D38">
         <v>3247</v>
       </c>
       <c r="E38">
-        <v>76882226</v>
+        <v>77266608</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>31239</v>
+        <v>31298</v>
       </c>
       <c r="D39">
         <v>7342</v>
       </c>
       <c r="E39">
-        <v>61614247</v>
+        <v>61822319</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>6107</v>
+        <v>6110</v>
       </c>
       <c r="D40">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E40">
-        <v>15213280</v>
+        <v>15221692</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>16344</v>
+        <v>16376</v>
       </c>
       <c r="D42">
         <v>4193</v>
       </c>
       <c r="E42">
-        <v>31395491</v>
+        <v>31454866</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1916,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>21278</v>
+        <v>21299</v>
       </c>
       <c r="D45">
-        <v>9066</v>
+        <v>9067</v>
       </c>
       <c r="E45">
-        <v>32893817</v>
+        <v>32930531</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>54847</v>
+        <v>54968</v>
       </c>
       <c r="D46">
-        <v>13267</v>
+        <v>13268</v>
       </c>
       <c r="E46">
-        <v>168491008</v>
+        <v>169780190</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>9847</v>
+        <v>9862</v>
       </c>
       <c r="D47">
         <v>1862</v>
       </c>
       <c r="E47">
-        <v>26658720</v>
+        <v>26799902</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>97748</v>
+        <v>98027</v>
       </c>
       <c r="D48">
         <v>11268</v>
       </c>
       <c r="E48">
-        <v>604815661</v>
+        <v>607204414</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2032,13 +2032,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>7244</v>
+        <v>7262</v>
       </c>
       <c r="D49">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E49">
-        <v>19561141</v>
+        <v>19680172</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2061,13 +2061,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="D50">
         <v>623</v>
       </c>
       <c r="E50">
-        <v>6022774</v>
+        <v>6063819</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>9126</v>
+        <v>9133</v>
       </c>
       <c r="D51">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="E51">
-        <v>18731215</v>
+        <v>18742642</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2119,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>32492</v>
+        <v>32577</v>
       </c>
       <c r="D52">
-        <v>7453</v>
+        <v>7454</v>
       </c>
       <c r="E52">
-        <v>109052532</v>
+        <v>109497013</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>12586</v>
+        <v>12600</v>
       </c>
       <c r="D53">
         <v>2941</v>
       </c>
       <c r="E53">
-        <v>44056937</v>
+        <v>44356240</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>17130</v>
+        <v>17153</v>
       </c>
       <c r="D54">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="E54">
-        <v>31484399</v>
+        <v>31572451</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2206,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>21319</v>
+        <v>21332</v>
       </c>
       <c r="D55">
         <v>8867</v>
       </c>
       <c r="E55">
-        <v>28925609</v>
+        <v>28942619</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2235,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>30877</v>
+        <v>30966</v>
       </c>
       <c r="D56">
         <v>4408</v>
       </c>
       <c r="E56">
-        <v>99844854</v>
+        <v>100335851</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>34872</v>
+        <v>34931</v>
       </c>
       <c r="D57">
-        <v>8565</v>
+        <v>8566</v>
       </c>
       <c r="E57">
-        <v>70499690</v>
+        <v>70750845</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -2293,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>6569</v>
+        <v>6593</v>
       </c>
       <c r="D58">
         <v>1814</v>
       </c>
       <c r="E58">
-        <v>24397803</v>
+        <v>24581201</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2322,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>10298</v>
+        <v>10307</v>
       </c>
       <c r="D59">
         <v>2667</v>
       </c>
       <c r="E59">
-        <v>21009558</v>
+        <v>21029385</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>20190</v>
+        <v>20196</v>
       </c>
       <c r="D62">
         <v>7731</v>
       </c>
       <c r="E62">
-        <v>32220266</v>
+        <v>32229036</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>40047</v>
+        <v>40134</v>
       </c>
       <c r="D63">
-        <v>9889</v>
+        <v>9890</v>
       </c>
       <c r="E63">
-        <v>111396534</v>
+        <v>111811535</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2467,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>10044</v>
+        <v>10054</v>
       </c>
       <c r="D64">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="E64">
-        <v>23745666</v>
+        <v>23769761</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>56779</v>
+        <v>56936</v>
       </c>
       <c r="D65">
         <v>6566</v>
       </c>
       <c r="E65">
-        <v>320304422</v>
+        <v>321760388</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>4609</v>
+        <v>4614</v>
       </c>
       <c r="D66">
         <v>963</v>
       </c>
       <c r="E66">
-        <v>12592147</v>
+        <v>12611982</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="D67">
         <v>398</v>
       </c>
       <c r="E67">
-        <v>3592391</v>
+        <v>3599420</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6873</v>
+        <v>6890</v>
       </c>
       <c r="D68">
         <v>1672</v>
       </c>
       <c r="E68">
-        <v>13459422</v>
+        <v>13505501</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>19867</v>
+        <v>19906</v>
       </c>
       <c r="D69">
         <v>4479</v>
       </c>
       <c r="E69">
-        <v>58671950</v>
+        <v>58866854</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2641,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>10258</v>
+        <v>10275</v>
       </c>
       <c r="D70">
         <v>2292</v>
       </c>
       <c r="E70">
-        <v>32011974</v>
+        <v>32164821</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>12155</v>
+        <v>12173</v>
       </c>
       <c r="D71">
         <v>2297</v>
       </c>
       <c r="E71">
-        <v>22761794</v>
+        <v>22821865</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2699,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>11151</v>
+        <v>11156</v>
       </c>
       <c r="D72">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E72">
-        <v>14656236</v>
+        <v>14661905</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>22546</v>
+        <v>22601</v>
       </c>
       <c r="D73">
         <v>3088</v>
       </c>
       <c r="E73">
-        <v>72618035</v>
+        <v>72834294</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>27609</v>
+        <v>27647</v>
       </c>
       <c r="D74">
-        <v>6635</v>
+        <v>6636</v>
       </c>
       <c r="E74">
-        <v>53805000</v>
+        <v>53927207</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>5169</v>
+        <v>5173</v>
       </c>
       <c r="D75">
         <v>1139</v>
       </c>
       <c r="E75">
-        <v>10655916</v>
+        <v>10680511</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>4338</v>
+        <v>4348</v>
       </c>
       <c r="D76">
         <v>911</v>
       </c>
       <c r="E76">
-        <v>9231031</v>
+        <v>9265708</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -2873,13 +2873,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>7940</v>
+        <v>7948</v>
       </c>
       <c r="D78">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E78">
-        <v>13236558</v>
+        <v>13248343</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -2902,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>13873</v>
+        <v>13907</v>
       </c>
       <c r="D79">
         <v>2637</v>
       </c>
       <c r="E79">
-        <v>54746282</v>
+        <v>54934192</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>2353</v>
+        <v>2358</v>
       </c>
       <c r="D80">
         <v>404</v>
       </c>
       <c r="E80">
-        <v>10232741</v>
+        <v>10245529</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -2960,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>24992</v>
+        <v>25065</v>
       </c>
       <c r="D81">
         <v>2809</v>
       </c>
       <c r="E81">
-        <v>159969441</v>
+        <v>160533533</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D82">
         <v>192</v>
       </c>
       <c r="E82">
-        <v>3409536</v>
+        <v>3427765</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>4038</v>
+        <v>4050</v>
       </c>
       <c r="D84">
         <v>707</v>
       </c>
       <c r="E84">
-        <v>12236486</v>
+        <v>12284892</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -3076,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>10322</v>
+        <v>10355</v>
       </c>
       <c r="D85">
         <v>1845</v>
       </c>
       <c r="E85">
-        <v>45286581</v>
+        <v>45541085</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>5155</v>
+        <v>5166</v>
       </c>
       <c r="D86">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E86">
-        <v>17245737</v>
+        <v>17764658</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -3134,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>2755</v>
+        <v>2761</v>
       </c>
       <c r="D87">
         <v>412</v>
       </c>
       <c r="E87">
-        <v>5291260</v>
+        <v>5305816</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -3163,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="D88">
         <v>925</v>
       </c>
       <c r="E88">
-        <v>3233219</v>
+        <v>3234444</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -3192,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>4440</v>
+        <v>4457</v>
       </c>
       <c r="D89">
         <v>553</v>
       </c>
       <c r="E89">
-        <v>16351855</v>
+        <v>16407349</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3221,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>6153</v>
+        <v>6167</v>
       </c>
       <c r="D90">
         <v>1284</v>
       </c>
       <c r="E90">
-        <v>12316920</v>
+        <v>12345388</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -3250,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>48702</v>
+        <v>48969</v>
       </c>
       <c r="D91">
-        <v>12955</v>
+        <v>12958</v>
       </c>
       <c r="E91">
-        <v>254198626</v>
+        <v>255980710</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>22385</v>
+        <v>22447</v>
       </c>
       <c r="D93">
         <v>5756</v>
       </c>
       <c r="E93">
-        <v>70033522</v>
+        <v>70433989</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3337,13 +3337,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D94">
         <v>60</v>
       </c>
       <c r="E94">
-        <v>240278</v>
+        <v>241778</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -3366,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="D95">
         <v>530</v>
       </c>
       <c r="E95">
-        <v>3187238</v>
+        <v>3190325</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>44727</v>
+        <v>44768</v>
       </c>
       <c r="D96">
-        <v>15876</v>
+        <v>15877</v>
       </c>
       <c r="E96">
-        <v>70954534</v>
+        <v>71061565</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3424,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>96282</v>
+        <v>96490</v>
       </c>
       <c r="D97">
-        <v>22639</v>
+        <v>22645</v>
       </c>
       <c r="E97">
-        <v>289976068</v>
+        <v>291564706</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>21300</v>
+        <v>21339</v>
       </c>
       <c r="D98">
         <v>3636</v>
       </c>
       <c r="E98">
-        <v>54975658</v>
+        <v>55129810</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -3482,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>124867</v>
+        <v>125256</v>
       </c>
       <c r="D99">
-        <v>13977</v>
+        <v>13979</v>
       </c>
       <c r="E99">
-        <v>810493363</v>
+        <v>814708996</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>9291</v>
+        <v>9311</v>
       </c>
       <c r="D100">
         <v>1924</v>
       </c>
       <c r="E100">
-        <v>23001105</v>
+        <v>23132170</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -3540,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>4169</v>
+        <v>4182</v>
       </c>
       <c r="D101">
         <v>1059</v>
       </c>
       <c r="E101">
-        <v>7450740</v>
+        <v>7519069</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -3569,13 +3569,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>13348</v>
+        <v>13379</v>
       </c>
       <c r="D102">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E102">
-        <v>27734013</v>
+        <v>27805975</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -3598,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>46669</v>
+        <v>46770</v>
       </c>
       <c r="D103">
         <v>10580</v>
       </c>
       <c r="E103">
-        <v>130146577</v>
+        <v>130534739</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>20771</v>
+        <v>20821</v>
       </c>
       <c r="D104">
         <v>4547</v>
       </c>
       <c r="E104">
-        <v>70082418</v>
+        <v>70374348</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>26117</v>
+        <v>26177</v>
       </c>
       <c r="D106">
-        <v>4735</v>
+        <v>4737</v>
       </c>
       <c r="E106">
-        <v>47843670</v>
+        <v>48190198</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>26812</v>
+        <v>26829</v>
       </c>
       <c r="D107">
         <v>11148</v>
       </c>
       <c r="E107">
-        <v>36712939</v>
+        <v>36731830</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>42549</v>
+        <v>42674</v>
       </c>
       <c r="D108">
-        <v>5414</v>
+        <v>5415</v>
       </c>
       <c r="E108">
-        <v>133492400</v>
+        <v>134126990</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>64644</v>
+        <v>64761</v>
       </c>
       <c r="D109">
-        <v>14829</v>
+        <v>14831</v>
       </c>
       <c r="E109">
-        <v>126877312</v>
+        <v>127342685</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>14924</v>
+        <v>14946</v>
       </c>
       <c r="D110">
         <v>2589</v>
       </c>
       <c r="E110">
-        <v>23396150</v>
+        <v>23431902</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>5137</v>
+        <v>5143</v>
       </c>
       <c r="D111">
         <v>1203</v>
       </c>
       <c r="E111">
-        <v>9854986</v>
+        <v>9870375</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>7028</v>
+        <v>7032</v>
       </c>
       <c r="D114">
         <v>2170</v>
       </c>
       <c r="E114">
-        <v>10834823</v>
+        <v>10840823</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -3946,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>14271</v>
+        <v>14281</v>
       </c>
       <c r="D115">
         <v>3231</v>
       </c>
       <c r="E115">
-        <v>28177474</v>
+        <v>28328152</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4487</v>
+        <v>4490</v>
       </c>
       <c r="D116">
         <v>736</v>
       </c>
       <c r="E116">
-        <v>10366618</v>
+        <v>10379819</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>15799</v>
+        <v>15821</v>
       </c>
       <c r="D117">
         <v>2087</v>
       </c>
       <c r="E117">
-        <v>41962768</v>
+        <v>42183160</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D118">
         <v>306</v>
       </c>
       <c r="E118">
-        <v>3806257</v>
+        <v>3807457</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -4149,13 +4149,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>8207</v>
+        <v>8213</v>
       </c>
       <c r="D122">
         <v>1398</v>
       </c>
       <c r="E122">
-        <v>22912603</v>
+        <v>23035875</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D123">
         <v>658</v>
       </c>
       <c r="E123">
-        <v>4192160</v>
+        <v>4193658</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="D125">
         <v>489</v>
       </c>
       <c r="E125">
-        <v>9846354</v>
+        <v>9852007</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>6306</v>
+        <v>6322</v>
       </c>
       <c r="D127">
         <v>820</v>
       </c>
       <c r="E127">
-        <v>10454198</v>
+        <v>10473880</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="D129">
         <v>402</v>
       </c>
       <c r="E129">
-        <v>5185421</v>
+        <v>5190381</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>6819</v>
+        <v>6826</v>
       </c>
       <c r="D131">
         <v>1088</v>
       </c>
       <c r="E131">
-        <v>15259734</v>
+        <v>15287110</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>5740</v>
+        <v>5748</v>
       </c>
       <c r="D132">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E132">
-        <v>12007839</v>
+        <v>12025541</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>4502</v>
+        <v>4512</v>
       </c>
       <c r="D134">
         <v>580</v>
       </c>
       <c r="E134">
-        <v>12911272</v>
+        <v>13008392</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4613,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="D138">
         <v>439</v>
       </c>
       <c r="E138">
-        <v>5478378</v>
+        <v>5494693</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -4642,13 +4642,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="D139">
         <v>392</v>
       </c>
       <c r="E139">
-        <v>7529038</v>
+        <v>7536960</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -4700,13 +4700,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D141">
         <v>242</v>
       </c>
       <c r="E141">
-        <v>1693746</v>
+        <v>1703746</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
@@ -4729,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D142">
         <v>136</v>
       </c>
       <c r="E142">
-        <v>2610160</v>
+        <v>2619717</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -4758,13 +4758,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="D143">
         <v>291</v>
       </c>
       <c r="E143">
-        <v>3327028</v>
+        <v>3338937</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>7451</v>
+        <v>7459</v>
       </c>
       <c r="D144">
         <v>2213</v>
       </c>
       <c r="E144">
-        <v>23291292</v>
+        <v>23311667</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -4845,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>16586</v>
+        <v>16622</v>
       </c>
       <c r="D146">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E146">
-        <v>40322957</v>
+        <v>40495700</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>36481</v>
+        <v>36509</v>
       </c>
       <c r="D149">
-        <v>13024</v>
+        <v>13025</v>
       </c>
       <c r="E149">
-        <v>58292948</v>
+        <v>58344393</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>93161</v>
+        <v>93350</v>
       </c>
       <c r="D150">
-        <v>21103</v>
+        <v>21105</v>
       </c>
       <c r="E150">
-        <v>263709293</v>
+        <v>265057723</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>34986</v>
+        <v>35048</v>
       </c>
       <c r="D151">
-        <v>5275</v>
+        <v>5277</v>
       </c>
       <c r="E151">
-        <v>75576831</v>
+        <v>75792013</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>115629</v>
+        <v>115971</v>
       </c>
       <c r="D152">
         <v>13402</v>
       </c>
       <c r="E152">
-        <v>680242688</v>
+        <v>682981160</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>8993</v>
+        <v>9010</v>
       </c>
       <c r="D153">
         <v>1956</v>
       </c>
       <c r="E153">
-        <v>22110208</v>
+        <v>22291811</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>4169</v>
+        <v>4174</v>
       </c>
       <c r="D154">
         <v>963</v>
       </c>
       <c r="E154">
-        <v>8037012</v>
+        <v>8055383</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>11451</v>
+        <v>11464</v>
       </c>
       <c r="D155">
         <v>2738</v>
       </c>
       <c r="E155">
-        <v>24584359</v>
+        <v>24626432</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>45513</v>
+        <v>45594</v>
       </c>
       <c r="D156">
-        <v>9961</v>
+        <v>9963</v>
       </c>
       <c r="E156">
-        <v>134028182</v>
+        <v>134428064</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>19998</v>
+        <v>20023</v>
       </c>
       <c r="D157">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E157">
-        <v>68212805</v>
+        <v>68337849</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>21293</v>
+        <v>21324</v>
       </c>
       <c r="D159">
         <v>4104</v>
       </c>
       <c r="E159">
-        <v>36665207</v>
+        <v>36720642</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>26852</v>
+        <v>26865</v>
       </c>
       <c r="D160">
         <v>11387</v>
       </c>
       <c r="E160">
-        <v>37079443</v>
+        <v>37108921</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>41506</v>
+        <v>41618</v>
       </c>
       <c r="D161">
-        <v>5273</v>
+        <v>5274</v>
       </c>
       <c r="E161">
-        <v>132976668</v>
+        <v>133636384</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>61266</v>
+        <v>61362</v>
       </c>
       <c r="D162">
-        <v>14045</v>
+        <v>14046</v>
       </c>
       <c r="E162">
-        <v>111733010</v>
+        <v>111992078</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="D163">
         <v>704</v>
       </c>
       <c r="E163">
-        <v>4624739</v>
+        <v>4628839</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>47738</v>
+        <v>47830</v>
       </c>
       <c r="D164">
-        <v>10992</v>
+        <v>10993</v>
       </c>
       <c r="E164">
-        <v>136861678</v>
+        <v>137474156</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -5396,13 +5396,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D165">
         <v>154</v>
       </c>
       <c r="E165">
-        <v>2179024</v>
+        <v>2191446</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
@@ -5425,13 +5425,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D166">
         <v>423</v>
       </c>
       <c r="E166">
-        <v>2883056</v>
+        <v>2884556</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>100309</v>
+        <v>100388</v>
       </c>
       <c r="D167">
         <v>32127</v>
       </c>
       <c r="E167">
-        <v>185148257</v>
+        <v>185434808</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>270629</v>
+        <v>271195</v>
       </c>
       <c r="D168">
-        <v>57737</v>
+        <v>57744</v>
       </c>
       <c r="E168">
-        <v>1025385908</v>
+        <v>1032780619</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>522847</v>
+        <v>523549</v>
       </c>
       <c r="D169">
-        <v>60738</v>
+        <v>60743</v>
       </c>
       <c r="E169">
-        <v>1211747686</v>
+        <v>1214725742</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>323758</v>
+        <v>324512</v>
       </c>
       <c r="D170">
-        <v>37497</v>
+        <v>37499</v>
       </c>
       <c r="E170">
-        <v>2482283811</v>
+        <v>2492814263</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>106368</v>
+        <v>106557</v>
       </c>
       <c r="D171">
-        <v>20125</v>
+        <v>20128</v>
       </c>
       <c r="E171">
-        <v>368410305</v>
+        <v>369556950</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>20994</v>
+        <v>21027</v>
       </c>
       <c r="D172">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E172">
-        <v>60228350</v>
+        <v>60518298</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>52591</v>
+        <v>52701</v>
       </c>
       <c r="D173">
-        <v>11542</v>
+        <v>11544</v>
       </c>
       <c r="E173">
-        <v>140070096</v>
+        <v>140454623</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>338012</v>
+        <v>338673</v>
       </c>
       <c r="D174">
-        <v>69360</v>
+        <v>69370</v>
       </c>
       <c r="E174">
-        <v>897857585</v>
+        <v>902033613</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>112677</v>
+        <v>112914</v>
       </c>
       <c r="D175">
-        <v>17646</v>
+        <v>17647</v>
       </c>
       <c r="E175">
-        <v>597861452</v>
+        <v>603124657</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>91966</v>
+        <v>92146</v>
       </c>
       <c r="D177">
         <v>16409</v>
       </c>
       <c r="E177">
-        <v>163019880</v>
+        <v>163543477</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>75031</v>
+        <v>75087</v>
       </c>
       <c r="D178">
         <v>28748</v>
       </c>
       <c r="E178">
-        <v>102238885</v>
+        <v>102316299</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>213542</v>
+        <v>214023</v>
       </c>
       <c r="D179">
-        <v>28909</v>
+        <v>28912</v>
       </c>
       <c r="E179">
-        <v>691615944</v>
+        <v>694626133</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>136032</v>
+        <v>136348</v>
       </c>
       <c r="D180">
-        <v>28774</v>
+        <v>28776</v>
       </c>
       <c r="E180">
-        <v>316334344</v>
+        <v>317431265</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>7630</v>
+        <v>7645</v>
       </c>
       <c r="D181">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E181">
-        <v>10953857</v>
+        <v>10976826</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>6064</v>
+        <v>6076</v>
       </c>
       <c r="D182">
         <v>1653</v>
       </c>
       <c r="E182">
-        <v>10963146</v>
+        <v>10982228</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>9003</v>
+        <v>9006</v>
       </c>
       <c r="D185">
         <v>3235</v>
       </c>
       <c r="E185">
-        <v>13737367</v>
+        <v>13741867</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>20236</v>
+        <v>20261</v>
       </c>
       <c r="D186">
-        <v>5198</v>
+        <v>5199</v>
       </c>
       <c r="E186">
-        <v>36094874</v>
+        <v>36154351</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
@@ -6034,13 +6034,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="D187">
         <v>784</v>
       </c>
       <c r="E187">
-        <v>6201787</v>
+        <v>6205502</v>
       </c>
       <c r="F187" t="s">
         <v>21</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>16304</v>
+        <v>16335</v>
       </c>
       <c r="D188">
         <v>2557</v>
       </c>
       <c r="E188">
-        <v>47210796</v>
+        <v>47459961</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="D191">
         <v>634</v>
       </c>
       <c r="E191">
-        <v>3702888</v>
+        <v>3706753</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>6840</v>
+        <v>6850</v>
       </c>
       <c r="D192">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="E192">
-        <v>14209883</v>
+        <v>14264244</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>4806</v>
+        <v>4815</v>
       </c>
       <c r="D193">
         <v>1029</v>
       </c>
       <c r="E193">
-        <v>18787318</v>
+        <v>18962962</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>5423</v>
+        <v>5426</v>
       </c>
       <c r="D194">
         <v>1244</v>
       </c>
       <c r="E194">
-        <v>7640580</v>
+        <v>7646385</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6266,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="C195">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D195">
         <v>2469</v>
       </c>
       <c r="E195">
-        <v>8108859</v>
+        <v>8110359</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>6317</v>
+        <v>6326</v>
       </c>
       <c r="D196">
         <v>909</v>
       </c>
       <c r="E196">
-        <v>15726082</v>
+        <v>15749957</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>6735</v>
+        <v>6746</v>
       </c>
       <c r="D197">
         <v>1980</v>
       </c>
       <c r="E197">
-        <v>9058814</v>
+        <v>9071887</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="D198">
         <v>777</v>
       </c>
       <c r="E198">
-        <v>5266369</v>
+        <v>5267869</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -6382,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>3499</v>
+        <v>3504</v>
       </c>
       <c r="D199">
         <v>830</v>
       </c>
       <c r="E199">
-        <v>6789467</v>
+        <v>6797464</v>
       </c>
       <c r="F199" t="s">
         <v>22</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>4324</v>
+        <v>4329</v>
       </c>
       <c r="D202">
         <v>1381</v>
       </c>
       <c r="E202">
-        <v>7043235</v>
+        <v>7053225</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>10347</v>
+        <v>10360</v>
       </c>
       <c r="D203">
         <v>2224</v>
       </c>
       <c r="E203">
-        <v>23546329</v>
+        <v>23609368</v>
       </c>
       <c r="F203" t="s">
         <v>22</v>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="D204">
         <v>715</v>
       </c>
       <c r="E204">
-        <v>9285232</v>
+        <v>9293033</v>
       </c>
       <c r="F204" t="s">
         <v>22</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>8313</v>
+        <v>8324</v>
       </c>
       <c r="D205">
         <v>1267</v>
       </c>
       <c r="E205">
-        <v>29897924</v>
+        <v>29977253</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D206">
         <v>229</v>
       </c>
       <c r="E206">
-        <v>2922896</v>
+        <v>2924958</v>
       </c>
       <c r="F206" t="s">
         <v>22</v>
@@ -6643,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D208">
         <v>303</v>
       </c>
       <c r="E208">
-        <v>2700556</v>
+        <v>2702933</v>
       </c>
       <c r="F208" t="s">
         <v>22</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>4567</v>
+        <v>4571</v>
       </c>
       <c r="D209">
         <v>1111</v>
       </c>
       <c r="E209">
-        <v>9664299</v>
+        <v>9671150</v>
       </c>
       <c r="F209" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>5217</v>
+        <v>5223</v>
       </c>
       <c r="D210">
         <v>940</v>
       </c>
       <c r="E210">
-        <v>13236687</v>
+        <v>13269711</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -6730,13 +6730,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="D211">
         <v>479</v>
       </c>
       <c r="E211">
-        <v>3861195</v>
+        <v>3869413</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
@@ -6759,13 +6759,13 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="D212">
         <v>940</v>
       </c>
       <c r="E212">
-        <v>3330621</v>
+        <v>3335329</v>
       </c>
       <c r="F212" t="s">
         <v>22</v>
@@ -6788,13 +6788,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>2715</v>
+        <v>2721</v>
       </c>
       <c r="D213">
         <v>376</v>
       </c>
       <c r="E213">
-        <v>7351538</v>
+        <v>7376983</v>
       </c>
       <c r="F213" t="s">
         <v>22</v>
@@ -6817,13 +6817,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>5027</v>
+        <v>5029</v>
       </c>
       <c r="D214">
         <v>1062</v>
       </c>
       <c r="E214">
-        <v>8630249</v>
+        <v>8632396</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -6846,13 +6846,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>9077</v>
+        <v>9089</v>
       </c>
       <c r="D215">
         <v>1090</v>
       </c>
       <c r="E215">
-        <v>19778232</v>
+        <v>19796456</v>
       </c>
       <c r="F215" t="s">
         <v>23</v>
@@ -6875,13 +6875,13 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="D216">
         <v>202</v>
       </c>
       <c r="E216">
-        <v>3635680</v>
+        <v>3643080</v>
       </c>
       <c r="F216" t="s">
         <v>23</v>
@@ -6933,13 +6933,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>4873</v>
+        <v>4881</v>
       </c>
       <c r="D218">
         <v>681</v>
       </c>
       <c r="E218">
-        <v>11844934</v>
+        <v>11857584</v>
       </c>
       <c r="F218" t="s">
         <v>23</v>
@@ -6962,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>22070</v>
+        <v>22088</v>
       </c>
       <c r="D219">
         <v>2788</v>
       </c>
       <c r="E219">
-        <v>51622202</v>
+        <v>51649002</v>
       </c>
       <c r="F219" t="s">
         <v>23</v>
@@ -6991,13 +6991,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="D220">
         <v>521</v>
       </c>
       <c r="E220">
-        <v>11385360</v>
+        <v>11386860</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
@@ -7020,13 +7020,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="D221">
         <v>319</v>
       </c>
       <c r="E221">
-        <v>6759684</v>
+        <v>6765354</v>
       </c>
       <c r="F221" t="s">
         <v>23</v>
@@ -7310,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>5873</v>
+        <v>5887</v>
       </c>
       <c r="D231">
         <v>1740</v>
       </c>
       <c r="E231">
-        <v>12589200</v>
+        <v>12622233</v>
       </c>
       <c r="F231" t="s">
         <v>24</v>
@@ -7368,13 +7368,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>11439</v>
+        <v>11456</v>
       </c>
       <c r="D233">
         <v>3012</v>
       </c>
       <c r="E233">
-        <v>23620294</v>
+        <v>23656107</v>
       </c>
       <c r="F233" t="s">
         <v>24</v>
@@ -7426,13 +7426,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D235">
         <v>156</v>
       </c>
       <c r="E235">
-        <v>652274</v>
+        <v>655274</v>
       </c>
       <c r="F235" t="s">
         <v>24</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>21697</v>
+        <v>21715</v>
       </c>
       <c r="D236">
-        <v>8415</v>
+        <v>8417</v>
       </c>
       <c r="E236">
-        <v>34857567</v>
+        <v>34883727</v>
       </c>
       <c r="F236" t="s">
         <v>24</v>
@@ -7484,13 +7484,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>57255</v>
+        <v>57359</v>
       </c>
       <c r="D237">
         <v>13452</v>
       </c>
       <c r="E237">
-        <v>164404847</v>
+        <v>164990284</v>
       </c>
       <c r="F237" t="s">
         <v>24</v>
@@ -7513,13 +7513,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>11279</v>
+        <v>11300</v>
       </c>
       <c r="D238">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="E238">
-        <v>29049514</v>
+        <v>29162117</v>
       </c>
       <c r="F238" t="s">
         <v>24</v>
@@ -7542,13 +7542,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>78923</v>
+        <v>79136</v>
       </c>
       <c r="D239">
         <v>9329</v>
       </c>
       <c r="E239">
-        <v>479361287</v>
+        <v>481467965</v>
       </c>
       <c r="F239" t="s">
         <v>24</v>
@@ -7571,13 +7571,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>5099</v>
+        <v>5102</v>
       </c>
       <c r="D240">
         <v>1049</v>
       </c>
       <c r="E240">
-        <v>12994287</v>
+        <v>13006416</v>
       </c>
       <c r="F240" t="s">
         <v>24</v>
@@ -7600,13 +7600,13 @@
         <v>10</v>
       </c>
       <c r="C241">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D241">
         <v>624</v>
       </c>
       <c r="E241">
-        <v>6308932</v>
+        <v>6311932</v>
       </c>
       <c r="F241" t="s">
         <v>24</v>
@@ -7629,13 +7629,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>8312</v>
+        <v>8326</v>
       </c>
       <c r="D242">
         <v>1982</v>
       </c>
       <c r="E242">
-        <v>18727017</v>
+        <v>18789654</v>
       </c>
       <c r="F242" t="s">
         <v>24</v>
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>26885</v>
+        <v>26951</v>
       </c>
       <c r="D243">
         <v>5914</v>
       </c>
       <c r="E243">
-        <v>86432577</v>
+        <v>86798651</v>
       </c>
       <c r="F243" t="s">
         <v>24</v>
@@ -7687,13 +7687,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>12461</v>
+        <v>12491</v>
       </c>
       <c r="D244">
         <v>2605</v>
       </c>
       <c r="E244">
-        <v>39634524</v>
+        <v>40023727</v>
       </c>
       <c r="F244" t="s">
         <v>24</v>
@@ -7716,13 +7716,13 @@
         <v>10</v>
       </c>
       <c r="C245">
-        <v>14734</v>
+        <v>14751</v>
       </c>
       <c r="D245">
         <v>2702</v>
       </c>
       <c r="E245">
-        <v>25953377</v>
+        <v>25990810</v>
       </c>
       <c r="F245" t="s">
         <v>24</v>
@@ -7745,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>13250</v>
+        <v>13252</v>
       </c>
       <c r="D246">
         <v>5419</v>
       </c>
       <c r="E246">
-        <v>17321957</v>
+        <v>17323750</v>
       </c>
       <c r="F246" t="s">
         <v>24</v>
@@ -7774,13 +7774,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>27306</v>
+        <v>27389</v>
       </c>
       <c r="D247">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="E247">
-        <v>90442192</v>
+        <v>90902037</v>
       </c>
       <c r="F247" t="s">
         <v>24</v>
@@ -7803,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>37728</v>
+        <v>37777</v>
       </c>
       <c r="D248">
         <v>8741</v>
       </c>
       <c r="E248">
-        <v>72737660</v>
+        <v>72889687</v>
       </c>
       <c r="F248" t="s">
         <v>24</v>
@@ -7832,13 +7832,13 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>34215</v>
+        <v>34353</v>
       </c>
       <c r="D249">
-        <v>9190</v>
+        <v>9197</v>
       </c>
       <c r="E249">
-        <v>133952887</v>
+        <v>134786865</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
@@ -7861,13 +7861,13 @@
         <v>10</v>
       </c>
       <c r="C250">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D250">
         <v>31</v>
       </c>
       <c r="E250">
-        <v>186261</v>
+        <v>187761</v>
       </c>
       <c r="F250" t="s">
         <v>25</v>
@@ -7890,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>34731</v>
+        <v>34788</v>
       </c>
       <c r="D251">
-        <v>8819</v>
+        <v>8820</v>
       </c>
       <c r="E251">
-        <v>69183249</v>
+        <v>69499186</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -7977,13 +7977,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>62148</v>
+        <v>62190</v>
       </c>
       <c r="D254">
         <v>23914</v>
       </c>
       <c r="E254">
-        <v>98402848</v>
+        <v>98486738</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -8006,13 +8006,13 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>138439</v>
+        <v>138705</v>
       </c>
       <c r="D255">
-        <v>32049</v>
+        <v>32053</v>
       </c>
       <c r="E255">
-        <v>392067280</v>
+        <v>393646525</v>
       </c>
       <c r="F255" t="s">
         <v>25</v>
@@ -8035,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>29038</v>
+        <v>29095</v>
       </c>
       <c r="D256">
         <v>5064</v>
       </c>
       <c r="E256">
-        <v>73450855</v>
+        <v>73657076</v>
       </c>
       <c r="F256" t="s">
         <v>25</v>
@@ -8064,13 +8064,13 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>170503</v>
+        <v>171020</v>
       </c>
       <c r="D257">
-        <v>20155</v>
+        <v>20157</v>
       </c>
       <c r="E257">
-        <v>1017118281</v>
+        <v>1021637022</v>
       </c>
       <c r="F257" t="s">
         <v>25</v>
@@ -8093,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>14264</v>
+        <v>14300</v>
       </c>
       <c r="D258">
         <v>2973</v>
       </c>
       <c r="E258">
-        <v>37101139</v>
+        <v>37308230</v>
       </c>
       <c r="F258" t="s">
         <v>25</v>
@@ -8122,13 +8122,13 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>6141</v>
+        <v>6147</v>
       </c>
       <c r="D259">
         <v>1538</v>
       </c>
       <c r="E259">
-        <v>13917120</v>
+        <v>13944602</v>
       </c>
       <c r="F259" t="s">
         <v>25</v>
@@ -8151,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>23177</v>
+        <v>23222</v>
       </c>
       <c r="D260">
         <v>5854</v>
       </c>
       <c r="E260">
-        <v>48425429</v>
+        <v>48527247</v>
       </c>
       <c r="F260" t="s">
         <v>25</v>
@@ -8180,13 +8180,13 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>75989</v>
+        <v>76149</v>
       </c>
       <c r="D261">
         <v>17135</v>
       </c>
       <c r="E261">
-        <v>220514051</v>
+        <v>221524805</v>
       </c>
       <c r="F261" t="s">
         <v>25</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>36896</v>
+        <v>36966</v>
       </c>
       <c r="D262">
         <v>8091</v>
       </c>
       <c r="E262">
-        <v>107203606</v>
+        <v>107796976</v>
       </c>
       <c r="F262" t="s">
         <v>25</v>
@@ -8238,13 +8238,13 @@
         <v>10</v>
       </c>
       <c r="C263">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D263">
         <v>7</v>
       </c>
       <c r="E263">
-        <v>79927</v>
+        <v>89927</v>
       </c>
       <c r="F263" t="s">
         <v>25</v>
@@ -8267,13 +8267,13 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>45646</v>
+        <v>45740</v>
       </c>
       <c r="D264">
-        <v>7754</v>
+        <v>7755</v>
       </c>
       <c r="E264">
-        <v>79443106</v>
+        <v>79652034</v>
       </c>
       <c r="F264" t="s">
         <v>25</v>
@@ -8296,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>43128</v>
+        <v>43147</v>
       </c>
       <c r="D265">
         <v>17109</v>
       </c>
       <c r="E265">
-        <v>57497894</v>
+        <v>57525032</v>
       </c>
       <c r="F265" t="s">
         <v>25</v>
@@ -8325,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>66516</v>
+        <v>66731</v>
       </c>
       <c r="D266">
-        <v>9013</v>
+        <v>9015</v>
       </c>
       <c r="E266">
-        <v>201845797</v>
+        <v>202780864</v>
       </c>
       <c r="F266" t="s">
         <v>25</v>
@@ -8354,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>83684</v>
+        <v>83839</v>
       </c>
       <c r="D267">
-        <v>20022</v>
+        <v>20023</v>
       </c>
       <c r="E267">
-        <v>153812355</v>
+        <v>154151305</v>
       </c>
       <c r="F267" t="s">
         <v>25</v>
@@ -8383,13 +8383,13 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>31142</v>
+        <v>31227</v>
       </c>
       <c r="D268">
         <v>8028</v>
       </c>
       <c r="E268">
-        <v>84368000</v>
+        <v>84794654</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -8441,13 +8441,13 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>38785</v>
+        <v>38851</v>
       </c>
       <c r="D270">
-        <v>9506</v>
+        <v>9508</v>
       </c>
       <c r="E270">
-        <v>76578584</v>
+        <v>76767858</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>88299</v>
+        <v>88400</v>
       </c>
       <c r="D273">
-        <v>29714</v>
+        <v>29715</v>
       </c>
       <c r="E273">
-        <v>137665805</v>
+        <v>137902582</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -8557,13 +8557,13 @@
         <v>10</v>
       </c>
       <c r="C274">
-        <v>164790</v>
+        <v>165095</v>
       </c>
       <c r="D274">
-        <v>35657</v>
+        <v>35659</v>
       </c>
       <c r="E274">
-        <v>437804115</v>
+        <v>439166847</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -8586,13 +8586,13 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>37371</v>
+        <v>37439</v>
       </c>
       <c r="D275">
         <v>6052</v>
       </c>
       <c r="E275">
-        <v>92702480</v>
+        <v>92906401</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -8615,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C276">
-        <v>203407</v>
+        <v>203911</v>
       </c>
       <c r="D276">
-        <v>23262</v>
+        <v>23268</v>
       </c>
       <c r="E276">
-        <v>1158405691</v>
+        <v>1162429714</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -8644,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>18184</v>
+        <v>18232</v>
       </c>
       <c r="D277">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="E277">
-        <v>39839600</v>
+        <v>40034070</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -8673,13 +8673,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>6605</v>
+        <v>6617</v>
       </c>
       <c r="D278">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E278">
-        <v>12700550</v>
+        <v>12820484</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -8702,13 +8702,13 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>28567</v>
+        <v>28614</v>
       </c>
       <c r="D279">
-        <v>6558</v>
+        <v>6559</v>
       </c>
       <c r="E279">
-        <v>56273523</v>
+        <v>56391698</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>91645</v>
+        <v>91842</v>
       </c>
       <c r="D280">
-        <v>19683</v>
+        <v>19689</v>
       </c>
       <c r="E280">
-        <v>269461111</v>
+        <v>270438460</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -8760,13 +8760,13 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>41644</v>
+        <v>41722</v>
       </c>
       <c r="D281">
-        <v>8948</v>
+        <v>8949</v>
       </c>
       <c r="E281">
-        <v>124280881</v>
+        <v>124651095</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -8818,13 +8818,13 @@
         <v>10</v>
       </c>
       <c r="C283">
-        <v>58305</v>
+        <v>58439</v>
       </c>
       <c r="D283">
         <v>9854</v>
       </c>
       <c r="E283">
-        <v>98276069</v>
+        <v>98755834</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -8847,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>48288</v>
+        <v>48315</v>
       </c>
       <c r="D284">
         <v>19339</v>
       </c>
       <c r="E284">
-        <v>64829272</v>
+        <v>64869100</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -8876,13 +8876,13 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>79728</v>
+        <v>79955</v>
       </c>
       <c r="D285">
-        <v>10270</v>
+        <v>10272</v>
       </c>
       <c r="E285">
-        <v>237432328</v>
+        <v>238458207</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -8905,13 +8905,13 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>89113</v>
+        <v>89303</v>
       </c>
       <c r="D286">
-        <v>20277</v>
+        <v>20282</v>
       </c>
       <c r="E286">
-        <v>159092379</v>
+        <v>159563789</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>8210</v>
+        <v>8220</v>
       </c>
       <c r="D287">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E287">
-        <v>23851730</v>
+        <v>23917894</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -8992,13 +8992,13 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>15267</v>
+        <v>15324</v>
       </c>
       <c r="D289">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E289">
-        <v>31910736</v>
+        <v>32108620</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -9050,13 +9050,13 @@
         <v>10</v>
       </c>
       <c r="C291">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D291">
         <v>274</v>
       </c>
       <c r="E291">
-        <v>1466310</v>
+        <v>1477810</v>
       </c>
       <c r="F291" t="s">
         <v>27</v>
@@ -9079,13 +9079,13 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>23973</v>
+        <v>23992</v>
       </c>
       <c r="D292">
-        <v>10123</v>
+        <v>10124</v>
       </c>
       <c r="E292">
-        <v>37913197</v>
+        <v>37941432</v>
       </c>
       <c r="F292" t="s">
         <v>27</v>
@@ -9108,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>60415</v>
+        <v>60569</v>
       </c>
       <c r="D293">
-        <v>14516</v>
+        <v>14519</v>
       </c>
       <c r="E293">
-        <v>184293954</v>
+        <v>185814983</v>
       </c>
       <c r="F293" t="s">
         <v>27</v>
@@ -9137,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>14963</v>
+        <v>14989</v>
       </c>
       <c r="D294">
         <v>2492</v>
       </c>
       <c r="E294">
-        <v>39157595</v>
+        <v>39331090</v>
       </c>
       <c r="F294" t="s">
         <v>27</v>
@@ -9166,13 +9166,13 @@
         <v>10</v>
       </c>
       <c r="C295">
-        <v>84661</v>
+        <v>84928</v>
       </c>
       <c r="D295">
         <v>9874</v>
       </c>
       <c r="E295">
-        <v>528687056</v>
+        <v>530972926</v>
       </c>
       <c r="F295" t="s">
         <v>27</v>
@@ -9195,13 +9195,13 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>8168</v>
+        <v>8190</v>
       </c>
       <c r="D296">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E296">
-        <v>19383379</v>
+        <v>19481534</v>
       </c>
       <c r="F296" t="s">
         <v>27</v>
@@ -9224,13 +9224,13 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3675</v>
+        <v>3682</v>
       </c>
       <c r="D297">
         <v>966</v>
       </c>
       <c r="E297">
-        <v>7500799</v>
+        <v>7586030</v>
       </c>
       <c r="F297" t="s">
         <v>27</v>
@@ -9253,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>11762</v>
+        <v>11779</v>
       </c>
       <c r="D298">
         <v>2955</v>
       </c>
       <c r="E298">
-        <v>23467182</v>
+        <v>23742760</v>
       </c>
       <c r="F298" t="s">
         <v>27</v>
@@ -9282,13 +9282,13 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>41281</v>
+        <v>41376</v>
       </c>
       <c r="D299">
-        <v>9307</v>
+        <v>9308</v>
       </c>
       <c r="E299">
-        <v>133571857</v>
+        <v>134143762</v>
       </c>
       <c r="F299" t="s">
         <v>27</v>
@@ -9311,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>14759</v>
+        <v>14789</v>
       </c>
       <c r="D300">
         <v>3335</v>
       </c>
       <c r="E300">
-        <v>62368467</v>
+        <v>62467970</v>
       </c>
       <c r="F300" t="s">
         <v>27</v>
@@ -9340,13 +9340,13 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <v>19103</v>
+        <v>19137</v>
       </c>
       <c r="D301">
         <v>3594</v>
       </c>
       <c r="E301">
-        <v>35700020</v>
+        <v>35787785</v>
       </c>
       <c r="F301" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>23759</v>
+        <v>23776</v>
       </c>
       <c r="D302">
         <v>9605</v>
       </c>
       <c r="E302">
-        <v>31316724</v>
+        <v>31339200</v>
       </c>
       <c r="F302" t="s">
         <v>27</v>
@@ -9398,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>37121</v>
+        <v>37234</v>
       </c>
       <c r="D303">
-        <v>5178</v>
+        <v>5182</v>
       </c>
       <c r="E303">
-        <v>121569581</v>
+        <v>122162984</v>
       </c>
       <c r="F303" t="s">
         <v>27</v>
@@ -9427,13 +9427,13 @@
         <v>10</v>
       </c>
       <c r="C304">
-        <v>42563</v>
+        <v>42644</v>
       </c>
       <c r="D304">
-        <v>10314</v>
+        <v>10316</v>
       </c>
       <c r="E304">
-        <v>85006174</v>
+        <v>85229999</v>
       </c>
       <c r="F304" t="s">
         <v>27</v>
@@ -9456,13 +9456,13 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>14054</v>
+        <v>14084</v>
       </c>
       <c r="D305">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="E305">
-        <v>44937020</v>
+        <v>45170751</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -9514,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>38540</v>
+        <v>38613</v>
       </c>
       <c r="D307">
         <v>8895</v>
       </c>
       <c r="E307">
-        <v>89052915</v>
+        <v>89677441</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -9543,13 +9543,13 @@
         <v>10</v>
       </c>
       <c r="C308">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D308">
         <v>48</v>
       </c>
       <c r="E308">
-        <v>423101</v>
+        <v>424601</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -9572,13 +9572,13 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D309">
         <v>177</v>
       </c>
       <c r="E309">
-        <v>1086587</v>
+        <v>1099254</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -9601,13 +9601,13 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>82059</v>
+        <v>82142</v>
       </c>
       <c r="D310">
         <v>26078</v>
       </c>
       <c r="E310">
-        <v>133317620</v>
+        <v>133511856</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -9630,13 +9630,13 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>186291</v>
+        <v>186650</v>
       </c>
       <c r="D311">
-        <v>37597</v>
+        <v>37601</v>
       </c>
       <c r="E311">
-        <v>552272245</v>
+        <v>555325717</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -9659,13 +9659,13 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>70815</v>
+        <v>70877</v>
       </c>
       <c r="D312">
         <v>9321</v>
       </c>
       <c r="E312">
-        <v>188393965</v>
+        <v>188641704</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>206970</v>
+        <v>207438</v>
       </c>
       <c r="D313">
         <v>23217</v>
       </c>
       <c r="E313">
-        <v>1303432058</v>
+        <v>1307527987</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>19912</v>
+        <v>19946</v>
       </c>
       <c r="D314">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="E314">
-        <v>48418632</v>
+        <v>48580820</v>
       </c>
       <c r="F314" t="s">
         <v>28</v>
@@ -9746,13 +9746,13 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>8004</v>
+        <v>8017</v>
       </c>
       <c r="D315">
         <v>1771</v>
       </c>
       <c r="E315">
-        <v>16580349</v>
+        <v>16605682</v>
       </c>
       <c r="F315" t="s">
         <v>28</v>
@@ -9775,13 +9775,13 @@
         <v>10</v>
       </c>
       <c r="C316">
-        <v>38020</v>
+        <v>38093</v>
       </c>
       <c r="D316">
-        <v>8070</v>
+        <v>8071</v>
       </c>
       <c r="E316">
-        <v>84684323</v>
+        <v>84960785</v>
       </c>
       <c r="F316" t="s">
         <v>28</v>
@@ -9804,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="C317">
-        <v>99479</v>
+        <v>99684</v>
       </c>
       <c r="D317">
-        <v>21115</v>
+        <v>21116</v>
       </c>
       <c r="E317">
-        <v>285813427</v>
+        <v>286936159</v>
       </c>
       <c r="F317" t="s">
         <v>28</v>
@@ -9833,13 +9833,13 @@
         <v>10</v>
       </c>
       <c r="C318">
-        <v>55342</v>
+        <v>55431</v>
       </c>
       <c r="D318">
-        <v>10820</v>
+        <v>10822</v>
       </c>
       <c r="E318">
-        <v>189662241</v>
+        <v>190728055</v>
       </c>
       <c r="F318" t="s">
         <v>28</v>
@@ -9891,13 +9891,13 @@
         <v>10</v>
       </c>
       <c r="C320">
-        <v>64341</v>
+        <v>64484</v>
       </c>
       <c r="D320">
-        <v>10238</v>
+        <v>10239</v>
       </c>
       <c r="E320">
-        <v>119674080</v>
+        <v>120263875</v>
       </c>
       <c r="F320" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>10</v>
       </c>
       <c r="C321">
-        <v>44670</v>
+        <v>44694</v>
       </c>
       <c r="D321">
         <v>17369</v>
       </c>
       <c r="E321">
-        <v>59779102</v>
+        <v>59814109</v>
       </c>
       <c r="F321" t="s">
         <v>28</v>
@@ -9949,13 +9949,13 @@
         <v>10</v>
       </c>
       <c r="C322">
-        <v>75237</v>
+        <v>75419</v>
       </c>
       <c r="D322">
-        <v>9574</v>
+        <v>9575</v>
       </c>
       <c r="E322">
-        <v>234582861</v>
+        <v>235665100</v>
       </c>
       <c r="F322" t="s">
         <v>28</v>
@@ -9978,13 +9978,13 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>92811</v>
+        <v>93004</v>
       </c>
       <c r="D323">
-        <v>19855</v>
+        <v>19856</v>
       </c>
       <c r="E323">
-        <v>175427822</v>
+        <v>176001603</v>
       </c>
       <c r="F323" t="s">
         <v>28</v>
